--- a/Credito/Credito-parte1.xlsx
+++ b/Credito/Credito-parte1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mippolimi-my.sharepoint.com/personal/giorgio_cappello_gsom_polimi_it/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mippolimi-my.sharepoint.com/personal/giorgio_cappello_gsom_polimi_it/Documents/Desktop/Valutazione Prodotti/Progetto/Anno corrente/ProgettoValutazioneProdotti/Credito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{63744DCE-6C42-41B8-B74E-D1CE19CF747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CBB2860-D1BB-455B-9075-3383AD506920}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{63744DCE-6C42-41B8-B74E-D1CE19CF747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F2A8FC-1E31-4B43-BED4-ABF5A83B7102}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>T</t>
   </si>
@@ -92,12 +92,6 @@
     <t>cumulated</t>
   </si>
   <si>
-    <t>protection leg</t>
-  </si>
-  <si>
-    <t>Rule of thumb</t>
-  </si>
-  <si>
     <t>Upfront expected</t>
   </si>
   <si>
@@ -105,16 +99,15 @@
   </si>
   <si>
     <t>Differenza upfront</t>
+  </si>
+  <si>
+    <t>default leg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -174,13 +167,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -515,8 +505,8 @@
     <we:property name="JykPFS4Lf3I7KVoePRVvCAQqWg==" value="&quot;QXpVWQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAQqWw==" value="&quot;QXtI&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAk1WQ==" value="&quot;RQJMSHM=&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1Wg==" value="&quot;RQ1MQA==&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1Ww==" value="&quot;RQBMSHc=&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1Wg==" value="&quot;&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1Ww==" value="&quot;RQJMSHU=&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCBIi" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCQ4l" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCQIq" value="&quot;UA==&quot;"/>
@@ -528,11 +518,11 @@
     <we:property name="JykPFS4Lf3I7KVoePRVvExE1" value="&quot;UWhRQA==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvExEi" value="&quot;Ug==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvExEv" value="&quot;UA==&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvFAQh" value="&quot;UQ==&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvFAQh" value="&quot;UA==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFBQr" value="&quot;UA==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFgk1WQ==" value="&quot;RQJMSHQ=&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1Wg==" value="&quot;RQBMSHQ=&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1Ww==" value="&quot;RQBMSHU=&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1Wg==" value="&quot;&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1Ww==" value="&quot;RQJMSHc=&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFhE2" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFhEy" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFw8v" value="&quot;UnY=&quot;"/>
@@ -552,16 +542,20 @@
     <we:property name="JykPFS4Lf3IeJ0QBOQVcHxJ3" value="&quot;&quot;"/>
     <we:property name="LiQC" value="&quot;&quot;"/>
     <we:property name="UniqueID" value="&quot;20241111707665900305&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1XA==" value="&quot;&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAQqXA==" value="&quot;QXpVWQ==&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1XA==" value="&quot;&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="Var$F$10:$F$12" type="matrix" appref="{3194F19F-A891-46AD-B6A0-B93C7D42DD12}"/>
     <we:binding id="Var$F$13:$F$14" type="matrix" appref="{C52DD111-72C4-4CAC-B116-CECCA96BD5E8}"/>
     <we:binding id="Var$D$16:$D$17" type="matrix" appref="{EE45590B-7908-4C3A-B47B-F1F1B0461A6A}"/>
-    <we:binding id="refEdit" type="matrix" appref="{4E41CF54-34AB-418C-9D5D-BB3A162F2AEB}"/>
-    <we:binding id="Worker" type="matrix" appref="{00100ACF-231E-4D4F-8D27-A2EB9C68450B}"/>
-    <we:binding id="Var0" type="matrix" appref="{2BDA76F9-ED6A-4862-9465-13AF70836310}"/>
-    <we:binding id="Obj" type="matrix" appref="{6E5F5AF8-5E67-4DDE-8075-A607CB6EEA7A}"/>
-    <we:binding id="Var$D$13:$D$14" type="matrix" appref="{14159DE8-4E9B-446C-BA4F-183B5BC151AD}"/>
+    <we:binding id="refEdit" type="matrix" appref="{6F0899F1-C35C-4057-AB92-4BD3B4AF5724}"/>
+    <we:binding id="Worker" type="matrix" appref="{E8D392F5-68C9-4739-8A79-D844BF4C3582}"/>
+    <we:binding id="Var0" type="matrix" appref="{2A74E88F-27FB-49DC-9617-EA51A5FC71C8}"/>
+    <we:binding id="Var$D$10:$D$12" type="matrix" appref="{AADCFD18-C056-471C-9E04-8FEF77D2B029}"/>
+    <we:binding id="Obj" type="matrix" appref="{6E1FA0CE-D056-4A09-A416-7965D5AFA059}"/>
+    <we:binding id="Var$D$13:$D$14" type="matrix" appref="{2F668797-C4E5-449C-B2ED-3DF426AC54B3}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -571,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA69AD2D-A7DA-4E25-BAC8-F5669C670454}">
   <dimension ref="A2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -597,10 +591,6 @@
       <c r="B2" s="2">
         <v>0.03</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -609,11 +599,6 @@
       <c r="B3" s="2">
         <v>0.01</v>
       </c>
-      <c r="F3" s="11">
-        <f>(1-$B$4)*D10</f>
-        <v>-4.1389316642858323E-3</v>
-      </c>
-      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -624,18 +609,18 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -662,16 +647,16 @@
         <v>16</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -683,7 +668,7 @@
         <v>44915</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C14" si="0">EXP(-$B$2*(B9-$B$9)/365)</f>
+        <f>EXP(-$B$2*(B9-$B$9)/365)</f>
         <v>1</v>
       </c>
       <c r="E9">
@@ -709,31 +694,31 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C9:C14" si="0">EXP(-$B$2*(B10-$B$9)/365)</f>
         <v>0.97044553354850815</v>
       </c>
       <c r="D10" s="8">
-        <v>-6.8982194404763877E-3</v>
+        <v>2.5462768567530186E-2</v>
       </c>
       <c r="E10" s="1">
         <f>E9+D10*(B10-$B$9)/365</f>
-        <v>-6.8982194404763877E-3</v>
+        <v>2.5462768567530183E-2</v>
       </c>
       <c r="F10" s="1">
         <f>EXP(-E10)</f>
-        <v>1.0069220669598047</v>
+        <v>0.97485867367496148</v>
       </c>
       <c r="G10" s="1">
         <f>(B10-B9)/360</f>
         <v>1.0138888888888888</v>
       </c>
       <c r="H10" s="1">
-        <f>+$B$3*G10*C10*F10+H9</f>
-        <v>9.9073473115858218E-3</v>
+        <f>$B$3*G10*C10*F10+H9</f>
+        <v>9.591867907881791E-3</v>
       </c>
       <c r="I10" s="1">
         <f>+I9+C10*(1-$B$4)*(F9-F10)</f>
-        <v>-4.0304933784396941E-3</v>
+        <v>1.4638972703771493E-2</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -752,27 +737,27 @@
         <v>0.94168713146107119</v>
       </c>
       <c r="D11" s="8">
-        <v>-6.8982194404763877E-3</v>
+        <v>2.5462768567530186E-2</v>
       </c>
       <c r="E11" s="1">
         <f>E10+D11*(B11-$B$9)/365</f>
-        <v>-2.0713557552772936E-2</v>
+        <v>7.6458066712364617E-2</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ref="F11:F14" si="1">EXP(-E11)</f>
-        <v>1.0209295721851601</v>
+        <v>0.92639176012649005</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:G14" si="2">(B11-B10)/360</f>
+        <f>(B11-B10)/360</f>
         <v>1.0166666666666666</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11:H13" si="3">+$B$3*G11*C11*F11+H10</f>
-        <v>1.968154242084318E-2</v>
+        <f t="shared" ref="H11:H13" si="2">+$B$3*G11*C11*F11+H10</f>
+        <v>1.8460975099775775E-2</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ref="I11:I13" si="4">+I10+C11*(1-$B$4)*(F10-F11)</f>
-        <v>-1.1944905827194248E-2</v>
+        <f t="shared" ref="I11:I13" si="3">+I10+C11*(1-$B$4)*(F10-F11)</f>
+        <v>4.2023373977910568E-2</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -791,38 +776,38 @@
         <v>0.91385607072650343</v>
       </c>
       <c r="D12" s="8">
-        <v>-6.8982194404763877E-3</v>
+        <v>2.5462768567530186E-2</v>
       </c>
       <c r="E12" s="1">
         <f>E11+D12*(B12-$B$9)/365</f>
-        <v>-4.1427115105545871E-2</v>
+        <v>0.15291613342472923</v>
       </c>
       <c r="F12" s="1">
         <f>EXP(-E12)</f>
-        <v>1.0422971913621744</v>
+        <v>0.85820169323025619</v>
       </c>
       <c r="G12" s="1">
+        <f t="shared" ref="G11:G14" si="4">(B12-B11)/360</f>
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="3"/>
-        <v>2.9338931581316514E-2</v>
+        <v>2.6412630154002869E-2</v>
       </c>
       <c r="I12" s="1">
         <f>+I11+C12*(1-$B$4)*(F11-F12)</f>
-        <v>-2.3661062928326159E-2</v>
+        <v>7.941291793573238E-2</v>
       </c>
       <c r="J12" s="1">
-        <f>H12-I12</f>
-        <v>5.299999450964267E-2</v>
+        <f>I12-H12</f>
+        <v>5.3000287781729508E-2</v>
       </c>
       <c r="K12" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="L12" s="1">
         <f>K12-J12</f>
-        <v>5.4903573284970086E-9</v>
+        <v>-2.8778172950910674E-7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -837,28 +822,28 @@
         <f t="shared" si="0"/>
         <v>0.88684754214272488</v>
       </c>
-      <c r="D13" s="9">
-        <v>-1.2122459525194303E-3</v>
+      <c r="D13" s="10">
+        <v>1.0043080911661098E-2</v>
       </c>
       <c r="E13" s="5">
         <f>E12+D13*(B13-$B$9)/365</f>
-        <v>-4.627942013741132E-2</v>
+        <v>0.19311597236154257</v>
       </c>
       <c r="F13" s="5">
         <f>EXP(-E13)</f>
-        <v>1.0473670255120224</v>
+        <v>0.82438636256177533</v>
       </c>
       <c r="G13" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="H13" s="5">
+        <v>3.3825222711949272E-2</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="3"/>
-        <v>3.8756487925435568E-2</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.6358764901244568E-2</v>
+        <v>9.7406343669783832E-2</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -876,46 +861,42 @@
         <f t="shared" si="0"/>
         <v>0.86063723621087973</v>
       </c>
-      <c r="D14" s="9">
-        <v>-1.2122459525194303E-3</v>
+      <c r="D14" s="10">
+        <v>1.0043080911661098E-2</v>
       </c>
       <c r="E14" s="5">
         <f>E13+D14*(B14-$B$9)/365</f>
-        <v>-5.2343971121796194E-2</v>
+        <v>0.243358892210017</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>1.0537381356720075</v>
+        <v>0.78399009533718822</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0138888888888888</v>
       </c>
       <c r="H14" s="5">
         <f>+$B$3*G14*C14*F14+H13</f>
-        <v>4.7951307120513008E-2</v>
+        <v>4.0666246049080139E-2</v>
       </c>
       <c r="I14" s="5">
         <f>+I13+C14*(1-$B$4)*(F13-F14)</f>
-        <v>-2.9648693685055315E-2</v>
+        <v>0.11826626273622672</v>
       </c>
       <c r="J14" s="5">
-        <f>H14-I14</f>
-        <v>7.7600000805568323E-2</v>
+        <f>I14-H14</f>
+        <v>7.7600016687146584E-2</v>
       </c>
       <c r="K14" s="5">
         <v>7.7600000000000002E-2</v>
       </c>
       <c r="L14" s="5">
         <f>K14-J14</f>
-        <v>-8.0556832038336523E-10</v>
+        <v>-1.6687146581206846E-8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -930,19 +911,22 @@
         <x15:webExtension appRef="{EE45590B-7908-4C3A-B47B-F1F1B0461A6A}">
           <xm:f>Foglio1!$B$16:$B$17</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{4E41CF54-34AB-418C-9D5D-BB3A162F2AEB}">
+        <x15:webExtension appRef="{6F0899F1-C35C-4057-AB92-4BD3B4AF5724}">
           <xm:f>Foglio1!1:1048576</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{00100ACF-231E-4D4F-8D27-A2EB9C68450B}">
+        <x15:webExtension appRef="{E8D392F5-68C9-4739-8A79-D844BF4C3582}">
           <xm:f>Foglio1!XFD1048550:XFD1048575</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{2BDA76F9-ED6A-4862-9465-13AF70836310}">
+        <x15:webExtension appRef="{2A74E88F-27FB-49DC-9617-EA51A5FC71C8}">
           <xm:f>Foglio1!$D$13:$D$14</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{6E5F5AF8-5E67-4DDE-8075-A607CB6EEA7A}">
+        <x15:webExtension appRef="{AADCFD18-C056-471C-9E04-8FEF77D2B029}">
+          <xm:f>Foglio1!$D$10:$D$12</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{6E1FA0CE-D056-4A09-A416-7965D5AFA059}">
           <xm:f>Foglio1!$L$14</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{14159DE8-4E9B-446C-BA4F-183B5BC151AD}">
+        <x15:webExtension appRef="{2F668797-C4E5-449C-B2ED-3DF426AC54B3}">
           <xm:f>Foglio1!$D$13:$D$14</xm:f>
         </x15:webExtension>
       </x15:webExtensions>

--- a/Credito/Credito-parte1.xlsx
+++ b/Credito/Credito-parte1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mippolimi-my.sharepoint.com/personal/giorgio_cappello_gsom_polimi_it/Documents/Desktop/Valutazione Prodotti/Progetto/Anno corrente/ProgettoValutazioneProdotti/Credito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{63744DCE-6C42-41B8-B74E-D1CE19CF747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F2A8FC-1E31-4B43-BED4-ABF5A83B7102}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="8_{63744DCE-6C42-41B8-B74E-D1CE19CF747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF49B83A-287B-4F8B-8931-9A07DF388271}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gruppo 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gruppo 5_anno scorso" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>T</t>
   </si>
@@ -56,15 +79,9 @@
     <t>T5</t>
   </si>
   <si>
-    <t>Int rate</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>rec</t>
-  </si>
-  <si>
     <t>DISC</t>
   </si>
   <si>
@@ -77,9 +94,6 @@
     <t>surv</t>
   </si>
   <si>
-    <t>T0</t>
-  </si>
-  <si>
     <t>yrfr</t>
   </si>
   <si>
@@ -102,6 +116,21 @@
   </si>
   <si>
     <t>default leg</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>GRUPPO 1</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>GRUPPO 5 ANNO SCORSO</t>
   </si>
 </sst>
 </file>
@@ -123,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +171,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -155,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -171,6 +206,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -502,11 +539,13 @@
     <we:property name="JykPFS4Lf3I7KVoePRVvCAMw" value="&quot;UA==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAQ1" value="&quot;VA==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAQqWQ==" value="&quot;QXtI&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvCAQqWg==" value="&quot;QXpVWQ==&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAQqWg==" value="&quot;QXtI&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAQqWw==" value="&quot;QXtI&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAQqXA==" value="&quot;QXpVWQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAk1WQ==" value="&quot;RQJMSHM=&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1Wg==" value="&quot;&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1Wg==" value="&quot;RQJMSHY=&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAk1Ww==" value="&quot;RQJMSHU=&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1XA==" value="&quot;&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCBIi" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCQ4l" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCQIq" value="&quot;UA==&quot;"/>
@@ -519,10 +558,11 @@
     <we:property name="JykPFS4Lf3I7KVoePRVvExEi" value="&quot;Ug==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvExEv" value="&quot;UA==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFAQh" value="&quot;UA==&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvFBQr" value="&quot;UA==&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvFBQr" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFgk1WQ==" value="&quot;RQJMSHQ=&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1Wg==" value="&quot;&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1Wg==" value="&quot;RQJMSHU=&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFgk1Ww==" value="&quot;RQJMSHc=&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1XA==" value="&quot;&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFhE2" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFhEy" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFw8v" value="&quot;UnY=&quot;"/>
@@ -535,27 +575,146 @@
     <we:property name="JykPFS4Lf3I7KVoePRVvHAQn" value="&quot;UWhYSXdUfmI=&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvHQA2" value="&quot;UWhYSXdUfmI=&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvHw8h" value="&quot;JhQv&quot;"/>
-    <we:property name="JykPFS4Lf3IFJ04lMQk=" value="&quot;Ug==&quot;"/>
-    <we:property name="JykPFS4Lf3IHJFw=" value="&quot;RQpMSHM=&quot;"/>
-    <we:property name="JykPFS4Lf3IeJ0QBOQVcHxI=" value="&quot;RQJMSHReahdsdwI=&quot;"/>
+    <we:property name="JykPFS4Lf3IFJ04lMQk=" value="&quot;UA==&quot;"/>
+    <we:property name="JykPFS4Lf3IHJFw=" value="&quot;&quot;"/>
+    <we:property name="JykPFS4Lf3IeJ0QBOQVcHxI=" value="&quot;&quot;"/>
     <we:property name="JykPFS4Lf3IeJ0QBOQVcHxJ2" value="&quot;&quot;"/>
     <we:property name="JykPFS4Lf3IeJ0QBOQVcHxJ3" value="&quot;&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCA0+" value="&quot;UQ==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCAMw" value="&quot;UA==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCAQ1" value="&quot;VA==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCAQqWQ==" value="&quot;QXtI&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCAQqWg==" value="&quot;QXtI&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCAQqWw==" value="&quot;QXtI&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCAk1WQ==" value="&quot;RQJMSHY=&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCAk1Wg==" value="&quot;RQJMSHU=&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCAk1Ww==" value="&quot;RQJMSHU=&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCBIi" value="&quot;UQ==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCQ4l" value="&quot;UQ==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCQIq" value="&quot;UA==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCRI8" value="&quot;UHZY&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvCRUn" value="&quot;UQ==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvChMj" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvDAAq" value="&quot;UQ==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvDg4q" value="&quot;UWhYSA==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvExE1" value="&quot;UWhRQA==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvExEi" value="&quot;Ug==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvExEv" value="&quot;UA==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvFAQh" value="&quot;UA==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvFBQr" value="&quot;UQ==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvFgk1WQ==" value="&quot;RQJMSHc=&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvFgk1Wg==" value="&quot;RQJMSHY=&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvFgk1Ww==" value="&quot;RQJMSHc=&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvFhE2" value="&quot;UQ==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvFhEy" value="&quot;UQ==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvFw8v" value="&quot;UnY=&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvFwQy" value="&quot;UA==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvFxIq" value="&quot;UQ==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvFxMy" value="&quot;UWhYTnI=&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvGRch" value="&quot;UWhYSXdV&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvGwIl" value="&quot;UWhYSXY=&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvGxM1" value="&quot;UA==&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvHAQn" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvHQA2" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JykPFS4LfHI7KVoePRVvHw8h" value="&quot;JhQv&quot;"/>
+    <we:property name="JykPFS4LfHIFJ04lMQk=" value="&quot;UA==&quot;"/>
+    <we:property name="JykPFS4LfHIHJFw=" value="&quot;&quot;"/>
+    <we:property name="JykPFS4LfHIeJ0QBOQVcHxI=" value="&quot;&quot;"/>
+    <we:property name="JykPFS4LfHIeJ0QBOQVcHxJ3" value="&quot;&quot;"/>
     <we:property name="LiQC" value="&quot;&quot;"/>
     <we:property name="UniqueID" value="&quot;20241111707665900305&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1XA==" value="&quot;&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvCAQqXA==" value="&quot;QXpVWQ==&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1XA==" value="&quot;&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENz0JVw==" value="&quot;JhQv&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmKS8rBS9Y" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmKyw5" value="&quot;&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzYCVw==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENygVVQ==" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENysEXA==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoLSA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENywIXA==" value="&quot;UWhYSA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzsRVw==" value="&quot;UWhYSXdV&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzUUXA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENysUSg==" value="&quot;UHZY&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoUVA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzUVRA==" value="&quot;UWhYTnI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzUJWQ==" value="&quot;UnY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoFRg==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzYTQg==" value="&quot;Uw==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzkEUw==" value="&quot;UWhYSXY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoCQw==" value="&quot;VA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzkVQw==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENysTUQ==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzUCRA==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENysIUw==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQXRA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQXQA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENz8GQA==" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzEXQw==" value="&quot;UWhRQA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENz4CUQ==" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzEXWQ==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzEXVA==" value="&quot;Ug==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmMi8hISdUBD0U" value="&quot;&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzYSXQ==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQPQ0s=" value="&quot;RQJMSHQ=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoCXEs=" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoPQ0s=" value="&quot;RQJMSHM=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQPQ0g=" value="&quot;RQJMSHc=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoCXEg=" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoPQ0g=" value="&quot;RQJMSHU=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQPQ0k=" value="&quot;RQJMSHY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoCXEk=" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoPQ0k=" value="&quot;RQJMSHU=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENy4GXA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQQoDw==" value="&quot;JhQv&quot;"/>
+    <we:property name="JjQdCTcLbmJpC1cQFQ5e" value="&quot;Ug==&quot;"/>
+    <we:property name="JjQdCTcLbmJpCVQC" value="&quot;RQpMSHM=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ8jDw==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRE0DQ==" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRIlBA==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRMqEA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRUpBA==" value="&quot;UWhYSA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQIwDw==" value="&quot;UWhYSXdV&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQw1BA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRI1Eg==" value="&quot;UHZY&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRM1DA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQw0HA==" value="&quot;UWhYTnI=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQwoAQ==" value="&quot;UnY=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRMkHg==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ8yGg==" value="&quot;Uw==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQAlCw==" value="&quot;UWhYSXY=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRMjGw==" value="&quot;VA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQA0Gw==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRIyCQ==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQwjHA==" value="&quot;Uw==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRIpCw==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ02HA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ02GA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQYnGA==" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQg2Gw==" value="&quot;UWhRQA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQcjCQ==" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQg2AQ==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQg2DA==" value="&quot;Ug==&quot;"/>
+    <we:property name="JjQdCTcLbmJpEFcaMQZSFgQ1" value="&quot;RQJMSHReahdsdwI=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ8zBQ==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ0uG0g=" value="&quot;RQJMSHQ=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRMjBEg=" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRMuG0g=" value="&quot;RQJMSHM=&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="Var$F$10:$F$12" type="matrix" appref="{3194F19F-A891-46AD-B6A0-B93C7D42DD12}"/>
     <we:binding id="Var$F$13:$F$14" type="matrix" appref="{C52DD111-72C4-4CAC-B116-CECCA96BD5E8}"/>
     <we:binding id="Var$D$16:$D$17" type="matrix" appref="{EE45590B-7908-4C3A-B47B-F1F1B0461A6A}"/>
-    <we:binding id="refEdit" type="matrix" appref="{6F0899F1-C35C-4057-AB92-4BD3B4AF5724}"/>
-    <we:binding id="Worker" type="matrix" appref="{E8D392F5-68C9-4739-8A79-D844BF4C3582}"/>
-    <we:binding id="Var0" type="matrix" appref="{2A74E88F-27FB-49DC-9617-EA51A5FC71C8}"/>
-    <we:binding id="Var$D$10:$D$12" type="matrix" appref="{AADCFD18-C056-471C-9E04-8FEF77D2B029}"/>
-    <we:binding id="Obj" type="matrix" appref="{6E1FA0CE-D056-4A09-A416-7965D5AFA059}"/>
-    <we:binding id="Var$D$13:$D$14" type="matrix" appref="{2F668797-C4E5-449C-B2ED-3DF426AC54B3}"/>
+    <we:binding id="Var$D$10:$D$11" type="matrix" appref="{92E88A3B-A3AD-43C1-88C3-60D7E849F64E}"/>
+    <we:binding id="Foglio1refEdit" type="matrix" appref="{F1D42B58-4236-4746-9702-2402814DC726}"/>
+    <we:binding id="Foglio1Worker" type="matrix" appref="{E1FB6474-727A-4617-9940-87100BC3D368}"/>
+    <we:binding id="refEdit" type="matrix" appref="{2501487E-8340-4470-94C3-9E34319EECDD}"/>
+    <we:binding id="Var0" type="matrix" appref="{3AFBFA4B-60C2-41ED-BE19-5E62FEADC8FA}"/>
+    <we:binding id="Worker" type="matrix" appref="{C2955EC7-9DEA-4AE7-8FFF-5F400756F2D2}"/>
+    <we:binding id="Gruppo 5_anno scorsorefEdit" type="matrix" appref="{B6261FDF-EE42-4CC2-A458-941534207465}"/>
+    <we:binding id="Gruppo 5_anno scorsoWorker" type="matrix" appref="{E4815D7E-F47C-412A-90CB-50A6072049D1}"/>
+    <we:binding id="Var$D$10:$D$12" type="matrix" appref="{6DE706DD-9C79-4413-A2FE-7A9AEB615A58}"/>
+    <we:binding id="Gruppo 1refEdit" type="matrix" appref="{BD22D0B4-4A36-4A27-9CE3-F56F27A59648}"/>
+    <we:binding id="Gruppo 1Worker" type="matrix" appref="{26F5079E-811A-4615-BB4E-ABAF08816D8D}"/>
+    <we:binding id="Var$D$13:$D$14" type="matrix" appref="{5F7FA5B8-AF43-4475-BC9C-4D3F0F1AD114}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -563,14 +722,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA69AD2D-A7DA-4E25-BAC8-F5669C670454}">
-  <dimension ref="A2:L14"/>
+  <dimension ref="A1:XFD1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -584,9 +744,14 @@
     <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
         <v>0.03</v>
@@ -594,7 +759,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>0.01</v>
@@ -602,7 +767,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>0.4</v>
@@ -610,18 +775,18 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H7" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -629,39 +794,39 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3">
         <f>DATE(2022,12,20)</f>
@@ -694,19 +859,19 @@
         <v>45280</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C9:C14" si="0">EXP(-$B$2*(B10-$B$9)/365)</f>
+        <f>EXP(-$B$2*(B10-$B$9)/365)</f>
         <v>0.97044553354850815</v>
       </c>
       <c r="D10" s="8">
-        <v>2.5462768567530186E-2</v>
+        <v>2.5462661381484123E-2</v>
       </c>
       <c r="E10" s="1">
         <f>E9+D10*(B10-$B$9)/365</f>
-        <v>2.5462768567530183E-2</v>
+        <v>2.5462661381484123E-2</v>
       </c>
       <c r="F10" s="1">
         <f>EXP(-E10)</f>
-        <v>0.97485867367496148</v>
+        <v>0.97485877816621369</v>
       </c>
       <c r="G10" s="1">
         <f>(B10-B9)/360</f>
@@ -714,11 +879,11 @@
       </c>
       <c r="H10" s="1">
         <f>$B$3*G10*C10*F10+H9</f>
-        <v>9.591867907881791E-3</v>
+        <v>9.5918689359962405E-3</v>
       </c>
       <c r="I10" s="1">
         <f>+I9+C10*(1-$B$4)*(F9-F10)</f>
-        <v>1.4638972703771493E-2</v>
+        <v>1.4638911861930094E-2</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -733,31 +898,31 @@
         <v>45646</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C11:C14" si="0">EXP(-$B$2*(B11-$B$9)/365)</f>
         <v>0.94168713146107119</v>
       </c>
       <c r="D11" s="8">
-        <v>2.5462768567530186E-2</v>
+        <v>2.5462661381484123E-2</v>
       </c>
       <c r="E11" s="1">
         <f>E10+D11*(B11-$B$9)/365</f>
-        <v>7.6458066712364617E-2</v>
+        <v>7.6457744860566029E-2</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ref="F11:F14" si="1">EXP(-E11)</f>
-        <v>0.92639176012649005</v>
+        <v>0.92639205828739213</v>
       </c>
       <c r="G11" s="1">
         <f>(B11-B10)/360</f>
         <v>1.0166666666666666</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11:H13" si="2">+$B$3*G11*C11*F11+H10</f>
-        <v>1.8460975099775775E-2</v>
+        <f>+$B$3*G11*C11*F11+H10</f>
+        <v>1.8460978982428787E-2</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ref="I11:I13" si="3">+I10+C11*(1-$B$4)*(F10-F11)</f>
-        <v>4.2023373977910568E-2</v>
+        <f t="shared" ref="I11:I13" si="2">+I10+C11*(1-$B$4)*(F10-F11)</f>
+        <v>4.2023203710338949E-2</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -776,38 +941,38 @@
         <v>0.91385607072650343</v>
       </c>
       <c r="D12" s="8">
-        <v>2.5462768567530186E-2</v>
+        <v>2.546266138148412E-2</v>
       </c>
       <c r="E12" s="1">
         <f>E11+D12*(B12-$B$9)/365</f>
-        <v>0.15291613342472923</v>
+        <v>0.15291548972113206</v>
       </c>
       <c r="F12" s="1">
         <f>EXP(-E12)</f>
-        <v>0.85820169323025619</v>
+        <v>0.858202245657951</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G11:G14" si="4">(B12-B11)/360</f>
+        <f t="shared" ref="G12:G14" si="3">(B12-B11)/360</f>
         <v>1.0138888888888888</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6412630154002869E-2</v>
+        <f t="shared" ref="H12:H13" si="4">+$B$3*G12*C12*F12+H11</f>
+        <v>2.6412639155166492E-2</v>
       </c>
       <c r="I12" s="1">
         <f>+I11+C12*(1-$B$4)*(F11-F12)</f>
-        <v>7.941291793573238E-2</v>
+        <v>7.9412608250209488E-2</v>
       </c>
       <c r="J12" s="1">
         <f>I12-H12</f>
-        <v>5.3000287781729508E-2</v>
+        <v>5.2999969095042995E-2</v>
       </c>
       <c r="K12" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="L12" s="1">
         <f>K12-J12</f>
-        <v>-2.8778172950910674E-7</v>
+        <v>3.0904957003252687E-8</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -823,27 +988,27 @@
         <v>0.88684754214272488</v>
       </c>
       <c r="D13" s="10">
-        <v>1.0043080911661098E-2</v>
+        <v>1.004321603533239E-2</v>
       </c>
       <c r="E13" s="5">
         <f>E12+D13*(B13-$B$9)/365</f>
-        <v>0.19311597236154257</v>
+        <v>0.19311586952283238</v>
       </c>
       <c r="F13" s="5">
         <f>EXP(-E13)</f>
-        <v>0.82438636256177533</v>
+        <v>0.82438644734060995</v>
       </c>
       <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="4"/>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="H13" s="5">
+        <v>3.3825232475414392E-2</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="2"/>
-        <v>3.3825222711949272E-2</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="3"/>
-        <v>9.7406343669783832E-2</v>
+        <v>9.7406282824206283E-2</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -862,38 +1027,194 @@
         <v>0.86063723621087973</v>
       </c>
       <c r="D14" s="10">
-        <v>1.0043080911661098E-2</v>
+        <v>1.004321603533239E-2</v>
       </c>
       <c r="E14" s="5">
         <f>E13+D14*(B14-$B$9)/365</f>
-        <v>0.243358892210017</v>
+        <v>0.24335946535986511</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>0.78399009533718822</v>
+        <v>0.78398964599351284</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0138888888888888</v>
       </c>
       <c r="H14" s="5">
         <f>+$B$3*G14*C14*F14+H13</f>
-        <v>4.0666246049080139E-2</v>
+        <v>4.0666251891614894E-2</v>
       </c>
       <c r="I14" s="5">
         <f>+I13+C14*(1-$B$4)*(F13-F14)</f>
-        <v>0.11826626273622672</v>
+        <v>0.11826647770208165</v>
       </c>
       <c r="J14" s="5">
         <f>I14-H14</f>
-        <v>7.7600016687146584E-2</v>
+        <v>7.7600225810466758E-2</v>
       </c>
       <c r="K14" s="5">
         <v>7.7600000000000002E-2</v>
       </c>
       <c r="L14" s="5">
         <f>K14-J14</f>
-        <v>-1.6687146581206846E-8</v>
+        <v>-2.2581046675573813E-7</v>
+      </c>
+    </row>
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048550" t="e" cm="1">
+        <f t="array" ref="XFD1048550">solver_pre</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048551" t="e" cm="1">
+        <f t="array" ref="XFD1048551">solver_scl</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048552" t="e" cm="1">
+        <f t="array" ref="XFD1048552">solver_rlx</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048553" t="e" cm="1">
+        <f t="array" ref="XFD1048553">solver_tol</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048554" t="e" cm="1">
+        <f t="array" ref="XFD1048554">solver_cvg</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048555" t="e" cm="1">
+        <f t="array" aca="1" ref="XFD1048555" ca="1">_xludf.Areas(solver_adj1)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048556" t="e" cm="1">
+        <f t="array" ref="XFD1048556">solver_ssz</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048557" t="e" cm="1">
+        <f t="array" ref="XFD1048557">solver_rsd</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048558" t="e" cm="1">
+        <f t="array" ref="XFD1048558">solver_mrt</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048559" t="e" cm="1">
+        <f t="array" ref="XFD1048559">solver_mni</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048560" t="e" cm="1">
+        <f t="array" ref="XFD1048560">solver_rbv</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048561" t="e" cm="1">
+        <f t="array" ref="XFD1048561">solver_neg</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048562" t="e" cm="1">
+        <f t="array" ref="XFD1048562">solver_ntr</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048563" t="e" cm="1">
+        <f t="array" ref="XFD1048563">solver_acc</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048564" t="e" cm="1">
+        <f t="array" ref="XFD1048564">solver_res</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048565" t="e" cm="1">
+        <f t="array" ref="XFD1048565">solver_ars</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048566" t="e" cm="1">
+        <f t="array" ref="XFD1048566">solver_sta</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048567" t="e" cm="1">
+        <f t="array" ref="XFD1048567">solver_met</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048568" t="e" cm="1">
+        <f t="array" ref="XFD1048568">solver_soc</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048569" t="e" cm="1">
+        <f t="array" ref="XFD1048569">solver_lpt</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048570" t="e" cm="1">
+        <f t="array" ref="XFD1048570">solver_lpp</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048571" t="e" cm="1">
+        <f t="array" ref="XFD1048571">solver_gap</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048572" t="e" cm="1">
+        <f t="array" ref="XFD1048572">solver_ips</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048573" t="e" cm="1">
+        <f t="array" ref="XFD1048573">solver_fea</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048574" t="e" cm="1">
+        <f t="array" ref="XFD1048574">solver_ipi</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048575" t="e" cm="1">
+        <f t="array" ref="XFD1048575">solver_ipd</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -903,31 +1224,402 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
       <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
         <x15:webExtension appRef="{3194F19F-A891-46AD-B6A0-B93C7D42DD12}">
-          <xm:f>Foglio1!$D$10:$D$12</xm:f>
+          <xm:f>'Gruppo 1'!$D$10:$D$12</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{C52DD111-72C4-4CAC-B116-CECCA96BD5E8}">
-          <xm:f>Foglio1!$D$13:$D$14</xm:f>
+          <xm:f>'Gruppo 1'!$D$13:$D$14</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{EE45590B-7908-4C3A-B47B-F1F1B0461A6A}">
-          <xm:f>Foglio1!$B$16:$B$17</xm:f>
+          <xm:f>'Gruppo 1'!$B$16:$B$17</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{6F0899F1-C35C-4057-AB92-4BD3B4AF5724}">
-          <xm:f>Foglio1!1:1048576</xm:f>
+        <x15:webExtension appRef="{F1D42B58-4236-4746-9702-2402814DC726}">
+          <xm:f>'Gruppo 1'!1:1048576</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{E8D392F5-68C9-4739-8A79-D844BF4C3582}">
-          <xm:f>Foglio1!XFD1048550:XFD1048575</xm:f>
+        <x15:webExtension appRef="{E1FB6474-727A-4617-9940-87100BC3D368}">
+          <xm:f>'Gruppo 1'!XFD1048550:XFD1048575</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{2A74E88F-27FB-49DC-9617-EA51A5FC71C8}">
-          <xm:f>Foglio1!$D$13:$D$14</xm:f>
+        <x15:webExtension appRef="{92E88A3B-A3AD-43C1-88C3-60D7E849F64E}">
+          <xm:f>#REF!</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{AADCFD18-C056-471C-9E04-8FEF77D2B029}">
-          <xm:f>Foglio1!$D$10:$D$12</xm:f>
+        <x15:webExtension appRef="{2501487E-8340-4470-94C3-9E34319EECDD}">
+          <xm:f>'Gruppo 1'!1:1048576</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{6E1FA0CE-D056-4A09-A416-7965D5AFA059}">
-          <xm:f>Foglio1!$L$14</xm:f>
+        <x15:webExtension appRef="{3AFBFA4B-60C2-41ED-BE19-5E62FEADC8FA}">
+          <xm:f>'Gruppo 1'!$D$10:$D$12</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{2F668797-C4E5-449C-B2ED-3DF426AC54B3}">
-          <xm:f>Foglio1!$D$13:$D$14</xm:f>
+        <x15:webExtension appRef="{C2955EC7-9DEA-4AE7-8FFF-5F400756F2D2}">
+          <xm:f>'Gruppo 1'!XFD1048550:XFD1048575</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{BD22D0B4-4A36-4A27-9CE3-F56F27A59648}">
+          <xm:f>'Gruppo 1'!1:1048576</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{26F5079E-811A-4615-BB4E-ABAF08816D8D}">
+          <xm:f>'Gruppo 1'!XFD1048550:XFD1048575</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{5F7FA5B8-AF43-4475-BC9C-4D3F0F1AD114}">
+          <xm:f>'Gruppo 1'!$D$13:$D$14</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755AC2A3-3E39-45BB-B0DF-98FF9496F9AF}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
+        <f>DATE(2022,12,20)</f>
+        <v>44915</v>
+      </c>
+      <c r="C9">
+        <f>EXP(-$B$2*(B9-$B$9)/365)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>EXP(-E9)</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <f>DATE(2023,12,20)</f>
+        <v>45280</v>
+      </c>
+      <c r="C10" s="1">
+        <f>EXP(-$B$2*(B10-$B$9)/365)</f>
+        <v>0.97044553354850815</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.2390723772657857E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <f>E9+D10*(B10-$B$9)/365</f>
+        <v>1.2390723772657857E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <f>EXP(-E10)</f>
+        <v>0.98768572516681941</v>
+      </c>
+      <c r="G10" s="1">
+        <f>(B10-B9)/360</f>
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="H10" s="1">
+        <f>$B$3*G10*C10*F10+H9</f>
+        <v>9.7180763387856132E-3</v>
+      </c>
+      <c r="I10" s="1">
+        <f>+I9+C10*(1-$B$4)*(F9-F10)</f>
+        <v>7.1701998064493443E-3</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <f>DATE(2024,12,20)</f>
+        <v>45646</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:C14" si="0">EXP(-$B$2*(B11-$B$9)/365)</f>
+        <v>0.94168713146107119</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.2390723772657857E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E10+D11*(B11-$B$9)/365</f>
+        <v>3.7206118506391814E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F14" si="1">EXP(-E11)</f>
+        <v>0.9634775243327961</v>
+      </c>
+      <c r="G11" s="1">
+        <f>(B11-B10)/360</f>
+        <v>1.0166666666666666</v>
+      </c>
+      <c r="H11" s="1">
+        <f>+$B$3*G11*C11*F11+H10</f>
+        <v>1.8942235930966625E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" ref="I11:I13" si="2">+I10+C11*(1-$B$4)*(F10-F11)</f>
+        <v>2.0848130527184296E-2</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <f>DATE(2025,12,20)</f>
+        <v>46011</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91385607072650343</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.2390723772657857E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <f>E11+D12*(B12-$B$9)/365</f>
+        <v>7.4412237012783627E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <f>EXP(-E12)</f>
+        <v>0.9282889398944536</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ref="G12:G14" si="3">(B12-B11)/360</f>
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12:H13" si="4">+$B$3*G12*C12*F12+H11</f>
+        <v>2.7543283329173517E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <f>+I11+C12*(1-$B$4)*(F11-F12)</f>
+        <v>4.0142511432735173E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <f>I12-H12</f>
+        <v>1.2599228103561656E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <f>K12-J12</f>
+        <v>7.7189643834379984E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6">
+        <f>DATE(2026,12,20)</f>
+        <v>46376</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.88684754214272488</v>
+      </c>
+      <c r="D13" s="10">
+        <v>5.6391606134573516E-3</v>
+      </c>
+      <c r="E13" s="5">
+        <f>E12+D13*(B13-$B$9)/365</f>
+        <v>9.6984329221718402E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <f>EXP(-E13)</f>
+        <v>0.90757022835365919</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="4"/>
+        <v>3.5703835985093912E-2</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>5.1167114476525749E-2</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6">
+        <f>DATE(2027,12,20)</f>
+        <v>46741</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.86063723621087973</v>
+      </c>
+      <c r="D14" s="10">
+        <v>5.6391606134573516E-3</v>
+      </c>
+      <c r="E14" s="5">
+        <f>E13+D14*(B14-$B$9)/365</f>
+        <v>0.12519558204411052</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.88232431891415042</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="H14" s="5">
+        <f>+$B$3*G14*C14*F14+H13</f>
+        <v>4.3402914446045333E-2</v>
+      </c>
+      <c r="I14" s="5">
+        <f>+I13+C14*(1-$B$4)*(F13-F14)</f>
+        <v>6.4203656311915144E-2</v>
+      </c>
+      <c r="J14" s="5">
+        <f>I14-H14</f>
+        <v>2.0800741865869811E-2</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="L14" s="5">
+        <f>K14-J14</f>
+        <v>-7.4186586981189739E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{B6261FDF-EE42-4CC2-A458-941534207465}">
+          <xm:f>'Gruppo 5_anno scorso'!1:1048576</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{E4815D7E-F47C-412A-90CB-50A6072049D1}">
+          <xm:f>'Gruppo 5_anno scorso'!XFD1048550:XFD1048575</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{6DE706DD-9C79-4413-A2FE-7A9AEB615A58}">
+          <xm:f>'Gruppo 5_anno scorso'!$D$10:$D$12</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>

--- a/Credito/Credito-parte1.xlsx
+++ b/Credito/Credito-parte1.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mippolimi-my.sharepoint.com/personal/giorgio_cappello_gsom_polimi_it/Documents/Desktop/Valutazione Prodotti/Progetto/Anno corrente/ProgettoValutazioneProdotti/Credito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="8_{63744DCE-6C42-41B8-B74E-D1CE19CF747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF49B83A-287B-4F8B-8931-9A07DF388271}"/>
+  <xr:revisionPtr revIDLastSave="644" documentId="8_{63744DCE-6C42-41B8-B74E-D1CE19CF747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7D2FBAA-4641-42FC-87E9-47BF9B131748}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppo 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Gruppo 5_anno scorso" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>T</t>
   </si>
@@ -82,28 +81,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>DISC</t>
-  </si>
-  <si>
     <t>lambda</t>
-  </si>
-  <si>
-    <t>Int lambda</t>
-  </si>
-  <si>
-    <t>surv</t>
-  </si>
-  <si>
-    <t>yrfr</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>premium leg</t>
-  </si>
-  <si>
-    <t>cumulated</t>
   </si>
   <si>
     <t>Upfront expected</t>
@@ -113,9 +91,6 @@
   </si>
   <si>
     <t>Differenza upfront</t>
-  </si>
-  <si>
-    <t>default leg</t>
   </si>
   <si>
     <t>r</t>
@@ -130,14 +105,67 @@
     <t>t</t>
   </si>
   <si>
-    <t>GRUPPO 5 ANNO SCORSO</t>
+    <r>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Integral lambda</t>
+  </si>
+  <si>
+    <t>survival probability</t>
+  </si>
+  <si>
+    <t>year fraction</t>
+  </si>
+  <si>
+    <t>cumulated premium leg</t>
+  </si>
+  <si>
+    <t>cumulated default leg</t>
+  </si>
+  <si>
+    <t>discounted</t>
+  </si>
+  <si>
+    <t>Valori input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,19 +179,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -177,8 +219,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -186,31 +252,382 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -223,6 +640,970 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Survival Probability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18447156369604742"/>
+          <c:y val="0.12941330803358933"/>
+          <c:w val="0.71592390573819786"/>
+          <c:h val="0.68903530646426869"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gruppo 1'!$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>survival probability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gruppo 1'!$H$23:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>44915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gruppo 1'!$I$23:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97485892367999816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92639247350427811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85820301496537466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8243877703606961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78399159834707299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3180-4AFE-B200-B730521F4008}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1840319328"/>
+        <c:axId val="1841052496"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1840319328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1841052496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1841052496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1840319328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933449</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3245272D-F186-5178-3C31-A157D6E55CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,6 +1916,85 @@
     <we:reference id="WA104100404" version="3.0.0.1" store="WA104100404" storeType="OMEX"/>
   </we:alternateReferences>
   <we:properties>
+    <we:property name="JjQdCTcLbmJpC1cQFQ5e" value="&quot;Ug==&quot;"/>
+    <we:property name="JjQdCTcLbmJpCVQC" value="&quot;RQpMSHM=&quot;"/>
+    <we:property name="JjQdCTcLbmJpEFcaMQZSFgQ1" value="&quot;RQJMSHReahdsdwI=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ02GA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ02HA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ0uG0g=" value="&quot;RQJMSHQ=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ0uG0s=" value="&quot;RQJMSHU=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ8jDw==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ8yGg==" value="&quot;Uw==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQ8zBQ==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQA0Gw==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQAlCw==" value="&quot;UWhYSXY=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQIwDw==" value="&quot;UWhYSXdV&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQQoDw==" value="&quot;JhQv&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQYnGA==" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQcjCQ==" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQg2AQ==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQg2DA==" value="&quot;Ug==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQg2Gw==" value="&quot;UWhRQA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQw0HA==" value="&quot;UWhYTnI=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQw1BA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQwjHA==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJQwoAQ==" value="&quot;UnY=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRE0DQ==" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRI1Eg==" value="&quot;UHZY&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRIlBA==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRIpCw==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRIyCQ==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRM1DA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRMjBEg=" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRMjBEs=" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRMjGw==" value="&quot;VA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRMkHg==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRMqEA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRMuG0g=" value="&quot;RQJMSHM=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRMuG0s=" value="&quot;RQJMSHY=&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRUpBA==" value="&quot;UWhYSA==&quot;"/>
+    <we:property name="JjQdCTcLbmJpNVkELgJCJRcnBA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENy4GXA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENygVVQ==" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoCQw==" value="&quot;VA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoCXEg=" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoCXEk=" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoCXEs=" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoFRg==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoLSA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoPQ0g=" value="&quot;RQJMSHY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoPQ0k=" value="&quot;RQJMSHU=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoPQ0s=" value="&quot;RQJMSHM=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoUVA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENysEXA==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENysIUw==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENysTUQ==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENysUSg==" value="&quot;UHZY&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENywIXA==" value="&quot;UWhYSA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENz0JVw==" value="&quot;JhQv&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENz4CUQ==" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENz8GQA==" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzEXQw==" value="&quot;UWhRQA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzEXVA==" value="&quot;Ug==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzEXWQ==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQPQ0g=" value="&quot;RQJMSHU=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQPQ0k=" value="&quot;RQJMSHY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQPQ0s=" value="&quot;RQJMSHQ=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQXQA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQXRA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzUCRA==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzUJWQ==" value="&quot;UnY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzUUXA==" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzUVRA==" value="&quot;UWhYTnI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzYCVw==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzYSXQ==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzYTQg==" value="&quot;Uw==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzkEUw==" value="&quot;UWhYSXY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzkVQw==" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzsRVw==" value="&quot;UWhYSXdV&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmKS8rBS9Y" value="&quot;Ug==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmKyw5" value="&quot;RQpMSHM=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmMi8hISdUBD0U" value="&quot;RQJMSHReahdsdwI=&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCA0+" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAMw" value="&quot;UA==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAQ1" value="&quot;VA==&quot;"/>
@@ -623,81 +2083,43 @@
     <we:property name="JykPFS4LfHIeJ0QBOQVcHxJ3" value="&quot;&quot;"/>
     <we:property name="LiQC" value="&quot;&quot;"/>
     <we:property name="UniqueID" value="&quot;20241111707665900305&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENz0JVw==" value="&quot;JhQv&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmKS8rBS9Y" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmKyw5" value="&quot;&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzYCVw==" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENygVVQ==" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENysEXA==" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoLSA==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENywIXA==" value="&quot;UWhYSA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzsRVw==" value="&quot;UWhYSXdV&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzUUXA==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENysUSg==" value="&quot;UHZY&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoUVA==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzUVRA==" value="&quot;UWhYTnI=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzUJWQ==" value="&quot;UnY=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoFRg==" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzYTQg==" value="&quot;Uw==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzkEUw==" value="&quot;UWhYSXY=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoCQw==" value="&quot;VA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzkVQw==" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENysTUQ==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzUCRA==" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENysIUw==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQXRA==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQXQA==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENz8GQA==" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzEXQw==" value="&quot;UWhRQA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENz4CUQ==" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzEXWQ==" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzEXVA==" value="&quot;Ug==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmMi8hISdUBD0U" value="&quot;&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzYSXQ==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQPQ0s=" value="&quot;RQJMSHQ=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoCXEs=" value="&quot;QXtI&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoPQ0s=" value="&quot;RQJMSHM=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQPQ0g=" value="&quot;RQJMSHc=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoCXEg=" value="&quot;QXtI&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoPQ0g=" value="&quot;RQJMSHU=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENzQPQ0k=" value="&quot;RQJMSHY=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoCXEk=" value="&quot;QXtI&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENyoPQ0k=" value="&quot;RQJMSHU=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmFyE/PiNENy4GXA==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQQoDw==" value="&quot;JhQv&quot;"/>
-    <we:property name="JjQdCTcLbmJpC1cQFQ5e" value="&quot;Ug==&quot;"/>
-    <we:property name="JjQdCTcLbmJpCVQC" value="&quot;RQpMSHM=&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQ8jDw==" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJRE0DQ==" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJRIlBA==" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJRMqEA==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJRUpBA==" value="&quot;UWhYSA==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQIwDw==" value="&quot;UWhYSXdV&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQw1BA==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJRI1Eg==" value="&quot;UHZY&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJRM1DA==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQw0HA==" value="&quot;UWhYTnI=&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQwoAQ==" value="&quot;UnY=&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJRMkHg==" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQ8yGg==" value="&quot;Uw==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQAlCw==" value="&quot;UWhYSXY=&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJRMjGw==" value="&quot;VA==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQA0Gw==" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJRIyCQ==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQwjHA==" value="&quot;Uw==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJRIpCw==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQ02HA==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQ02GA==" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQYnGA==" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQg2Gw==" value="&quot;UWhRQA==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQcjCQ==" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQg2AQ==" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQg2DA==" value="&quot;Ug==&quot;"/>
-    <we:property name="JjQdCTcLbmJpEFcaMQZSFgQ1" value="&quot;RQJMSHReahdsdwI=&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQ8zBQ==" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJQ0uG0g=" value="&quot;RQJMSHQ=&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJRMjBEg=" value="&quot;QXtI&quot;"/>
-    <we:property name="JjQdCTcLbmJpNVkELgJCJRMuG0g=" value="&quot;RQJMSHM=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aQlUAg==" value="&quot;RQpMSHM=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aQtXEBUOXg==" value="&quot;Ug==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aRBXGjEGUhYENQ==" value="&quot;RQJMSHReahdsdwI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUPMwU=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUNLhtI" value="&quot;RQJMSHQ=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTIwRI" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTLhtI" value="&quot;RQJMSHM=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUNLhtL" value="&quot;RQJMSHU=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTIwRL" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTLhtL" value="&quot;RQJMSHY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUXJwQ=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiURNA0=" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUSJQQ=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTKhA=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUVKQQ=" value="&quot;UWhYSA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUCMA8=" value="&quot;UWhYSXdV&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUMNQQ=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUSNRI=" value="&quot;UHZY&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTNQw=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUMNBw=" value="&quot;UWhYTnI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUMKAE=" value="&quot;UnY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTJB4=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUPIw8=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUAJQs=" value="&quot;UWhYSXY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTIxs=" value="&quot;VA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUANBs=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUSMgk=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUMIxw=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUSKQs=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUNNhw=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUNNhg=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUGJxg=" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUINhs=" value="&quot;UWhRQA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUHIwk=" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUINgE=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUINgw=" value="&quot;Ug==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUEKA8=" value="&quot;JhQv&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="Var$F$10:$F$12" type="matrix" appref="{3194F19F-A891-46AD-B6A0-B93C7D42DD12}"/>
@@ -706,15 +2128,16 @@
     <we:binding id="Var$D$10:$D$11" type="matrix" appref="{92E88A3B-A3AD-43C1-88C3-60D7E849F64E}"/>
     <we:binding id="Foglio1refEdit" type="matrix" appref="{F1D42B58-4236-4746-9702-2402814DC726}"/>
     <we:binding id="Foglio1Worker" type="matrix" appref="{E1FB6474-727A-4617-9940-87100BC3D368}"/>
-    <we:binding id="refEdit" type="matrix" appref="{2501487E-8340-4470-94C3-9E34319EECDD}"/>
-    <we:binding id="Var0" type="matrix" appref="{3AFBFA4B-60C2-41ED-BE19-5E62FEADC8FA}"/>
-    <we:binding id="Worker" type="matrix" appref="{C2955EC7-9DEA-4AE7-8FFF-5F400756F2D2}"/>
     <we:binding id="Gruppo 5_anno scorsorefEdit" type="matrix" appref="{B6261FDF-EE42-4CC2-A458-941534207465}"/>
     <we:binding id="Gruppo 5_anno scorsoWorker" type="matrix" appref="{E4815D7E-F47C-412A-90CB-50A6072049D1}"/>
-    <we:binding id="Var$D$10:$D$12" type="matrix" appref="{6DE706DD-9C79-4413-A2FE-7A9AEB615A58}"/>
     <we:binding id="Gruppo 1refEdit" type="matrix" appref="{BD22D0B4-4A36-4A27-9CE3-F56F27A59648}"/>
     <we:binding id="Gruppo 1Worker" type="matrix" appref="{26F5079E-811A-4615-BB4E-ABAF08816D8D}"/>
-    <we:binding id="Var$D$13:$D$14" type="matrix" appref="{5F7FA5B8-AF43-4475-BC9C-4D3F0F1AD114}"/>
+    <we:binding id="Var0" type="matrix" appref="{A6997903-39B1-4F5D-B6BE-4B4A3993AF3D}"/>
+    <we:binding id="refEdit" type="matrix" appref="{20DAA0B3-9578-41D7-887D-AF3EC0DD50EB}"/>
+    <we:binding id="Worker" type="matrix" appref="{C11BBEAB-00F4-480C-9AD3-8C988563A736}"/>
+    <we:binding id="Var$D$10:$D$12" type="matrix" appref="{2A28C48A-55EB-48E5-B5CF-8BA3A71A3811}"/>
+    <we:binding id="Obj" type="matrix" appref="{994C6377-F3B1-45B8-8D52-D15D5B61C403}"/>
+    <we:binding id="Var$D$13:$D$14" type="matrix" appref="{E9A55A0D-EF05-4DBC-B2E0-D18F854BFD4C}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -725,18 +2148,20 @@
   <dimension ref="A1:XFD1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -745,320 +2170,425 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2.5462512114967948E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1.0043039047567542E-2</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="67" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" s="9" t="s">
+      <c r="J8" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="B9" s="22">
         <f>DATE(2022,12,20)</f>
         <v>44915</v>
       </c>
-      <c r="C9">
-        <f>EXP(-$B$2*(B9-$B$9)/365)</f>
+      <c r="C9" s="23">
+        <f>EXP(-$B$4*(B9-$B$9)/365)</f>
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="24">
         <f>EXP(-E9)</f>
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="23">
         <v>0</v>
       </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="27">
         <f>DATE(2023,12,20)</f>
         <v>45280</v>
       </c>
-      <c r="C10" s="1">
-        <f>EXP(-$B$2*(B10-$B$9)/365)</f>
+      <c r="C10" s="28">
+        <f>EXP(-$B$4*(B10-$B$9)/365)</f>
         <v>0.97044553354850815</v>
       </c>
-      <c r="D10" s="8">
-        <v>2.5462661381484123E-2</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="29">
+        <v>2.5462512114967948E-2</v>
+      </c>
+      <c r="E10" s="28">
         <f>E9+D10*(B10-$B$9)/365</f>
-        <v>2.5462661381484123E-2</v>
-      </c>
-      <c r="F10" s="1">
+        <v>2.5462512114967951E-2</v>
+      </c>
+      <c r="F10" s="31">
         <f>EXP(-E10)</f>
-        <v>0.97485877816621369</v>
-      </c>
-      <c r="G10" s="1">
+        <v>0.97485892367999816</v>
+      </c>
+      <c r="G10" s="28">
         <f>(B10-B9)/360</f>
         <v>1.0138888888888888</v>
       </c>
-      <c r="H10" s="1">
-        <f>$B$3*G10*C10*F10+H9</f>
-        <v>9.5918689359962405E-3</v>
-      </c>
-      <c r="I10" s="1">
-        <f>+I9+C10*(1-$B$4)*(F9-F10)</f>
-        <v>1.4638911861930094E-2</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="H10" s="61">
+        <f>$B$5*G10*C10*F10+H9</f>
+        <v>9.5918703677412061E-3</v>
+      </c>
+      <c r="I10" s="61">
+        <f>+I9+C10*(1-$B$6)*(F9-F10)</f>
+        <v>1.4638827134008771E-2</v>
+      </c>
+      <c r="J10" s="61"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="34">
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
-      <c r="C11" s="1">
-        <f t="shared" ref="C11:C14" si="0">EXP(-$B$2*(B11-$B$9)/365)</f>
+      <c r="C11" s="35">
+        <f>EXP(-$B$4*(B11-$B$9)/365)</f>
         <v>0.94168713146107119</v>
       </c>
-      <c r="D11" s="8">
-        <v>2.5462661381484123E-2</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="36">
+        <v>2.5462512114967948E-2</v>
+      </c>
+      <c r="E11" s="35">
         <f>E10+D11*(B11-$B$9)/365</f>
-        <v>7.6457744860566029E-2</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" ref="F11:F14" si="1">EXP(-E11)</f>
-        <v>0.92639205828739213</v>
-      </c>
-      <c r="G11" s="1">
+        <v>7.6457296652068144E-2</v>
+      </c>
+      <c r="F11" s="38">
+        <f t="shared" ref="F11:F14" si="0">EXP(-E11)</f>
+        <v>0.92639247350427811</v>
+      </c>
+      <c r="G11" s="35">
         <f>(B11-B10)/360</f>
         <v>1.0166666666666666</v>
       </c>
-      <c r="H11" s="1">
-        <f>+$B$3*G11*C11*F11+H10</f>
-        <v>1.8460978982428787E-2</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" ref="I11:I13" si="2">+I10+C11*(1-$B$4)*(F10-F11)</f>
-        <v>4.2023203710338949E-2</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="H11" s="62">
+        <f>+$B$5*G11*C11*F11+H10</f>
+        <v>1.8460984389385135E-2</v>
+      </c>
+      <c r="I11" s="62">
+        <f>+I10+C11*(1-$B$6)*(F10-F11)</f>
+        <v>4.2022966596853617E-2</v>
+      </c>
+      <c r="J11" s="62"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="41">
         <f>DATE(2025,12,20)</f>
         <v>46011</v>
       </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
+      <c r="C12" s="42">
+        <f>EXP(-$B$4*(B12-$B$9)/365)</f>
         <v>0.91385607072650343</v>
       </c>
-      <c r="D12" s="8">
-        <v>2.546266138148412E-2</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="43">
+        <v>2.5462512114967948E-2</v>
+      </c>
+      <c r="E12" s="42">
         <f>E11+D12*(B12-$B$9)/365</f>
-        <v>0.15291548972113206</v>
-      </c>
-      <c r="F12" s="1">
+        <v>0.15291459330413629</v>
+      </c>
+      <c r="F12" s="45">
         <f>EXP(-E12)</f>
-        <v>0.858202245657951</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" ref="G12:G14" si="3">(B12-B11)/360</f>
+        <v>0.85820301496537466</v>
+      </c>
+      <c r="G12" s="42">
+        <f t="shared" ref="G12:G14" si="1">(B12-B11)/360</f>
         <v>1.0138888888888888</v>
       </c>
-      <c r="H12" s="1">
-        <f t="shared" ref="H12:H13" si="4">+$B$3*G12*C12*F12+H11</f>
-        <v>2.6412639155166492E-2</v>
-      </c>
-      <c r="I12" s="1">
-        <f>+I11+C12*(1-$B$4)*(F11-F12)</f>
-        <v>7.9412608250209488E-2</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="H12" s="63">
+        <f>+$B$5*G12*C12*F12+H11</f>
+        <v>2.6412651690129359E-2</v>
+      </c>
+      <c r="I12" s="63">
+        <f>+I11+C12*(1-$B$6)*(F11-F12)</f>
+        <v>7.9412176984051702E-2</v>
+      </c>
+      <c r="J12" s="63">
         <f>I12-H12</f>
-        <v>5.2999969095042995E-2</v>
-      </c>
-      <c r="K12" s="1">
+        <v>5.2999525293922344E-2</v>
+      </c>
+      <c r="K12" s="44">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="46">
         <f>K12-J12</f>
-        <v>3.0904957003252687E-8</v>
+        <v>4.7470607765498496E-7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="48">
         <f>DATE(2026,12,20)</f>
         <v>46376</v>
       </c>
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
+      <c r="C13" s="49">
+        <f>EXP(-$B$4*(B13-$B$9)/365)</f>
         <v>0.88684754214272488</v>
       </c>
-      <c r="D13" s="10">
-        <v>1.004321603533239E-2</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="50">
+        <v>1.0043039047567542E-2</v>
+      </c>
+      <c r="E13" s="49">
         <f>E12+D13*(B13-$B$9)/365</f>
-        <v>0.19311586952283238</v>
-      </c>
-      <c r="F13" s="5">
+        <v>0.19311426466987924</v>
+      </c>
+      <c r="F13" s="52">
         <f>EXP(-E13)</f>
-        <v>0.82438644734060995</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="3"/>
+        <v>0.8243877703606961</v>
+      </c>
+      <c r="G13" s="49">
+        <f>(B13-B12)/360</f>
         <v>1.0138888888888888</v>
       </c>
-      <c r="H13" s="5">
-        <f t="shared" si="4"/>
-        <v>3.3825232475414392E-2</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="2"/>
-        <v>9.7406282824206283E-2</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="H13" s="64">
+        <f>+$B$5*G13*C13*F13+H12</f>
+        <v>3.3825256906509081E-2</v>
+      </c>
+      <c r="I13" s="64">
+        <f>+I12+C13*(1-$B$6)*(F12-F13)</f>
+        <v>9.7405556922820227E-2</v>
+      </c>
+      <c r="J13" s="64"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="55">
         <f>DATE(2027,12,20)</f>
         <v>46741</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="56">
+        <f>EXP(-$B$4*(B14-$B$9)/365)</f>
+        <v>0.86063723621087973</v>
+      </c>
+      <c r="D14" s="57">
+        <v>1.0043039047567542E-2</v>
+      </c>
+      <c r="E14" s="56">
+        <f>E13+D14*(B14-$B$9)/365</f>
+        <v>0.24335697508318974</v>
+      </c>
+      <c r="F14" s="59">
         <f t="shared" si="0"/>
-        <v>0.86063723621087973</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1.004321603533239E-2</v>
-      </c>
-      <c r="E14" s="5">
-        <f>E13+D14*(B14-$B$9)/365</f>
-        <v>0.24335946535986511</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="1"/>
-        <v>0.78398964599351284</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="3"/>
+        <v>0.78399159834707299</v>
+      </c>
+      <c r="G14" s="56">
+        <f>(B14-B13)/360</f>
         <v>1.0138888888888888</v>
       </c>
-      <c r="H14" s="5">
-        <f>+$B$3*G14*C14*F14+H13</f>
-        <v>4.0666251891614894E-2</v>
-      </c>
-      <c r="I14" s="5">
-        <f>+I13+C14*(1-$B$4)*(F13-F14)</f>
-        <v>0.11826647770208165</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="H14" s="65">
+        <f>+$B$5*G14*C14*F14+H13</f>
+        <v>4.0666293358761881E-2</v>
+      </c>
+      <c r="I14" s="65">
+        <f>+I13+C14*(1-$B$6)*(F13-F14)</f>
+        <v>0.11826542682400255</v>
+      </c>
+      <c r="J14" s="65">
         <f>I14-H14</f>
-        <v>7.7600225810466758E-2</v>
-      </c>
-      <c r="K14" s="5">
+        <v>7.7599133465240666E-2</v>
+      </c>
+      <c r="K14" s="58">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="60">
         <f>K14-J14</f>
-        <v>-2.2581046675573813E-7</v>
+        <v>8.6653475933617941E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="69">
+        <v>44915</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="69">
+        <v>45280</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0.97485892367999816</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="69">
+        <v>45646</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0.92639247350427811</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="69">
+        <v>46011</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0.85820301496537466</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="69">
+        <v>46376</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0.8243877703606961</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="70">
+        <v>46741</v>
+      </c>
+      <c r="I28" s="20">
+        <v>0.78399159834707299</v>
       </c>
     </row>
     <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
@@ -1218,8 +2748,13 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
       <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -1241,385 +2776,35 @@
         <x15:webExtension appRef="{92E88A3B-A3AD-43C1-88C3-60D7E849F64E}">
           <xm:f>#REF!</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{2501487E-8340-4470-94C3-9E34319EECDD}">
-          <xm:f>'Gruppo 1'!1:1048576</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{3AFBFA4B-60C2-41ED-BE19-5E62FEADC8FA}">
-          <xm:f>'Gruppo 1'!$D$10:$D$12</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{C2955EC7-9DEA-4AE7-8FFF-5F400756F2D2}">
-          <xm:f>'Gruppo 1'!XFD1048550:XFD1048575</xm:f>
-        </x15:webExtension>
         <x15:webExtension appRef="{BD22D0B4-4A36-4A27-9CE3-F56F27A59648}">
           <xm:f>'Gruppo 1'!1:1048576</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{26F5079E-811A-4615-BB4E-ABAF08816D8D}">
           <xm:f>'Gruppo 1'!XFD1048550:XFD1048575</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{5F7FA5B8-AF43-4475-BC9C-4D3F0F1AD114}">
-          <xm:f>'Gruppo 1'!$D$13:$D$14</xm:f>
+        <x15:webExtension appRef="{A6997903-39B1-4F5D-B6BE-4B4A3993AF3D}">
+          <xm:f>'Gruppo 1'!$D$10:$D$12</xm:f>
         </x15:webExtension>
-      </x15:webExtensions>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755AC2A3-3E39-45BB-B0DF-98FF9496F9AF}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3">
-        <f>DATE(2022,12,20)</f>
-        <v>44915</v>
-      </c>
-      <c r="C9">
-        <f>EXP(-$B$2*(B9-$B$9)/365)</f>
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>EXP(-E9)</f>
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
-        <f>DATE(2023,12,20)</f>
-        <v>45280</v>
-      </c>
-      <c r="C10" s="1">
-        <f>EXP(-$B$2*(B10-$B$9)/365)</f>
-        <v>0.97044553354850815</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1.2390723772657857E-2</v>
-      </c>
-      <c r="E10" s="1">
-        <f>E9+D10*(B10-$B$9)/365</f>
-        <v>1.2390723772657857E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <f>EXP(-E10)</f>
-        <v>0.98768572516681941</v>
-      </c>
-      <c r="G10" s="1">
-        <f>(B10-B9)/360</f>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="H10" s="1">
-        <f>$B$3*G10*C10*F10+H9</f>
-        <v>9.7180763387856132E-3</v>
-      </c>
-      <c r="I10" s="1">
-        <f>+I9+C10*(1-$B$4)*(F9-F10)</f>
-        <v>7.1701998064493443E-3</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4">
-        <f>DATE(2024,12,20)</f>
-        <v>45646</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" ref="C11:C14" si="0">EXP(-$B$2*(B11-$B$9)/365)</f>
-        <v>0.94168713146107119</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1.2390723772657857E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <f>E10+D11*(B11-$B$9)/365</f>
-        <v>3.7206118506391814E-2</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" ref="F11:F14" si="1">EXP(-E11)</f>
-        <v>0.9634775243327961</v>
-      </c>
-      <c r="G11" s="1">
-        <f>(B11-B10)/360</f>
-        <v>1.0166666666666666</v>
-      </c>
-      <c r="H11" s="1">
-        <f>+$B$3*G11*C11*F11+H10</f>
-        <v>1.8942235930966625E-2</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" ref="I11:I13" si="2">+I10+C11*(1-$B$4)*(F10-F11)</f>
-        <v>2.0848130527184296E-2</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4">
-        <f>DATE(2025,12,20)</f>
-        <v>46011</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91385607072650343</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1.2390723772657857E-2</v>
-      </c>
-      <c r="E12" s="1">
-        <f>E11+D12*(B12-$B$9)/365</f>
-        <v>7.4412237012783627E-2</v>
-      </c>
-      <c r="F12" s="1">
-        <f>EXP(-E12)</f>
-        <v>0.9282889398944536</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" ref="G12:G14" si="3">(B12-B11)/360</f>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" ref="H12:H13" si="4">+$B$3*G12*C12*F12+H11</f>
-        <v>2.7543283329173517E-2</v>
-      </c>
-      <c r="I12" s="1">
-        <f>+I11+C12*(1-$B$4)*(F11-F12)</f>
-        <v>4.0142511432735173E-2</v>
-      </c>
-      <c r="J12" s="1">
-        <f>I12-H12</f>
-        <v>1.2599228103561656E-2</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1.26E-2</v>
-      </c>
-      <c r="L12" s="1">
-        <f>K12-J12</f>
-        <v>7.7189643834379984E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6">
-        <f>DATE(2026,12,20)</f>
-        <v>46376</v>
-      </c>
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.88684754214272488</v>
-      </c>
-      <c r="D13" s="10">
-        <v>5.6391606134573516E-3</v>
-      </c>
-      <c r="E13" s="5">
-        <f>E12+D13*(B13-$B$9)/365</f>
-        <v>9.6984329221718402E-2</v>
-      </c>
-      <c r="F13" s="5">
-        <f>EXP(-E13)</f>
-        <v>0.90757022835365919</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="4"/>
-        <v>3.5703835985093912E-2</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="2"/>
-        <v>5.1167114476525749E-2</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6">
-        <f>DATE(2027,12,20)</f>
-        <v>46741</v>
-      </c>
-      <c r="C14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.86063723621087973</v>
-      </c>
-      <c r="D14" s="10">
-        <v>5.6391606134573516E-3</v>
-      </c>
-      <c r="E14" s="5">
-        <f>E13+D14*(B14-$B$9)/365</f>
-        <v>0.12519558204411052</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="1"/>
-        <v>0.88232431891415042</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="H14" s="5">
-        <f>+$B$3*G14*C14*F14+H13</f>
-        <v>4.3402914446045333E-2</v>
-      </c>
-      <c r="I14" s="5">
-        <f>+I13+C14*(1-$B$4)*(F13-F14)</f>
-        <v>6.4203656311915144E-2</v>
-      </c>
-      <c r="J14" s="5">
-        <f>I14-H14</f>
-        <v>2.0800741865869811E-2</v>
-      </c>
-      <c r="K14" s="5">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="L14" s="5">
-        <f>K14-J14</f>
-        <v>-7.4186586981189739E-7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
-      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
         <x15:webExtension appRef="{B6261FDF-EE42-4CC2-A458-941534207465}">
-          <xm:f>'Gruppo 5_anno scorso'!1:1048576</xm:f>
+          <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{E4815D7E-F47C-412A-90CB-50A6072049D1}">
-          <xm:f>'Gruppo 5_anno scorso'!XFD1048550:XFD1048575</xm:f>
+          <xm:f>#REF!</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{6DE706DD-9C79-4413-A2FE-7A9AEB615A58}">
-          <xm:f>'Gruppo 5_anno scorso'!$D$10:$D$12</xm:f>
+        <x15:webExtension appRef="{20DAA0B3-9578-41D7-887D-AF3EC0DD50EB}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{C11BBEAB-00F4-480C-9AD3-8C988563A736}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{2A28C48A-55EB-48E5-B5CF-8BA3A71A3811}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{994C6377-F3B1-45B8-8D52-D15D5B61C403}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{E9A55A0D-EF05-4DBC-B2E0-D18F854BFD4C}">
+          <xm:f>#REF!</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>

--- a/Credito/Credito-parte1.xlsx
+++ b/Credito/Credito-parte1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mippolimi-my.sharepoint.com/personal/giorgio_cappello_gsom_polimi_it/Documents/Desktop/Valutazione Prodotti/Progetto/Anno corrente/ProgettoValutazioneProdotti/Credito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="8_{63744DCE-6C42-41B8-B74E-D1CE19CF747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7D2FBAA-4641-42FC-87E9-47BF9B131748}"/>
+  <xr:revisionPtr revIDLastSave="681" documentId="8_{63744DCE-6C42-41B8-B74E-D1CE19CF747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F748345C-331D-49B9-80DE-0E4A0258D968}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
   </bookViews>
@@ -161,9 +161,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -426,19 +426,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,175 +619,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1903,7 +1904,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1995,6 +1996,43 @@
     <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmKS8rBS9Y" value="&quot;Ug==&quot;"/>
     <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmKyw5" value="&quot;RQpMSHM=&quot;"/>
     <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZmMi8hISdUBD0U" value="&quot;RQJMSHReahdsdwI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aQlUAg==" value="&quot;RQpMSHM=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aQtXEBUOXg==" value="&quot;Ug==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aRBXGjEGUhYENQ==" value="&quot;RQJMSHReahdsdwI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUAJQs=" value="&quot;UWhYSXY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUANBs=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUCMA8=" value="&quot;UWhYSXdV&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUEKA8=" value="&quot;JhQv&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUGJxg=" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUHIwk=" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUINgE=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUINgw=" value="&quot;Ug==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUINhs=" value="&quot;UWhRQA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUMIxw=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUMKAE=" value="&quot;UnY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUMNBw=" value="&quot;UWhYTnI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUMNQQ=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUNLhtI" value="&quot;RQJMSHQ=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUNLhtL" value="&quot;RQJMSHU=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUNNhg=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUNNhw=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUPIw8=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUPMwU=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiURNA0=" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUSJQQ=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUSKQs=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUSMgk=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUSNRI=" value="&quot;UHZY&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTIwRI" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTIwRL" value="&quot;QXtI&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTIxs=" value="&quot;VA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTJB4=" value="&quot;UA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTKhA=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTLhtI" value="&quot;RQJMSHM=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTLhtL" value="&quot;RQJMSHY=&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTNQw=" value="&quot;UQ==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUVKQQ=" value="&quot;UWhYSA==&quot;"/>
+    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUXJwQ=" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCA0+" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAMw" value="&quot;UA==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAQ1" value="&quot;VA==&quot;"/>
@@ -2083,43 +2121,6 @@
     <we:property name="JykPFS4LfHIeJ0QBOQVcHxJ3" value="&quot;&quot;"/>
     <we:property name="LiQC" value="&quot;&quot;"/>
     <we:property name="UniqueID" value="&quot;20241111707665900305&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aQlUAg==" value="&quot;RQpMSHM=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aQtXEBUOXg==" value="&quot;Ug==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aRBXGjEGUhYENQ==" value="&quot;RQJMSHReahdsdwI=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUPMwU=" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUNLhtI" value="&quot;RQJMSHQ=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTIwRI" value="&quot;QXtI&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTLhtI" value="&quot;RQJMSHM=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUNLhtL" value="&quot;RQJMSHU=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTIwRL" value="&quot;QXtI&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTLhtL" value="&quot;RQJMSHY=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUXJwQ=" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiURNA0=" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUSJQQ=" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTKhA=" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUVKQQ=" value="&quot;UWhYSA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUCMA8=" value="&quot;UWhYSXdV&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUMNQQ=" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUSNRI=" value="&quot;UHZY&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTNQw=" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUMNBw=" value="&quot;UWhYTnI=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUMKAE=" value="&quot;UnY=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTJB4=" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUPIw8=" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUAJQs=" value="&quot;UWhYSXY=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUTIxs=" value="&quot;VA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUANBs=" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUSMgk=" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUMIxw=" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUSKQs=" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUNNhw=" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUNNhg=" value="&quot;UQ==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUGJxg=" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUINhs=" value="&quot;UWhRQA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUHIwk=" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUINgE=" value="&quot;UA==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUINgw=" value="&quot;Ug==&quot;"/>
-    <we:property name="JjQdCTcLbmYXJ1gGN0dDGQ40GxZnTHx6aTVZBC4CQiUEKA8=" value="&quot;JhQv&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="Var$F$10:$F$12" type="matrix" appref="{3194F19F-A891-46AD-B6A0-B93C7D42DD12}"/>
@@ -2132,12 +2133,11 @@
     <we:binding id="Gruppo 5_anno scorsoWorker" type="matrix" appref="{E4815D7E-F47C-412A-90CB-50A6072049D1}"/>
     <we:binding id="Gruppo 1refEdit" type="matrix" appref="{BD22D0B4-4A36-4A27-9CE3-F56F27A59648}"/>
     <we:binding id="Gruppo 1Worker" type="matrix" appref="{26F5079E-811A-4615-BB4E-ABAF08816D8D}"/>
-    <we:binding id="Var0" type="matrix" appref="{A6997903-39B1-4F5D-B6BE-4B4A3993AF3D}"/>
-    <we:binding id="refEdit" type="matrix" appref="{20DAA0B3-9578-41D7-887D-AF3EC0DD50EB}"/>
-    <we:binding id="Worker" type="matrix" appref="{C11BBEAB-00F4-480C-9AD3-8C988563A736}"/>
-    <we:binding id="Var$D$10:$D$12" type="matrix" appref="{2A28C48A-55EB-48E5-B5CF-8BA3A71A3811}"/>
-    <we:binding id="Obj" type="matrix" appref="{994C6377-F3B1-45B8-8D52-D15D5B61C403}"/>
-    <we:binding id="Var$D$13:$D$14" type="matrix" appref="{E9A55A0D-EF05-4DBC-B2E0-D18F854BFD4C}"/>
+    <we:binding id="refEdit" type="matrix" appref="{98C3AC29-54B1-4ACF-96C0-8FCDE3C20E46}"/>
+    <we:binding id="Worker" type="matrix" appref="{F7775F0D-7E7E-4BD5-BB26-5F91DDAB1AC8}"/>
+    <we:binding id="Var$D$10:$D$12" type="matrix" appref="{F790F763-FBA1-4F84-9246-FD54E825E815}"/>
+    <we:binding id="Obj" type="matrix" appref="{84AE4FE2-6373-4AAF-8839-6B122B87144C}"/>
+    <we:binding id="Var$D$13:$D$14" type="matrix" appref="{540E163C-662D-4282-9D33-4D43A644D26F}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -2147,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA69AD2D-A7DA-4E25-BAC8-F5669C670454}">
   <dimension ref="A1:XFD1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,23 +2170,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="67"/>
+      <c r="D3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14">
-        <v>2.5462512114967948E-2</v>
+      <c r="E3" s="69">
+        <v>2.5486258974545904E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
@@ -2196,14 +2196,12 @@
       <c r="B4" s="4">
         <v>0.03</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16">
-        <v>1.0043039047567542E-2</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="E4" s="8">
+        <v>1.00431857661688E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2212,8 +2210,6 @@
       <c r="B5" s="4">
         <v>0.01</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2230,364 +2226,336 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="67" t="s">
+      <c r="K8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="68" t="s">
+      <c r="L8" s="60" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="14">
         <f>DATE(2022,12,20)</f>
         <v>44915</v>
       </c>
-      <c r="C9" s="23">
-        <f>EXP(-$B$4*(B9-$B$9)/365)</f>
+      <c r="C9" s="15">
+        <f t="shared" ref="C9:C14" si="0">EXP(-$B$4*(B9-$B$9)/365)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15">
         <v>0</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="16">
         <f>EXP(-E9)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15">
         <v>0</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="15">
         <v>0</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="25"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="19">
         <f>DATE(2023,12,20)</f>
         <v>45280</v>
       </c>
-      <c r="C10" s="28">
-        <f>EXP(-$B$4*(B10-$B$9)/365)</f>
+      <c r="C10" s="20">
+        <f t="shared" si="0"/>
         <v>0.97044553354850815</v>
       </c>
-      <c r="D10" s="29">
-        <v>2.5462512114967948E-2</v>
-      </c>
-      <c r="E10" s="28">
+      <c r="D10" s="21">
+        <v>2.5486258974545904E-2</v>
+      </c>
+      <c r="E10" s="20">
         <f>E9+D10*(B10-$B$9)/365</f>
-        <v>2.5462512114967951E-2</v>
-      </c>
-      <c r="F10" s="31">
+        <v>2.5486258974545907E-2</v>
+      </c>
+      <c r="F10" s="23">
         <f>EXP(-E10)</f>
-        <v>0.97485892367999816</v>
-      </c>
-      <c r="G10" s="28">
+        <v>0.97483577411689504</v>
+      </c>
+      <c r="G10" s="20">
         <f>(B10-B9)/360</f>
         <v>1.0138888888888888</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="53">
         <f>$B$5*G10*C10*F10+H9</f>
-        <v>9.5918703677412061E-3</v>
-      </c>
-      <c r="I10" s="61">
+        <v>9.5916425936469641E-3</v>
+      </c>
+      <c r="I10" s="53">
         <f>+I9+C10*(1-$B$6)*(F9-F10)</f>
-        <v>1.4638827134008771E-2</v>
-      </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="32"/>
+        <v>1.4652306368078984E-2</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="26">
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
-      <c r="C11" s="35">
-        <f>EXP(-$B$4*(B11-$B$9)/365)</f>
+      <c r="C11" s="27">
+        <f t="shared" si="0"/>
         <v>0.94168713146107119</v>
       </c>
-      <c r="D11" s="36">
-        <v>2.5462512114967948E-2</v>
-      </c>
-      <c r="E11" s="35">
-        <f>E10+D11*(B11-$B$9)/365</f>
-        <v>7.6457296652068144E-2</v>
-      </c>
-      <c r="F11" s="38">
-        <f t="shared" ref="F11:F14" si="0">EXP(-E11)</f>
-        <v>0.92639247350427811</v>
-      </c>
-      <c r="G11" s="35">
+      <c r="D11" s="28">
+        <v>2.5486258974545904E-2</v>
+      </c>
+      <c r="E11" s="27">
+        <f>E10+D11*(B11-$B$9)/366</f>
+        <v>7.638914233627557E-2</v>
+      </c>
+      <c r="F11" s="30">
+        <f>EXP(-E11)</f>
+        <v>0.92645561330106563</v>
+      </c>
+      <c r="G11" s="27">
         <f>(B11-B10)/360</f>
         <v>1.0166666666666666</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="54">
         <f>+$B$5*G11*C11*F11+H10</f>
-        <v>1.8460984389385135E-2</v>
-      </c>
-      <c r="I11" s="62">
+        <v>1.8461361104287758E-2</v>
+      </c>
+      <c r="I11" s="54">
         <f>+I10+C11*(1-$B$6)*(F10-F11)</f>
-        <v>4.2022966596853617E-2</v>
-      </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="39"/>
+        <v>4.1987691283049217E-2</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="33">
         <f>DATE(2025,12,20)</f>
         <v>46011</v>
       </c>
-      <c r="C12" s="42">
-        <f>EXP(-$B$4*(B12-$B$9)/365)</f>
+      <c r="C12" s="34">
+        <f t="shared" si="0"/>
         <v>0.91385607072650343</v>
       </c>
-      <c r="D12" s="43">
-        <v>2.5462512114967948E-2</v>
-      </c>
-      <c r="E12" s="42">
+      <c r="D12" s="35">
+        <v>2.5486258974545904E-2</v>
+      </c>
+      <c r="E12" s="34">
         <f>E11+D12*(B12-$B$9)/365</f>
-        <v>0.15291459330413629</v>
-      </c>
-      <c r="F12" s="45">
+        <v>0.15291774462696683</v>
+      </c>
+      <c r="F12" s="37">
         <f>EXP(-E12)</f>
-        <v>0.85820301496537466</v>
-      </c>
-      <c r="G12" s="42">
-        <f t="shared" ref="G12:G14" si="1">(B12-B11)/360</f>
+        <v>0.85820031049488166</v>
+      </c>
+      <c r="G12" s="34">
+        <f t="shared" ref="G12" si="1">(B12-B11)/360</f>
         <v>1.0138888888888888</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="55">
         <f>+$B$5*G12*C12*F12+H11</f>
-        <v>2.6412651690129359E-2</v>
-      </c>
-      <c r="I12" s="63">
+        <v>2.6413003346800759E-2</v>
+      </c>
+      <c r="I12" s="55">
         <f>+I11+C12*(1-$B$6)*(F11-F12)</f>
-        <v>7.9412176984051702E-2</v>
-      </c>
-      <c r="J12" s="63">
+        <v>7.9413004980273399E-2</v>
+      </c>
+      <c r="J12" s="55">
         <f>I12-H12</f>
-        <v>5.2999525293922344E-2</v>
-      </c>
-      <c r="K12" s="44">
+        <v>5.300000163347264E-2</v>
+      </c>
+      <c r="K12" s="36">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="38">
         <f>K12-J12</f>
-        <v>4.7470607765498496E-7</v>
+        <v>-1.63347264187097E-9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="40">
         <f>DATE(2026,12,20)</f>
         <v>46376</v>
       </c>
-      <c r="C13" s="49">
-        <f>EXP(-$B$4*(B13-$B$9)/365)</f>
+      <c r="C13" s="41">
+        <f t="shared" si="0"/>
         <v>0.88684754214272488</v>
       </c>
-      <c r="D13" s="50">
-        <v>1.0043039047567542E-2</v>
-      </c>
-      <c r="E13" s="49">
+      <c r="D13" s="42">
+        <v>1.00431857661688E-2</v>
+      </c>
+      <c r="E13" s="41">
         <f>E12+D13*(B13-$B$9)/365</f>
-        <v>0.19311426466987924</v>
-      </c>
-      <c r="F13" s="52">
+        <v>0.1931180032690836</v>
+      </c>
+      <c r="F13" s="44">
         <f>EXP(-E13)</f>
-        <v>0.8243877703606961</v>
-      </c>
-      <c r="G13" s="49">
+        <v>0.82438468831099498</v>
+      </c>
+      <c r="G13" s="41">
         <f>(B13-B12)/360</f>
         <v>1.0138888888888888</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="56">
         <f>+$B$5*G13*C13*F13+H12</f>
-        <v>3.3825256906509081E-2</v>
-      </c>
-      <c r="I13" s="64">
+        <v>3.3825580850472325E-2</v>
+      </c>
+      <c r="I13" s="56">
         <f>+I12+C13*(1-$B$6)*(F12-F13)</f>
-        <v>9.7405556922820227E-2</v>
-      </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="53"/>
+        <v>9.7406585832157541E-2</v>
+      </c>
+      <c r="J13" s="56"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="47">
         <f>DATE(2027,12,20)</f>
         <v>46741</v>
       </c>
-      <c r="C14" s="56">
-        <f>EXP(-$B$4*(B14-$B$9)/365)</f>
+      <c r="C14" s="48">
+        <f t="shared" si="0"/>
         <v>0.86063723621087973</v>
       </c>
-      <c r="D14" s="57">
-        <v>1.0043039047567542E-2</v>
-      </c>
-      <c r="E14" s="56">
+      <c r="D14" s="49">
+        <v>1.004318576616875E-2</v>
+      </c>
+      <c r="E14" s="48">
         <f>E13+D14*(B14-$B$9)/365</f>
-        <v>0.24335697508318974</v>
-      </c>
-      <c r="F14" s="59">
-        <f t="shared" si="0"/>
-        <v>0.78399159834707299</v>
-      </c>
-      <c r="G14" s="56">
+        <v>0.24336144767736889</v>
+      </c>
+      <c r="F14" s="51">
+        <f t="shared" ref="F11:F14" si="2">EXP(-E14)</f>
+        <v>0.78398809187865526</v>
+      </c>
+      <c r="G14" s="48">
         <f>(B14-B13)/360</f>
         <v>1.0138888888888888</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="57">
         <f>+$B$5*G14*C14*F14+H13</f>
-        <v>4.0666293358761881E-2</v>
-      </c>
-      <c r="I14" s="65">
+        <v>4.0666586705613739E-2</v>
+      </c>
+      <c r="I14" s="57">
         <f>+I13+C14*(1-$B$6)*(F13-F14)</f>
-        <v>0.11826542682400255</v>
-      </c>
-      <c r="J14" s="65">
+        <v>0.11826667489567064</v>
+      </c>
+      <c r="J14" s="57">
         <f>I14-H14</f>
-        <v>7.7599133465240666E-2</v>
-      </c>
-      <c r="K14" s="58">
+        <v>7.7600088190056898E-2</v>
+      </c>
+      <c r="K14" s="50">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="L14" s="60">
+      <c r="L14" s="52">
         <f>K14-J14</f>
-        <v>8.6653475933617941E-7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+        <v>-8.8190056896086944E-8</v>
+      </c>
     </row>
     <row r="22" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H23" s="69">
+      <c r="H23" s="61">
         <v>44915</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="69">
+      <c r="H24" s="61">
         <v>45280</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="11">
         <v>0.97485892367999816</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="69">
+      <c r="H25" s="61">
         <v>45646</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="11">
         <v>0.92639247350427811</v>
       </c>
     </row>
     <row r="26" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="69">
+      <c r="H26" s="61">
         <v>46011</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="11">
         <v>0.85820301496537466</v>
       </c>
     </row>
     <row r="27" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="69">
+      <c r="H27" s="61">
         <v>46376</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="11">
         <v>0.8243877703606961</v>
       </c>
     </row>
     <row r="28" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="70">
+      <c r="H28" s="62">
         <v>46741</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="12">
         <v>0.78399159834707299</v>
       </c>
     </row>
@@ -2782,29 +2750,26 @@
         <x15:webExtension appRef="{26F5079E-811A-4615-BB4E-ABAF08816D8D}">
           <xm:f>'Gruppo 1'!XFD1048550:XFD1048575</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{A6997903-39B1-4F5D-B6BE-4B4A3993AF3D}">
-          <xm:f>'Gruppo 1'!$D$10:$D$12</xm:f>
-        </x15:webExtension>
         <x15:webExtension appRef="{B6261FDF-EE42-4CC2-A458-941534207465}">
           <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{E4815D7E-F47C-412A-90CB-50A6072049D1}">
           <xm:f>#REF!</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{20DAA0B3-9578-41D7-887D-AF3EC0DD50EB}">
-          <xm:f>#REF!</xm:f>
+        <x15:webExtension appRef="{98C3AC29-54B1-4ACF-96C0-8FCDE3C20E46}">
+          <xm:f>'Gruppo 1'!1:1048576</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{C11BBEAB-00F4-480C-9AD3-8C988563A736}">
-          <xm:f>#REF!</xm:f>
+        <x15:webExtension appRef="{F7775F0D-7E7E-4BD5-BB26-5F91DDAB1AC8}">
+          <xm:f>'Gruppo 1'!XFD1048550:XFD1048575</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{2A28C48A-55EB-48E5-B5CF-8BA3A71A3811}">
-          <xm:f>#REF!</xm:f>
+        <x15:webExtension appRef="{F790F763-FBA1-4F84-9246-FD54E825E815}">
+          <xm:f>'Gruppo 1'!$D$10:$D$12</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{994C6377-F3B1-45B8-8D52-D15D5B61C403}">
-          <xm:f>#REF!</xm:f>
+        <x15:webExtension appRef="{84AE4FE2-6373-4AAF-8839-6B122B87144C}">
+          <xm:f>'Gruppo 1'!$L$14</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{E9A55A0D-EF05-4DBC-B2E0-D18F854BFD4C}">
-          <xm:f>#REF!</xm:f>
+        <x15:webExtension appRef="{540E163C-662D-4282-9D33-4D43A644D26F}">
+          <xm:f>'Gruppo 1'!$D$13:$D$14</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>

--- a/Credito/Credito-parte1.xlsx
+++ b/Credito/Credito-parte1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mippolimi-my.sharepoint.com/personal/giorgio_cappello_gsom_polimi_it/Documents/Desktop/Valutazione Prodotti/Progetto/Anno corrente/ProgettoValutazioneProdotti/Credito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="681" documentId="8_{63744DCE-6C42-41B8-B74E-D1CE19CF747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F748345C-331D-49B9-80DE-0E4A0258D968}"/>
+  <xr:revisionPtr revIDLastSave="682" documentId="8_{63744DCE-6C42-41B8-B74E-D1CE19CF747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3252FD87-8F8D-4551-9BC8-608E71BFB724}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
+    <workbookView minimized="1" xWindow="5115" yWindow="1965" windowWidth="15375" windowHeight="7875" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppo 1" sheetId="1" r:id="rId1"/>
@@ -604,6 +604,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,12 +624,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2148,7 +2148,7 @@
   <dimension ref="A1:XFD1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,22 +2170,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="D3" s="68" t="s">
+      <c r="B3" s="69"/>
+      <c r="D3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="64">
         <v>2.5486258974545904E-2</v>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
         <v>0.24336144767736889</v>
       </c>
       <c r="F14" s="51">
-        <f t="shared" ref="F11:F14" si="2">EXP(-E14)</f>
+        <f t="shared" ref="F14" si="2">EXP(-E14)</f>
         <v>0.78398809187865526</v>
       </c>
       <c r="G14" s="48">

--- a/Credito/Credito-parte1.xlsx
+++ b/Credito/Credito-parte1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mippolimi-my.sharepoint.com/personal/giorgio_cappello_gsom_polimi_it/Documents/Desktop/Valutazione Prodotti/Progetto/Anno corrente/ProgettoValutazioneProdotti/Credito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="682" documentId="8_{63744DCE-6C42-41B8-B74E-D1CE19CF747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3252FD87-8F8D-4551-9BC8-608E71BFB724}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDBA93F2-7EAD-477C-BA26-A2D393445F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5115" yWindow="1965" windowWidth="15375" windowHeight="7875" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gruppo 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Punto1" sheetId="2" r:id="rId1"/>
+    <sheet name="Punto2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,24 +59,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
   </si>
   <si>
     <t>C</t>
@@ -165,16 +151,10 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,7 +180,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +223,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -256,33 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -305,28 +271,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -373,19 +317,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -404,12 +335,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -421,208 +389,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -632,6 +583,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDDEBF7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -678,7 +634,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Survival Probability</a:t>
+              <a:t>Survival Probabilities</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -714,17 +670,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18447156369604742"/>
-          <c:y val="0.12941330803358933"/>
-          <c:w val="0.71592390573819786"/>
-          <c:h val="0.68903530646426869"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -733,7 +679,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gruppo 1'!$I$22</c:f>
+              <c:f>Punto2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -743,7 +689,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -768,54 +714,132 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Gruppo 1'!$H$23:$H$28</c:f>
+              <c:f>Punto2!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44915</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45189</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>45280</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>45646</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>45736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45828</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45920</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>46011</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>46101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46285</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>46376</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>46741</c:v>
+                <c:pt idx="17">
+                  <c:v>46466</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gruppo 1'!$I$23:$I$28</c:f>
+              <c:f>Punto2!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:ptCount val="19"/>
+                <c:pt idx="0" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97485892367999816</c:v>
+                  <c:v>0.99805769160240121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92639247350427811</c:v>
+                  <c:v>0.99414143297281665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85820301496537466</c:v>
+                  <c:v>0.9882744900437137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8243877703606961</c:v>
+                  <c:v>0.98051278384882701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78399159834707299</c:v>
+                  <c:v>0.9709276930906795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9595326500645871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94639375658040381</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93160663476763328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91522987357723184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89735582066293718</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87808399972885987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85753865795923456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84786213058479143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8375571673654808</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82664943108055244</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81517364246747481</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.80316520974440087</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79063737008944091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,7 +847,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3180-4AFE-B200-B730521F4008}"/>
+              <c16:uniqueId val="{00000000-C923-4F1B-AFA8-5CC417E2D449}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -837,32 +861,18 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1840319328"/>
-        <c:axId val="1841052496"/>
+        <c:axId val="1061063919"/>
+        <c:axId val="1154685615"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1840319328"/>
+        <c:axId val="1061063919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -870,8 +880,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -898,18 +908,18 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1841052496"/>
+        <c:crossAx val="1154685615"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="years"/>
+        <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1841052496"/>
+        <c:axId val="1154685615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.70000000000000007"/>
+          <c:min val="0.75000000000000011"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -927,20 +937,14 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -964,7 +968,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1840319328"/>
+        <c:crossAx val="1061063919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -978,6 +982,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -986,7 +997,10 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1051,7 +1065,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1078,8 +1092,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1180,7 +1194,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1212,10 +1226,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1255,23 +1269,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1376,8 +1389,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1509,20 +1522,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1536,17 +1548,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1570,23 +1571,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>933449</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3245272D-F186-5178-3C31-A157D6E55CF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8057190-428B-80C5-FF27-7B82751CEE81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1905,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -2037,12 +2038,12 @@
     <we:property name="JykPFS4Lf3I7KVoePRVvCAMw" value="&quot;UA==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAQ1" value="&quot;VA==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAQqWQ==" value="&quot;QXtI&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvCAQqWg==" value="&quot;QXtI&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvCAQqWw==" value="&quot;QXtI&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAQqWg==" value="&quot;QXpVWQ==&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAQqWw==" value="&quot;QXpVWQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAQqXA==" value="&quot;QXpVWQ==&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1WQ==" value="&quot;RQJMSHM=&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1Wg==" value="&quot;RQJMSHY=&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1Ww==" value="&quot;RQJMSHU=&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1WQ==" value="&quot;RQJMS3A=&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1Wg==" value="&quot;&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvCAk1Ww==" value="&quot;&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCAk1XA==" value="&quot;&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCBIi" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvCQ4l" value="&quot;UQ==&quot;"/>
@@ -2056,10 +2057,10 @@
     <we:property name="JykPFS4Lf3I7KVoePRVvExEi" value="&quot;Ug==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvExEv" value="&quot;UA==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFAQh" value="&quot;UA==&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvFBQr" value="&quot;UQ==&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1WQ==" value="&quot;RQJMSHQ=&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1Wg==" value="&quot;RQJMSHU=&quot;"/>
-    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1Ww==" value="&quot;RQJMSHc=&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvFBQr" value="&quot;UA==&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1WQ==" value="&quot;RQJMS3VeahdsdAA=&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1Wg==" value="&quot;&quot;"/>
+    <we:property name="JykPFS4Lf3I7KVoePRVvFgk1Ww==" value="&quot;&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFgk1XA==" value="&quot;&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFhE2" value="&quot;UQ==&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvFhEy" value="&quot;UQ==&quot;"/>
@@ -2073,9 +2074,9 @@
     <we:property name="JykPFS4Lf3I7KVoePRVvHAQn" value="&quot;UWhYSXdUfmI=&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvHQA2" value="&quot;UWhYSXdUfmI=&quot;"/>
     <we:property name="JykPFS4Lf3I7KVoePRVvHw8h" value="&quot;JhQv&quot;"/>
-    <we:property name="JykPFS4Lf3IFJ04lMQk=" value="&quot;UA==&quot;"/>
-    <we:property name="JykPFS4Lf3IHJFw=" value="&quot;&quot;"/>
-    <we:property name="JykPFS4Lf3IeJ0QBOQVcHxI=" value="&quot;&quot;"/>
+    <we:property name="JykPFS4Lf3IFJ04lMQk=" value="&quot;Ug==&quot;"/>
+    <we:property name="JykPFS4Lf3IHJFw=" value="&quot;RQpMS3A=&quot;"/>
+    <we:property name="JykPFS4Lf3IeJ0QBOQVcHxI=" value="&quot;RQJMS3VeahdsdAE=&quot;"/>
     <we:property name="JykPFS4Lf3IeJ0QBOQVcHxJ2" value="&quot;&quot;"/>
     <we:property name="JykPFS4Lf3IeJ0QBOQVcHxJ3" value="&quot;&quot;"/>
     <we:property name="JykPFS4LfHI7KVoePRVvCA0+" value="&quot;UQ==&quot;"/>
@@ -2133,25 +2134,26 @@
     <we:binding id="Gruppo 5_anno scorsoWorker" type="matrix" appref="{E4815D7E-F47C-412A-90CB-50A6072049D1}"/>
     <we:binding id="Gruppo 1refEdit" type="matrix" appref="{BD22D0B4-4A36-4A27-9CE3-F56F27A59648}"/>
     <we:binding id="Gruppo 1Worker" type="matrix" appref="{26F5079E-811A-4615-BB4E-ABAF08816D8D}"/>
-    <we:binding id="refEdit" type="matrix" appref="{98C3AC29-54B1-4ACF-96C0-8FCDE3C20E46}"/>
-    <we:binding id="Worker" type="matrix" appref="{F7775F0D-7E7E-4BD5-BB26-5F91DDAB1AC8}"/>
     <we:binding id="Var$D$10:$D$12" type="matrix" appref="{F790F763-FBA1-4F84-9246-FD54E825E815}"/>
-    <we:binding id="Obj" type="matrix" appref="{84AE4FE2-6373-4AAF-8839-6B122B87144C}"/>
     <we:binding id="Var$D$13:$D$14" type="matrix" appref="{540E163C-662D-4282-9D33-4D43A644D26F}"/>
+    <we:binding id="refEdit" type="matrix" appref="{B4DD089D-2E39-4892-9E1A-7C64E807A016}"/>
+    <we:binding id="Worker" type="matrix" appref="{7D976637-8C6E-48ED-9A0C-11EE623E6299}"/>
+    <we:binding id="Var$D$10:$D$21" type="matrix" appref="{AC30ED59-D78A-4F22-8922-FA66015ACADD}"/>
+    <we:binding id="Var$D$22:$D$27" type="matrix" appref="{DDD08244-58FE-409C-A08D-4C60411A025A}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA69AD2D-A7DA-4E25-BAC8-F5669C670454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F9D2C3-F827-9C47-AFD0-95583347D9B5}">
   <dimension ref="A1:XFD1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -2159,405 +2161,886 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="D3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="16">
+        <v>7.8847994498111793E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3.4924958757255702E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
-    </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="D3" s="63" t="s">
+      <c r="G8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="64">
-        <v>2.5486258974545904E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="I8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8">
-        <v>1.00431857661688E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="59" t="s">
+      <c r="J8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="B9" s="23">
         <f>DATE(2022,12,20)</f>
         <v>44915</v>
       </c>
-      <c r="C9" s="15">
-        <f t="shared" ref="C9:C14" si="0">EXP(-$B$4*(B9-$B$9)/365)</f>
+      <c r="C9" s="24">
+        <f>EXP(-$B$4*(B9-$B$9)/365)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24">
         <v>0</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="25">
         <f>EXP(-E9)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24">
         <v>0</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="24">
         <v>0</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="17"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="19">
-        <f>DATE(2023,12,20)</f>
+      <c r="A10" s="10"/>
+      <c r="B10" s="27">
+        <v>45005</v>
+      </c>
+      <c r="C10" s="28">
+        <f t="shared" ref="C10:C27" si="0">EXP(-$B$4*(B10-$B$9)/365)</f>
+        <v>0.99263003211803524</v>
+      </c>
+      <c r="D10" s="29">
+        <v>7.8847994498111845E-3</v>
+      </c>
+      <c r="E10" s="30">
+        <f>E9+D10*(B10-$B$9)/365</f>
+        <v>1.9441971246109771E-3</v>
+      </c>
+      <c r="F10" s="64">
+        <f>EXP(-E10)</f>
+        <v>0.99805769160240121</v>
+      </c>
+      <c r="G10" s="30">
+        <f>(B10-B9)/360</f>
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="31">
+        <f>$B$5*G10*C10*F10+H9</f>
+        <v>2.4767550961773588E-3</v>
+      </c>
+      <c r="I10" s="31">
+        <f>I9+C10*(1-$B$6)*(F9-F10)</f>
+        <v>1.1567961882549703E-3</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="33">
+        <v>45097</v>
+      </c>
+      <c r="C11" s="34">
+        <f t="shared" si="0"/>
+        <v>0.9851524244872506</v>
+      </c>
+      <c r="D11" s="35">
+        <v>7.8847994498111845E-3</v>
+      </c>
+      <c r="E11" s="36">
+        <f t="shared" ref="E11:E26" si="1">E10+D11*(B11-$B$9)/365</f>
+        <v>5.8757957543798412E-3</v>
+      </c>
+      <c r="F11" s="65">
+        <f t="shared" ref="F11:F27" si="2">EXP(-E11)</f>
+        <v>0.99414143297281665</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" ref="G11:G27" si="3">(B11-B10)/360</f>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H11" s="37">
+        <f t="shared" ref="H11:H27" si="4">$B$5*G11*C11*F11+H10</f>
+        <v>4.9796172504503805E-3</v>
+      </c>
+      <c r="I11" s="37">
+        <f t="shared" ref="I11:I27" si="5">I10+C11*(1-$B$6)*(F10-F11)</f>
+        <v>3.4716631985675763E-3</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="33">
+        <v>45189</v>
+      </c>
+      <c r="C12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.97773114662090066</v>
+      </c>
+      <c r="D12" s="35">
+        <v>7.8847994498111845E-3</v>
+      </c>
+      <c r="E12" s="36">
+        <f t="shared" si="1"/>
+        <v>1.1794795889306594E-2</v>
+      </c>
+      <c r="F12" s="65">
+        <f t="shared" si="2"/>
+        <v>0.9882744900437137</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="3"/>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H12" s="37">
+        <f t="shared" si="4"/>
+        <v>7.4489656123962024E-3</v>
+      </c>
+      <c r="I12" s="37">
+        <f t="shared" si="5"/>
+        <v>6.9134389009063019E-3</v>
+      </c>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="33">
         <v>45280</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C13" s="34">
         <f t="shared" si="0"/>
         <v>0.97044553354850815</v>
       </c>
-      <c r="D10" s="21">
-        <v>2.5486258974545904E-2</v>
-      </c>
-      <c r="E10" s="20">
-        <f>E9+D10*(B10-$B$9)/365</f>
-        <v>2.5486258974545907E-2</v>
-      </c>
-      <c r="F10" s="23">
-        <f>EXP(-E10)</f>
-        <v>0.97483577411689504</v>
-      </c>
-      <c r="G10" s="20">
-        <f>(B10-B9)/360</f>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="H10" s="53">
-        <f>$B$5*G10*C10*F10+H9</f>
-        <v>9.5916425936469641E-3</v>
-      </c>
-      <c r="I10" s="53">
-        <f>+I9+C10*(1-$B$6)*(F9-F10)</f>
-        <v>1.4652306368078984E-2</v>
-      </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="26">
-        <f>DATE(2024,12,20)</f>
+      <c r="D13" s="35">
+        <v>7.8847994498111845E-3</v>
+      </c>
+      <c r="E13" s="36">
+        <f t="shared" si="1"/>
+        <v>1.9679595339117777E-2</v>
+      </c>
+      <c r="F13" s="65">
+        <f t="shared" si="2"/>
+        <v>0.98051278384882701</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="3"/>
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="H13" s="37">
+        <f t="shared" si="4"/>
+        <v>9.8542327485703976E-3</v>
+      </c>
+      <c r="I13" s="37">
+        <f t="shared" si="5"/>
+        <v>1.1432826766632452E-2</v>
+      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="33">
+        <v>45371</v>
+      </c>
+      <c r="C14" s="34">
+        <f t="shared" si="0"/>
+        <v>0.9632142095902797</v>
+      </c>
+      <c r="D14" s="35">
+        <v>7.8847994498111845E-3</v>
+      </c>
+      <c r="E14" s="36">
+        <f>E13+D14*(B14-$B$9)/366</f>
+        <v>2.9503279899538271E-2</v>
+      </c>
+      <c r="F14" s="65">
+        <f t="shared" si="2"/>
+        <v>0.9709276930906795</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" si="3"/>
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="H14" s="37">
+        <f t="shared" si="4"/>
+        <v>1.2218239217813131E-2</v>
+      </c>
+      <c r="I14" s="37">
+        <f t="shared" si="5"/>
+        <v>1.6972324137708539E-2</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="33">
+        <v>45463</v>
+      </c>
+      <c r="C15" s="34">
+        <f t="shared" si="0"/>
+        <v>0.95595819507262103</v>
+      </c>
+      <c r="D15" s="35">
+        <v>7.8847994498111845E-3</v>
+      </c>
+      <c r="E15" s="36">
+        <f t="shared" ref="E15:E17" si="6">E14+D15*(B15-$B$9)/366</f>
+        <v>4.1308935906359388E-2</v>
+      </c>
+      <c r="F15" s="65">
+        <f t="shared" si="2"/>
+        <v>0.9595326500645871</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="3"/>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H15" s="37">
+        <f t="shared" si="4"/>
+        <v>1.4562381585167219E-2</v>
+      </c>
+      <c r="I15" s="37">
+        <f t="shared" si="5"/>
+        <v>2.3508234996107429E-2</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="33">
+        <v>45555</v>
+      </c>
+      <c r="C16" s="34">
+        <f t="shared" si="0"/>
+        <v>0.94875684103043745</v>
+      </c>
+      <c r="D16" s="35">
+        <v>7.8847994498111845E-3</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" si="6"/>
+        <v>5.509656335958113E-2</v>
+      </c>
+      <c r="F16" s="65">
+        <f t="shared" si="2"/>
+        <v>0.94639375658040381</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="3"/>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H16" s="37">
+        <f t="shared" si="4"/>
+        <v>1.6857008659597831E-2</v>
+      </c>
+      <c r="I16" s="37">
+        <f t="shared" si="5"/>
+        <v>3.0987604042120909E-2</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="33">
         <v>45646</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C17" s="34">
         <f t="shared" si="0"/>
         <v>0.94168713146107119</v>
       </c>
-      <c r="D11" s="28">
-        <v>2.5486258974545904E-2</v>
-      </c>
-      <c r="E11" s="27">
-        <f>E10+D11*(B11-$B$9)/366</f>
-        <v>7.638914233627557E-2</v>
-      </c>
-      <c r="F11" s="30">
-        <f>EXP(-E11)</f>
-        <v>0.92645561330106563</v>
-      </c>
-      <c r="G11" s="27">
-        <f>(B11-B10)/360</f>
-        <v>1.0166666666666666</v>
-      </c>
-      <c r="H11" s="54">
-        <f>+$B$5*G11*C11*F11+H10</f>
-        <v>1.8461361104287758E-2</v>
-      </c>
-      <c r="I11" s="54">
-        <f>+I10+C11*(1-$B$6)*(F10-F11)</f>
-        <v>4.1987691283049217E-2</v>
-      </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="31"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="33">
-        <f>DATE(2025,12,20)</f>
+      <c r="D17" s="35">
+        <v>7.8847994498111845E-3</v>
+      </c>
+      <c r="E17" s="36">
+        <f t="shared" si="6"/>
+        <v>7.0844619091307848E-2</v>
+      </c>
+      <c r="F17" s="65">
+        <f t="shared" si="2"/>
+        <v>0.93160663476763328</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="3"/>
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="H17" s="37">
+        <f t="shared" si="4"/>
+        <v>1.9074582552335149E-2</v>
+      </c>
+      <c r="I17" s="37">
+        <f t="shared" si="5"/>
+        <v>3.9342509435580902E-2</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="33">
+        <v>45736</v>
+      </c>
+      <c r="C18" s="34">
+        <f t="shared" si="0"/>
+        <v>0.93474692754734356</v>
+      </c>
+      <c r="D18" s="35">
+        <v>7.8847994498111845E-3</v>
+      </c>
+      <c r="E18" s="36">
+        <f t="shared" si="1"/>
+        <v>8.8580017305814648E-2</v>
+      </c>
+      <c r="F18" s="65">
+        <f t="shared" si="2"/>
+        <v>0.91522987357723184</v>
+      </c>
+      <c r="G18" s="36">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="37">
+        <f t="shared" si="4"/>
+        <v>2.1213353333149804E-2</v>
+      </c>
+      <c r="I18" s="37">
+        <f t="shared" si="5"/>
+        <v>4.8527385759123493E-2</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="33">
+        <v>45828</v>
+      </c>
+      <c r="C19" s="34">
+        <f t="shared" si="0"/>
+        <v>0.92770536066731857</v>
+      </c>
+      <c r="D19" s="35">
+        <v>7.8847994498111845E-3</v>
+      </c>
+      <c r="E19" s="36">
+        <f t="shared" si="1"/>
+        <v>0.10830281702547934</v>
+      </c>
+      <c r="F19" s="65">
+        <f t="shared" si="2"/>
+        <v>0.89735582066293718</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="3"/>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H19" s="37">
+        <f t="shared" si="4"/>
+        <v>2.3340806835468207E-2</v>
+      </c>
+      <c r="I19" s="37">
+        <f t="shared" si="5"/>
+        <v>5.8476498582388972E-2</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="33">
+        <v>45920</v>
+      </c>
+      <c r="C20" s="34">
+        <f t="shared" si="0"/>
+        <v>0.92071683880157995</v>
+      </c>
+      <c r="D20" s="35">
+        <v>7.8847994498111845E-3</v>
+      </c>
+      <c r="E20" s="36">
+        <f t="shared" si="1"/>
+        <v>0.13001301825030193</v>
+      </c>
+      <c r="F20" s="65">
+        <f t="shared" si="2"/>
+        <v>0.87808399972885987</v>
+      </c>
+      <c r="G20" s="36">
+        <f t="shared" si="3"/>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H20" s="37">
+        <f t="shared" si="4"/>
+        <v>2.540688846457375E-2</v>
+      </c>
+      <c r="I20" s="37">
+        <f t="shared" si="5"/>
+        <v>6.9122832611413235E-2</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40">
         <v>46011</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C21" s="41">
         <f t="shared" si="0"/>
         <v>0.91385607072650343</v>
       </c>
-      <c r="D12" s="35">
-        <v>2.5486258974545904E-2</v>
-      </c>
-      <c r="E12" s="34">
-        <f>E11+D12*(B12-$B$9)/365</f>
-        <v>0.15291774462696683</v>
-      </c>
-      <c r="F12" s="37">
-        <f>EXP(-E12)</f>
-        <v>0.85820031049488166</v>
-      </c>
-      <c r="G12" s="34">
-        <f t="shared" ref="G12" si="1">(B12-B11)/360</f>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="H12" s="55">
-        <f>+$B$5*G12*C12*F12+H11</f>
-        <v>2.6413003346800759E-2</v>
-      </c>
-      <c r="I12" s="55">
-        <f>+I11+C12*(1-$B$6)*(F11-F12)</f>
-        <v>7.9413004980273399E-2</v>
-      </c>
-      <c r="J12" s="55">
-        <f>I12-H12</f>
-        <v>5.300000163347264E-2</v>
-      </c>
-      <c r="K12" s="36">
+      <c r="D21" s="42">
+        <v>7.8847994498111793E-3</v>
+      </c>
+      <c r="E21" s="43">
+        <f t="shared" si="1"/>
+        <v>0.1536890187900089</v>
+      </c>
+      <c r="F21" s="66">
+        <f t="shared" si="2"/>
+        <v>0.85753865795923456</v>
+      </c>
+      <c r="G21" s="43">
+        <f>(B21-B20)/360</f>
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="H21" s="44">
+        <f t="shared" si="4"/>
+        <v>2.7387824260955478E-2</v>
+      </c>
+      <c r="I21" s="44">
+        <f t="shared" si="5"/>
+        <v>8.0388123792206972E-2</v>
+      </c>
+      <c r="J21" s="44">
+        <f>I21-H21</f>
+        <v>5.3000299531251495E-2</v>
+      </c>
+      <c r="K21" s="44">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L12" s="38">
-        <f>K12-J12</f>
-        <v>-1.63347264187097E-9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="40">
-        <f>DATE(2026,12,20)</f>
+      <c r="L21" s="45">
+        <f>J21-K21</f>
+        <v>2.9953125149639881E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47">
+        <v>46101</v>
+      </c>
+      <c r="C22" s="48">
+        <f t="shared" si="0"/>
+        <v>0.9071209808365106</v>
+      </c>
+      <c r="D22" s="49">
+        <v>3.4924958757255749E-3</v>
+      </c>
+      <c r="E22" s="50">
+        <f t="shared" si="1"/>
+        <v>0.1650372382656542</v>
+      </c>
+      <c r="F22" s="67">
+        <f t="shared" si="2"/>
+        <v>0.84786213058479143</v>
+      </c>
+      <c r="G22" s="50">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="50">
+        <f t="shared" si="4"/>
+        <v>2.9310608079731001E-2</v>
+      </c>
+      <c r="I22" s="50">
+        <f t="shared" si="5"/>
+        <v>8.5654792394004697E-2</v>
+      </c>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53">
+        <v>46193</v>
+      </c>
+      <c r="C23" s="54">
+        <f t="shared" si="0"/>
+        <v>0.90028752370860721</v>
+      </c>
+      <c r="D23" s="55">
+        <v>3.4924958757255749E-3</v>
+      </c>
+      <c r="E23" s="56">
+        <f t="shared" si="1"/>
+        <v>0.17726575807161937</v>
+      </c>
+      <c r="F23" s="68">
+        <f t="shared" si="2"/>
+        <v>0.8375571673654808</v>
+      </c>
+      <c r="G23" s="56">
+        <f t="shared" si="3"/>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H23" s="56">
+        <f t="shared" si="4"/>
+        <v>3.1237604987281321E-2</v>
+      </c>
+      <c r="I23" s="56">
+        <f t="shared" si="5"/>
+        <v>9.1221250285177566E-2</v>
+      </c>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53">
+        <v>46285</v>
+      </c>
+      <c r="C24" s="54">
+        <f t="shared" si="0"/>
+        <v>0.89350554387789505</v>
+      </c>
+      <c r="D24" s="55">
+        <v>3.4924958757255749E-3</v>
+      </c>
+      <c r="E24" s="56">
+        <f t="shared" si="1"/>
+        <v>0.1903745782079044</v>
+      </c>
+      <c r="F24" s="68">
+        <f t="shared" si="2"/>
+        <v>0.82664943108055244</v>
+      </c>
+      <c r="G24" s="56">
+        <f t="shared" si="3"/>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H24" s="56">
+        <f t="shared" si="4"/>
+        <v>3.3125178824928166E-2</v>
+      </c>
+      <c r="I24" s="56">
+        <f t="shared" si="5"/>
+        <v>9.7068923990222503E-2</v>
+      </c>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="53">
         <v>46376</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C25" s="54">
         <f t="shared" si="0"/>
         <v>0.88684754214272488</v>
       </c>
-      <c r="D13" s="42">
-        <v>1.00431857661688E-2</v>
-      </c>
-      <c r="E13" s="41">
-        <f>E12+D13*(B13-$B$9)/365</f>
-        <v>0.1931180032690836</v>
-      </c>
-      <c r="F13" s="44">
-        <f>EXP(-E13)</f>
-        <v>0.82438468831099498</v>
-      </c>
-      <c r="G13" s="41">
-        <f>(B13-B12)/360</f>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="H13" s="56">
-        <f>+$B$5*G13*C13*F13+H12</f>
-        <v>3.3825580850472325E-2</v>
-      </c>
-      <c r="I13" s="56">
-        <f>+I12+C13*(1-$B$6)*(F12-F13)</f>
-        <v>9.7406585832157541E-2</v>
-      </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="45"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="47">
-        <f>DATE(2027,12,20)</f>
-        <v>46741</v>
-      </c>
-      <c r="C14" s="48">
+      <c r="D25" s="55">
+        <v>3.4924958757255749E-3</v>
+      </c>
+      <c r="E25" s="56">
+        <f t="shared" si="1"/>
+        <v>0.204354130192658</v>
+      </c>
+      <c r="F25" s="68">
+        <f t="shared" si="2"/>
+        <v>0.81517364246747481</v>
+      </c>
+      <c r="G25" s="56">
+        <f t="shared" si="3"/>
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="H25" s="56">
+        <f t="shared" si="4"/>
+        <v>3.4952597198622745E-2</v>
+      </c>
+      <c r="I25" s="56">
+        <f t="shared" si="5"/>
+        <v>0.10317528894561692</v>
+      </c>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53">
+        <v>46466</v>
+      </c>
+      <c r="C26" s="54">
         <f t="shared" si="0"/>
-        <v>0.86063723621087973</v>
-      </c>
-      <c r="D14" s="49">
-        <v>1.004318576616875E-2</v>
-      </c>
-      <c r="E14" s="48">
-        <f>E13+D14*(B14-$B$9)/365</f>
-        <v>0.24336144767736889</v>
-      </c>
-      <c r="F14" s="51">
-        <f t="shared" ref="F14" si="2">EXP(-E14)</f>
-        <v>0.78398809187865526</v>
-      </c>
-      <c r="G14" s="48">
-        <f>(B14-B13)/360</f>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="H14" s="57">
-        <f>+$B$5*G14*C14*F14+H13</f>
-        <v>4.0666586705613739E-2</v>
-      </c>
-      <c r="I14" s="57">
-        <f>+I13+C14*(1-$B$6)*(F13-F14)</f>
-        <v>0.11826667489567064</v>
-      </c>
-      <c r="J14" s="57">
-        <f>I14-H14</f>
-        <v>7.7600088190056898E-2</v>
-      </c>
-      <c r="K14" s="50">
+        <v>0.88031150424093363</v>
+      </c>
+      <c r="D26" s="55">
+        <v>3.4924958757255749E-3</v>
+      </c>
+      <c r="E26" s="56">
+        <f t="shared" si="1"/>
+        <v>0.21919484554402885</v>
+      </c>
+      <c r="F26" s="68">
+        <f t="shared" si="2"/>
+        <v>0.80316520974440087</v>
+      </c>
+      <c r="G26" s="56">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="H26" s="56">
+        <f t="shared" si="4"/>
+        <v>3.6720186133482942E-2</v>
+      </c>
+      <c r="I26" s="56">
+        <f t="shared" si="5"/>
+        <v>0.10951798583003208</v>
+      </c>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
+      <c r="B27" s="59">
+        <v>46558</v>
+      </c>
+      <c r="C27" s="60">
+        <f t="shared" si="0"/>
+        <v>0.87368000629246456</v>
+      </c>
+      <c r="D27" s="61">
+        <v>3.4924958757255702E-3</v>
+      </c>
+      <c r="E27" s="62">
+        <f>E26+D27*(B27-$B$9)/365</f>
+        <v>0.23491586122571956</v>
+      </c>
+      <c r="F27" s="69">
+        <f t="shared" si="2"/>
+        <v>0.79063737008944091</v>
+      </c>
+      <c r="G27" s="62">
+        <f t="shared" si="3"/>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H27" s="62">
+        <f t="shared" si="4"/>
+        <v>3.8485472070918542E-2</v>
+      </c>
+      <c r="I27" s="62">
+        <f t="shared" si="5"/>
+        <v>0.11608517964717793</v>
+      </c>
+      <c r="J27" s="62">
+        <f>I27-H27</f>
+        <v>7.7599707576259391E-2</v>
+      </c>
+      <c r="K27" s="62">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="L14" s="52">
-        <f>K14-J14</f>
-        <v>-8.8190056896086944E-8</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H23" s="61">
-        <v>44915</v>
-      </c>
-      <c r="I23" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="61">
-        <v>45280</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0.97485892367999816</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="61">
-        <v>45646</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0.92639247350427811</v>
-      </c>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="61">
-        <v>46011</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0.85820301496537466</v>
-      </c>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="61">
-        <v>46376</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0.8243877703606961</v>
-      </c>
-    </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="62">
-        <v>46741</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0.78399159834707299</v>
-      </c>
+      <c r="L27" s="63">
+        <f>J27-K27</f>
+        <v>-2.9242374061100307E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H39" s="17"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.25">
       <c r="XFD1048550" t="e" cm="1">
@@ -2720,35 +3203,33 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
       <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
         <x15:webExtension appRef="{3194F19F-A891-46AD-B6A0-B93C7D42DD12}">
-          <xm:f>'Gruppo 1'!$D$10:$D$12</xm:f>
+          <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{C52DD111-72C4-4CAC-B116-CECCA96BD5E8}">
-          <xm:f>'Gruppo 1'!$D$13:$D$14</xm:f>
+          <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{EE45590B-7908-4C3A-B47B-F1F1B0461A6A}">
-          <xm:f>'Gruppo 1'!$B$16:$B$17</xm:f>
+          <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{F1D42B58-4236-4746-9702-2402814DC726}">
-          <xm:f>'Gruppo 1'!1:1048576</xm:f>
+          <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{E1FB6474-727A-4617-9940-87100BC3D368}">
-          <xm:f>'Gruppo 1'!XFD1048550:XFD1048575</xm:f>
+          <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{92E88A3B-A3AD-43C1-88C3-60D7E849F64E}">
           <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{BD22D0B4-4A36-4A27-9CE3-F56F27A59648}">
-          <xm:f>'Gruppo 1'!1:1048576</xm:f>
+          <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{26F5079E-811A-4615-BB4E-ABAF08816D8D}">
-          <xm:f>'Gruppo 1'!XFD1048550:XFD1048575</xm:f>
+          <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{B6261FDF-EE42-4CC2-A458-941534207465}">
           <xm:f>#REF!</xm:f>
@@ -2756,23 +3237,207 @@
         <x15:webExtension appRef="{E4815D7E-F47C-412A-90CB-50A6072049D1}">
           <xm:f>#REF!</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{98C3AC29-54B1-4ACF-96C0-8FCDE3C20E46}">
-          <xm:f>'Gruppo 1'!1:1048576</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{F7775F0D-7E7E-4BD5-BB26-5F91DDAB1AC8}">
-          <xm:f>'Gruppo 1'!XFD1048550:XFD1048575</xm:f>
-        </x15:webExtension>
         <x15:webExtension appRef="{F790F763-FBA1-4F84-9246-FD54E825E815}">
-          <xm:f>'Gruppo 1'!$D$10:$D$12</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{84AE4FE2-6373-4AAF-8839-6B122B87144C}">
-          <xm:f>'Gruppo 1'!$L$14</xm:f>
+          <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{540E163C-662D-4282-9D33-4D43A644D26F}">
-          <xm:f>'Gruppo 1'!$D$13:$D$14</xm:f>
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{B4DD089D-2E39-4892-9E1A-7C64E807A016}">
+          <xm:f>Punto1!1:1048576</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{7D976637-8C6E-48ED-9A0C-11EE623E6299}">
+          <xm:f>Punto1!XFD1048550:XFD1048575</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{AC30ED59-D78A-4F22-8922-FA66015ACADD}">
+          <xm:f>Punto1!$D$10:$D$21</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{DDD08244-58FE-409C-A08D-4C60411A025A}">
+          <xm:f>Punto1!$D$22:$D$27</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0663667F-5B17-4C7D-9CBA-469F6D1FC0A2}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="75">
+        <f>DATE(2022,12,20)</f>
+        <v>44915</v>
+      </c>
+      <c r="B2" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="76">
+        <v>45005</v>
+      </c>
+      <c r="B3" s="70">
+        <v>0.99805769160240121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="76">
+        <v>45097</v>
+      </c>
+      <c r="B4" s="70">
+        <v>0.99414143297281665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="76">
+        <v>45189</v>
+      </c>
+      <c r="B5" s="70">
+        <v>0.9882744900437137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="76">
+        <v>45280</v>
+      </c>
+      <c r="B6" s="70">
+        <v>0.98051278384882701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="76">
+        <v>45371</v>
+      </c>
+      <c r="B7" s="70">
+        <v>0.9709276930906795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="76">
+        <v>45463</v>
+      </c>
+      <c r="B8" s="70">
+        <v>0.9595326500645871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="76">
+        <v>45555</v>
+      </c>
+      <c r="B9" s="70">
+        <v>0.94639375658040381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="76">
+        <v>45646</v>
+      </c>
+      <c r="B10" s="70">
+        <v>0.93160663476763328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="76">
+        <v>45736</v>
+      </c>
+      <c r="B11" s="70">
+        <v>0.91522987357723184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="76">
+        <v>45828</v>
+      </c>
+      <c r="B12" s="70">
+        <v>0.89735582066293718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="76">
+        <v>45920</v>
+      </c>
+      <c r="B13" s="70">
+        <v>0.87808399972885987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="76">
+        <v>46011</v>
+      </c>
+      <c r="B14" s="70">
+        <v>0.85753865795923456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="76">
+        <v>46101</v>
+      </c>
+      <c r="B15" s="70">
+        <v>0.84786213058479143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="76">
+        <v>46193</v>
+      </c>
+      <c r="B16" s="70">
+        <v>0.8375571673654808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="76">
+        <v>46285</v>
+      </c>
+      <c r="B17" s="70">
+        <v>0.82664943108055244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="76">
+        <v>46376</v>
+      </c>
+      <c r="B18" s="70">
+        <v>0.81517364246747481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="76">
+        <v>46466</v>
+      </c>
+      <c r="B19" s="70">
+        <v>0.80316520974440087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="77">
+        <v>46558</v>
+      </c>
+      <c r="B20" s="71">
+        <v>0.79063737008944091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Credito/Credito-parte1.xlsx
+++ b/Credito/Credito-parte1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mippolimi-my.sharepoint.com/personal/giorgio_cappello_gsom_polimi_it/Documents/Desktop/Valutazione Prodotti/Progetto/Anno corrente/ProgettoValutazioneProdotti/Credito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDBA93F2-7EAD-477C-BA26-A2D393445F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{DDBA93F2-7EAD-477C-BA26-A2D393445F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A74978-A33F-4EF9-AE0B-96D84130125B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Punto1" sheetId="2" r:id="rId1"/>
@@ -524,12 +524,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -543,18 +537,12 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -576,6 +564,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -714,10 +714,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Punto2!$A$2:$A$20</c:f>
+              <c:f>Punto2!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44915</c:v>
                 </c:pt>
@@ -774,16 +774,22 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>46558</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46650</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Punto2!$B$2:$B$20</c:f>
+              <c:f>Punto2!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
@@ -824,22 +830,28 @@
                   <c:v>0.85753865795923456</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.84786213058479143</c:v>
+                  <c:v>0.85025013883402112</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.8375571673654808</c:v>
+                  <c:v>0.84246556395606631</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.82664943108055244</c:v>
+                  <c:v>0.83419973318501284</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.81517364246747481</c:v>
+                  <c:v>0.82547419803551414</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.80316520974440087</c:v>
+                  <c:v>0.8163110076218465</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.79063737008944091</c:v>
+                  <c:v>0.80671520904187533</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79670451603238646</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78630290620020049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,15 +1584,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2122,6 +2134,74 @@
     <we:property name="JykPFS4LfHIeJ0QBOQVcHxJ3" value="&quot;&quot;"/>
     <we:property name="LiQC" value="&quot;&quot;"/>
     <we:property name="UniqueID" value="&quot;20241111707665900305&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcnOg0=" value="&quot;RQpMS3Y=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZDRcg" value="&quot;JhQv&quot;"/>
+    <we:property name="MTMGDShVbnt6bxclOR99Ew8=" value="&quot;Ug==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBhwg" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGAsi" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGxor" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhU/" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZHBYr" value="&quot;UWhYSA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZCw8g" value="&quot;UWhYSXdV&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBQor" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGwo9" value="&quot;UHZY&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGgoj" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBQsz" value="&quot;UWhYTnI=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBRcu" value="&quot;UnY=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhsx" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBg01" value="&quot;Uw==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZCRok" value="&quot;UWhYSXY=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhw0" value="&quot;VA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZCQs0" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGw0m" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBRwz" value="&quot;Uw==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGxYk" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBAkz" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBAk3" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZDxg3" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZAQk0" value="&quot;UWhRQA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZDhwm" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZAQku" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZAQkj" value="&quot;Ug==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxc+ORVZGwMqDQo=" value="&quot;RQJMSHdeahdsdAc=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBgwq" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBBE0VQ==" value="&quot;RQJMSHdeahdsdAY=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhwrVQ==" value="&quot;QXtI&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhE0VQ==" value="&quot;RQJMS3Y=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjheDww=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbwUpNF8JOgtVCQ==" value="&quot;RQJMS3VeahdsdA8=&quot;"/>
+    <we:property name="MTMGDShVbxwqLA==" value="&quot;RQpMS34=&quot;"/>
+    <we:property name="MTMGDShVbx4pPnsBNg==" value="&quot;Ug==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhGGw0=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhACAQ=" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhDGQ0=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhCFhk=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhEFQ0=" value="&quot;UWhYSA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhTDAY=" value="&quot;UWhYSXdV&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhdCQ0=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhDCRs=" value="&quot;UHZY&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhCCQU=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhdCBU=" value="&quot;UWhYTnI=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhdFAg=" value="&quot;UnY=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhCGBc=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjheHwY=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhRGQI=" value="&quot;UWhYSXY=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhCHxI=" value="&quot;VA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhRCBI=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhDDgA=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhdHxU=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhDFQI=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhcChU=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhcChE=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhXGxE=" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhZChI=" value="&quot;UWhRQA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhWHwA=" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhZCgg=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhZCgU=" value="&quot;Ug==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhVFAY=" value="&quot;JhQv&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhcEhJ3" value="&quot;RQJMS3VeahdsdA4=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhCHw13" value="&quot;QXtI&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhCEhJ3" value="&quot;RQJMS34=&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="Var$F$10:$F$12" type="matrix" appref="{3194F19F-A891-46AD-B6A0-B93C7D42DD12}"/>
@@ -2136,10 +2216,14 @@
     <we:binding id="Gruppo 1Worker" type="matrix" appref="{26F5079E-811A-4615-BB4E-ABAF08816D8D}"/>
     <we:binding id="Var$D$10:$D$12" type="matrix" appref="{F790F763-FBA1-4F84-9246-FD54E825E815}"/>
     <we:binding id="Var$D$13:$D$14" type="matrix" appref="{540E163C-662D-4282-9D33-4D43A644D26F}"/>
-    <we:binding id="refEdit" type="matrix" appref="{B4DD089D-2E39-4892-9E1A-7C64E807A016}"/>
-    <we:binding id="Worker" type="matrix" appref="{7D976637-8C6E-48ED-9A0C-11EE623E6299}"/>
-    <we:binding id="Var$D$10:$D$21" type="matrix" appref="{AC30ED59-D78A-4F22-8922-FA66015ACADD}"/>
     <we:binding id="Var$D$22:$D$27" type="matrix" appref="{DDD08244-58FE-409C-A08D-4C60411A025A}"/>
+    <we:binding id="refEdit" type="matrix" appref="{ABF8891B-5DAF-4B4A-AE04-6FF2228A978F}"/>
+    <we:binding id="Worker" type="matrix" appref="{4181E181-5AE6-43C9-A2F7-94F0A80D9F18}"/>
+    <we:binding id="Var$D$10:$D$21" type="matrix" appref="{6224A752-D9FD-4626-8CDF-BA4B50B27E79}"/>
+    <we:binding id="Punto1refEdit" type="matrix" appref="{7E42193C-5B67-4E67-A19F-CCFB5DC08446}"/>
+    <we:binding id="Punto1Worker" type="matrix" appref="{E6A47BAC-2429-4F02-BD0F-C955E9068377}"/>
+    <we:binding id="Obj" type="matrix" appref="{CAE641E9-DABE-44D2-81F8-EF9B24EC99A7}"/>
+    <we:binding id="Var$D$22:$D$29" type="matrix" appref="{EEB159ED-E399-4956-BF06-1AB293879736}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -2149,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F9D2C3-F827-9C47-AFD0-95583347D9B5}">
   <dimension ref="A1:XFD1048575"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,18 +2256,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82"/>
+      <c r="B3" s="74"/>
       <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
@@ -2202,7 +2286,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="7">
-        <v>3.4924958757255702E-3</v>
+        <v>2.626914546233219E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2300,7 +2384,7 @@
         <v>45005</v>
       </c>
       <c r="C10" s="28">
-        <f t="shared" ref="C10:C27" si="0">EXP(-$B$4*(B10-$B$9)/365)</f>
+        <f t="shared" ref="C10:C29" si="0">EXP(-$B$4*(B10-$B$9)/365)</f>
         <v>0.99263003211803524</v>
       </c>
       <c r="D10" s="29">
@@ -2310,7 +2394,7 @@
         <f>E9+D10*(B10-$B$9)/365</f>
         <v>1.9441971246109771E-3</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="60">
         <f>EXP(-E10)</f>
         <v>0.99805769160240121</v>
       </c>
@@ -2343,23 +2427,23 @@
         <v>7.8847994498111845E-3</v>
       </c>
       <c r="E11" s="36">
-        <f t="shared" ref="E11:E26" si="1">E10+D11*(B11-$B$9)/365</f>
+        <f t="shared" ref="E11:E29" si="1">E10+D11*(B11-$B$9)/365</f>
         <v>5.8757957543798412E-3</v>
       </c>
-      <c r="F11" s="65">
-        <f t="shared" ref="F11:F27" si="2">EXP(-E11)</f>
+      <c r="F11" s="61">
+        <f t="shared" ref="F11:F29" si="2">EXP(-E11)</f>
         <v>0.99414143297281665</v>
       </c>
       <c r="G11" s="36">
-        <f t="shared" ref="G11:G27" si="3">(B11-B10)/360</f>
+        <f t="shared" ref="G11:G29" si="3">(B11-B10)/360</f>
         <v>0.25555555555555554</v>
       </c>
       <c r="H11" s="37">
-        <f t="shared" ref="H11:H27" si="4">$B$5*G11*C11*F11+H10</f>
+        <f t="shared" ref="H11:H29" si="4">$B$5*G11*C11*F11+H10</f>
         <v>4.9796172504503805E-3</v>
       </c>
       <c r="I11" s="37">
-        <f t="shared" ref="I11:I27" si="5">I10+C11*(1-$B$6)*(F10-F11)</f>
+        <f t="shared" ref="I11:I29" si="5">I10+C11*(1-$B$6)*(F10-F11)</f>
         <v>3.4716631985675763E-3</v>
       </c>
       <c r="J11" s="37"/>
@@ -2382,7 +2466,7 @@
         <f t="shared" si="1"/>
         <v>1.1794795889306594E-2</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="61">
         <f t="shared" si="2"/>
         <v>0.9882744900437137</v>
       </c>
@@ -2418,7 +2502,7 @@
         <f t="shared" si="1"/>
         <v>1.9679595339117777E-2</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="61">
         <f t="shared" si="2"/>
         <v>0.98051278384882701</v>
       </c>
@@ -2454,7 +2538,7 @@
         <f>E13+D14*(B14-$B$9)/366</f>
         <v>2.9503279899538271E-2</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="61">
         <f t="shared" si="2"/>
         <v>0.9709276930906795</v>
       </c>
@@ -2490,7 +2574,7 @@
         <f t="shared" ref="E15:E17" si="6">E14+D15*(B15-$B$9)/366</f>
         <v>4.1308935906359388E-2</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="61">
         <f t="shared" si="2"/>
         <v>0.9595326500645871</v>
       </c>
@@ -2526,7 +2610,7 @@
         <f t="shared" si="6"/>
         <v>5.509656335958113E-2</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="61">
         <f t="shared" si="2"/>
         <v>0.94639375658040381</v>
       </c>
@@ -2562,7 +2646,7 @@
         <f t="shared" si="6"/>
         <v>7.0844619091307848E-2</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="61">
         <f t="shared" si="2"/>
         <v>0.93160663476763328</v>
       </c>
@@ -2598,7 +2682,7 @@
         <f t="shared" si="1"/>
         <v>8.8580017305814648E-2</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="61">
         <f t="shared" si="2"/>
         <v>0.91522987357723184</v>
       </c>
@@ -2634,7 +2718,7 @@
         <f t="shared" si="1"/>
         <v>0.10830281702547934</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="61">
         <f t="shared" si="2"/>
         <v>0.89735582066293718</v>
       </c>
@@ -2670,7 +2754,7 @@
         <f t="shared" si="1"/>
         <v>0.13001301825030193</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="61">
         <f t="shared" si="2"/>
         <v>0.87808399972885987</v>
       </c>
@@ -2706,7 +2790,7 @@
         <f t="shared" si="1"/>
         <v>0.1536890187900089</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="62">
         <f t="shared" si="2"/>
         <v>0.85753865795923456</v>
       </c>
@@ -2744,27 +2828,27 @@
         <v>0.9071209808365106</v>
       </c>
       <c r="D22" s="49">
-        <v>3.4924958757255749E-3</v>
+        <v>2.626914546233219E-3</v>
       </c>
       <c r="E22" s="50">
         <f t="shared" si="1"/>
-        <v>0.1650372382656542</v>
-      </c>
-      <c r="F22" s="67">
+        <v>0.16222469180872834</v>
+      </c>
+      <c r="F22" s="63">
         <f t="shared" si="2"/>
-        <v>0.84786213058479143</v>
+        <v>0.85025013883402112</v>
       </c>
       <c r="G22" s="50">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="H22" s="50">
-        <f t="shared" si="4"/>
-        <v>2.9310608079731001E-2</v>
+        <f>$B$5*G22*C22*F22+H21</f>
+        <v>2.9316023610694217E-2</v>
       </c>
       <c r="I22" s="50">
-        <f t="shared" si="5"/>
-        <v>8.5654792394004697E-2</v>
+        <f>I21+C22*(1-$B$6)*(F21-F22)</f>
+        <v>8.4355064962832543E-2</v>
       </c>
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
@@ -2772,190 +2856,262 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="53">
+      <c r="B23" s="75">
         <v>46193</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="76">
         <f t="shared" si="0"/>
         <v>0.90028752370860721</v>
       </c>
-      <c r="D23" s="55">
-        <v>3.4924958757255749E-3</v>
-      </c>
-      <c r="E23" s="56">
+      <c r="D23" s="77">
+        <v>2.626914546233219E-3</v>
+      </c>
+      <c r="E23" s="78">
         <f t="shared" si="1"/>
-        <v>0.17726575807161937</v>
-      </c>
-      <c r="F23" s="68">
+        <v>0.17142249123362163</v>
+      </c>
+      <c r="F23" s="79">
         <f t="shared" si="2"/>
-        <v>0.8375571673654808</v>
-      </c>
-      <c r="G23" s="56">
+        <v>0.84246556395606631</v>
+      </c>
+      <c r="G23" s="78">
         <f t="shared" si="3"/>
         <v>0.25555555555555554</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="78">
         <f t="shared" si="4"/>
-        <v>3.1237604987281321E-2</v>
-      </c>
-      <c r="I23" s="56">
+        <v>3.1254313437008324E-2</v>
+      </c>
+      <c r="I23" s="78">
         <f t="shared" si="5"/>
-        <v>9.1221250285177566E-2</v>
-      </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
+        <v>8.8560078346831439E-2</v>
+      </c>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="53">
+      <c r="B24" s="75">
         <v>46285</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="76">
         <f t="shared" si="0"/>
         <v>0.89350554387789505</v>
       </c>
-      <c r="D24" s="55">
-        <v>3.4924958757255749E-3</v>
-      </c>
-      <c r="E24" s="56">
+      <c r="D24" s="77">
+        <v>2.626914546233219E-3</v>
+      </c>
+      <c r="E24" s="78">
         <f t="shared" si="1"/>
-        <v>0.1903745782079044</v>
-      </c>
-      <c r="F24" s="68">
+        <v>0.18128241706468878</v>
+      </c>
+      <c r="F24" s="79">
         <f t="shared" si="2"/>
-        <v>0.82664943108055244</v>
-      </c>
-      <c r="G24" s="56">
+        <v>0.83419973318501284</v>
+      </c>
+      <c r="G24" s="78">
         <f t="shared" si="3"/>
         <v>0.25555555555555554</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="78">
         <f t="shared" si="4"/>
-        <v>3.3125178824928166E-2</v>
-      </c>
-      <c r="I24" s="56">
+        <v>3.3159127657558567E-2</v>
+      </c>
+      <c r="I24" s="78">
         <f t="shared" si="5"/>
-        <v>9.7068923990222503E-2</v>
-      </c>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="57"/>
+        <v>9.2991417718047101E-2</v>
+      </c>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="53">
+      <c r="B25" s="75">
         <v>46376</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="76">
         <f t="shared" si="0"/>
         <v>0.88684754214272488</v>
       </c>
-      <c r="D25" s="55">
-        <v>3.4924958757255749E-3</v>
-      </c>
-      <c r="E25" s="56">
+      <c r="D25" s="77">
+        <v>2.626914546233219E-3</v>
+      </c>
+      <c r="E25" s="78">
         <f t="shared" si="1"/>
-        <v>0.204354130192658</v>
-      </c>
-      <c r="F25" s="68">
+        <v>0.19179727227577573</v>
+      </c>
+      <c r="F25" s="79">
         <f t="shared" si="2"/>
-        <v>0.81517364246747481</v>
-      </c>
-      <c r="G25" s="56">
+        <v>0.82547419803551414</v>
+      </c>
+      <c r="G25" s="78">
         <f t="shared" si="3"/>
         <v>0.25277777777777777</v>
       </c>
-      <c r="H25" s="56">
+      <c r="H25" s="78">
         <f t="shared" si="4"/>
-        <v>3.4952597198622745E-2</v>
-      </c>
-      <c r="I25" s="56">
+        <v>3.5009637337845595E-2</v>
+      </c>
+      <c r="I25" s="78">
         <f t="shared" si="5"/>
-        <v>0.10317528894561692</v>
-      </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
+        <v>9.7634349358774825E-2</v>
+      </c>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="53">
+      <c r="B26" s="75">
         <v>46466</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="76">
         <f t="shared" si="0"/>
         <v>0.88031150424093363</v>
       </c>
-      <c r="D26" s="55">
-        <v>3.4924958757255749E-3</v>
-      </c>
-      <c r="E26" s="56">
+      <c r="D26" s="77">
+        <v>2.626914546233219E-3</v>
+      </c>
+      <c r="E26" s="78">
         <f t="shared" si="1"/>
-        <v>0.21919484554402885</v>
-      </c>
-      <c r="F26" s="68">
+        <v>0.2029598598407284</v>
+      </c>
+      <c r="F26" s="79">
         <f t="shared" si="2"/>
-        <v>0.80316520974440087</v>
-      </c>
-      <c r="G26" s="56">
+        <v>0.8163110076218465</v>
+      </c>
+      <c r="G26" s="78">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="78">
         <f t="shared" si="4"/>
-        <v>3.6720186133482942E-2</v>
-      </c>
-      <c r="I26" s="56">
+        <v>3.6806157265465642E-2</v>
+      </c>
+      <c r="I26" s="78">
         <f t="shared" si="5"/>
-        <v>0.10951798583003208</v>
-      </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="57"/>
+        <v>0.10247422652079595</v>
+      </c>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59">
+      <c r="A27" s="52"/>
+      <c r="B27" s="75">
         <v>46558</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="76">
         <f t="shared" si="0"/>
         <v>0.87368000629246456</v>
       </c>
-      <c r="D27" s="61">
-        <v>3.4924958757255702E-3</v>
-      </c>
-      <c r="E27" s="62">
-        <f>E26+D27*(B27-$B$9)/365</f>
-        <v>0.23491586122571956</v>
-      </c>
-      <c r="F27" s="69">
+      <c r="D27" s="77">
+        <v>2.626914546233219E-3</v>
+      </c>
+      <c r="E27" s="78">
+        <f t="shared" si="1"/>
+        <v>0.21478457381185492</v>
+      </c>
+      <c r="F27" s="79">
         <f t="shared" si="2"/>
-        <v>0.79063737008944091</v>
-      </c>
-      <c r="G27" s="62">
+        <v>0.80671520904187533</v>
+      </c>
+      <c r="G27" s="78">
         <f t="shared" si="3"/>
         <v>0.25555555555555554</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="78">
         <f t="shared" si="4"/>
-        <v>3.8485472070918542E-2</v>
-      </c>
-      <c r="I27" s="62">
+        <v>3.8607340801573915E-2</v>
+      </c>
+      <c r="I27" s="78">
         <f t="shared" si="5"/>
-        <v>0.11608517964717793</v>
-      </c>
-      <c r="J27" s="62">
-        <f>I27-H27</f>
-        <v>7.7599707576259391E-2</v>
-      </c>
-      <c r="K27" s="62">
-        <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="L27" s="63">
-        <f>J27-K27</f>
-        <v>-2.9242374061100307E-7</v>
+        <v>0.10750442093903421</v>
+      </c>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="53"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="75">
+        <v>46650</v>
+      </c>
+      <c r="C28" s="76">
+        <f t="shared" si="0"/>
+        <v>0.86709846425713388</v>
+      </c>
+      <c r="D28" s="77">
+        <v>2.626914546233219E-3</v>
+      </c>
+      <c r="E28" s="78">
+        <f t="shared" si="1"/>
+        <v>0.22727141418915531</v>
+      </c>
+      <c r="F28" s="79">
+        <f t="shared" si="2"/>
+        <v>0.79670451603238646</v>
+      </c>
+      <c r="G28" s="78">
+        <f t="shared" si="3"/>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H28" s="78">
+        <f t="shared" si="4"/>
+        <v>4.037277291638762E-2</v>
+      </c>
+      <c r="I28" s="78">
+        <f t="shared" si="5"/>
+        <v>0.11271257485984067</v>
+      </c>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="53"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55">
+        <v>46741</v>
+      </c>
+      <c r="C29" s="56">
+        <f t="shared" si="0"/>
+        <v>0.86063723621087973</v>
+      </c>
+      <c r="D29" s="57">
+        <v>2.626914546233219E-3</v>
+      </c>
+      <c r="E29" s="58">
+        <f t="shared" si="1"/>
+        <v>0.24041318394647546</v>
+      </c>
+      <c r="F29" s="64">
+        <f t="shared" si="2"/>
+        <v>0.78630290620020049</v>
+      </c>
+      <c r="G29" s="58">
+        <f t="shared" si="3"/>
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="H29" s="58">
+        <f t="shared" si="4"/>
+        <v>4.2083374637541006E-2</v>
+      </c>
+      <c r="I29" s="58">
+        <f t="shared" si="5"/>
+        <v>0.11808378250271054</v>
+      </c>
+      <c r="J29" s="58">
+        <f>I29-H29</f>
+        <v>7.6000407865169539E-2</v>
+      </c>
+      <c r="K29" s="58">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="L29" s="59">
+        <f>J29-K29</f>
+        <v>4.0786516954105512E-7</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3243,17 +3399,29 @@
         <x15:webExtension appRef="{540E163C-662D-4282-9D33-4D43A644D26F}">
           <xm:f>#REF!</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{B4DD089D-2E39-4892-9E1A-7C64E807A016}">
+        <x15:webExtension appRef="{DDD08244-58FE-409C-A08D-4C60411A025A}">
+          <xm:f>Punto1!$D$22:$D$27</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{ABF8891B-5DAF-4B4A-AE04-6FF2228A978F}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{4181E181-5AE6-43C9-A2F7-94F0A80D9F18}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{6224A752-D9FD-4626-8CDF-BA4B50B27E79}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{7E42193C-5B67-4E67-A19F-CCFB5DC08446}">
           <xm:f>Punto1!1:1048576</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{7D976637-8C6E-48ED-9A0C-11EE623E6299}">
+        <x15:webExtension appRef="{E6A47BAC-2429-4F02-BD0F-C955E9068377}">
           <xm:f>Punto1!XFD1048550:XFD1048575</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{AC30ED59-D78A-4F22-8922-FA66015ACADD}">
-          <xm:f>Punto1!$D$10:$D$21</xm:f>
+        <x15:webExtension appRef="{CAE641E9-DABE-44D2-81F8-EF9B24EC99A7}">
+          <xm:f>Punto1!$L$29</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{DDD08244-58FE-409C-A08D-4C60411A025A}">
-          <xm:f>Punto1!$D$22:$D$27</xm:f>
+        <x15:webExtension appRef="{EEB159ED-E399-4956-BF06-1AB293879736}">
+          <xm:f>Punto1!$D$22:$D$29</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>
@@ -3263,10 +3431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0663667F-5B17-4C7D-9CBA-469F6D1FC0A2}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,164 +3444,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="65" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="75">
+      <c r="A2" s="67">
         <f>DATE(2022,12,20)</f>
         <v>44915</v>
       </c>
-      <c r="B2" s="74">
+      <c r="B2" s="80">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="76">
+      <c r="A3" s="68">
         <v>45005</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="81">
         <v>0.99805769160240121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="76">
+      <c r="A4" s="68">
         <v>45097</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="81">
         <v>0.99414143297281665</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="76">
+      <c r="A5" s="68">
         <v>45189</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="81">
         <v>0.9882744900437137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="76">
+      <c r="A6" s="68">
         <v>45280</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="81">
         <v>0.98051278384882701</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="76">
+      <c r="A7" s="68">
         <v>45371</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="81">
         <v>0.9709276930906795</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="76">
+      <c r="A8" s="68">
         <v>45463</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="81">
         <v>0.9595326500645871</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="76">
+      <c r="A9" s="68">
         <v>45555</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="81">
         <v>0.94639375658040381</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="76">
+      <c r="A10" s="68">
         <v>45646</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="81">
         <v>0.93160663476763328</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="76">
+      <c r="A11" s="68">
         <v>45736</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="81">
         <v>0.91522987357723184</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="76">
+      <c r="A12" s="68">
         <v>45828</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="81">
         <v>0.89735582066293718</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="76">
+      <c r="A13" s="68">
         <v>45920</v>
       </c>
-      <c r="B13" s="70">
+      <c r="B13" s="81">
         <v>0.87808399972885987</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="76">
+      <c r="A14" s="68">
         <v>46011</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="81">
         <v>0.85753865795923456</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="76">
+      <c r="A15" s="68">
         <v>46101</v>
       </c>
-      <c r="B15" s="70">
-        <v>0.84786213058479143</v>
+      <c r="B15" s="81">
+        <v>0.85025013883402112</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="76">
+      <c r="A16" s="68">
         <v>46193</v>
       </c>
-      <c r="B16" s="70">
-        <v>0.8375571673654808</v>
+      <c r="B16" s="81">
+        <v>0.84246556395606631</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="76">
+      <c r="A17" s="68">
         <v>46285</v>
       </c>
-      <c r="B17" s="70">
-        <v>0.82664943108055244</v>
+      <c r="B17" s="81">
+        <v>0.83419973318501284</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="76">
+      <c r="A18" s="68">
         <v>46376</v>
       </c>
-      <c r="B18" s="70">
-        <v>0.81517364246747481</v>
+      <c r="B18" s="81">
+        <v>0.82547419803551414</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="76">
+      <c r="A19" s="68">
         <v>46466</v>
       </c>
-      <c r="B19" s="70">
-        <v>0.80316520974440087</v>
+      <c r="B19" s="81">
+        <v>0.8163110076218465</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="77">
+      <c r="A20" s="68">
         <v>46558</v>
       </c>
-      <c r="B20" s="71">
-        <v>0.79063737008944091</v>
+      <c r="B20" s="81">
+        <v>0.80671520904187533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="68">
+        <v>46650</v>
+      </c>
+      <c r="B21" s="81">
+        <v>0.79670451603238646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="69">
+        <v>46741</v>
+      </c>
+      <c r="B22" s="82">
+        <v>0.78630290620020049</v>
       </c>
     </row>
   </sheetData>

--- a/Credito/Credito-parte1.xlsx
+++ b/Credito/Credito-parte1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mippolimi-my.sharepoint.com/personal/giorgio_cappello_gsom_polimi_it/Documents/Desktop/Valutazione Prodotti/Progetto/Anno corrente/ProgettoValutazioneProdotti/Credito/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive - Polimi GSOM\Desktop\Valutazione Prodotti\Progetto\Anno corrente\ProgettoValutazioneProdotti\Credito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{DDBA93F2-7EAD-477C-BA26-A2D393445F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A74978-A33F-4EF9-AE0B-96D84130125B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B521B55-798E-400E-B459-991DBD090F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
+    <workbookView xWindow="5115" yWindow="2655" windowWidth="15375" windowHeight="7875" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Punto1" sheetId="2" r:id="rId1"/>
+    <sheet name="Punto1" sheetId="4" r:id="rId1"/>
     <sheet name="Punto2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -549,6 +549,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,18 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -794,64 +794,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99805769160240121</c:v>
+                  <c:v>0.98773889133595993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99414143297281665</c:v>
+                  <c:v>0.97536068250052688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9882744900437137</c:v>
+                  <c:v>0.96313759568703472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98051278384882701</c:v>
+                  <c:v>0.95119806501118953</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9709276930906795</c:v>
+                  <c:v>0.9394065426712227</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9595326500645871</c:v>
+                  <c:v>0.92763402822580188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94639375658040381</c:v>
+                  <c:v>0.91600904532297989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93160663476763328</c:v>
+                  <c:v>0.90465374350010397</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91522987357723184</c:v>
+                  <c:v>0.89356168564771854</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.89735582066293718</c:v>
+                  <c:v>0.88236369268691794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87808399972885987</c:v>
+                  <c:v>0.87130603144396546</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85753865795923456</c:v>
+                  <c:v>0.86050489032242783</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.85025013883402112</c:v>
+                  <c:v>0.8510031043406685</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.84246556395606631</c:v>
+                  <c:v>0.84139860162109159</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.83419973318501284</c:v>
+                  <c:v>0.83190249624110124</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.82547419803551414</c:v>
+                  <c:v>0.82261504660803009</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8163110076218465</c:v>
+                  <c:v>0.8135316442867303</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.80671520904187533</c:v>
+                  <c:v>0.80435004806204036</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.79670451603238646</c:v>
+                  <c:v>0.79527207621364271</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.78630290620020049</c:v>
+                  <c:v>0.7863935725599146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,7 +1917,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -2133,75 +2133,76 @@
     <we:property name="JykPFS4LfHIeJ0QBOQVcHxI=" value="&quot;&quot;"/>
     <we:property name="JykPFS4LfHIeJ0QBOQVcHxJ3" value="&quot;&quot;"/>
     <we:property name="LiQC" value="&quot;&quot;"/>
-    <we:property name="UniqueID" value="&quot;20241111707665900305&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcnOg0=" value="&quot;RQpMS3Y=&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZDRcg" value="&quot;JhQv&quot;"/>
-    <we:property name="MTMGDShVbnt6bxclOR99Ew8=" value="&quot;Ug==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBhwg" value="&quot;UA==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGAsi" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGxor" value="&quot;UA==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhU/" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZHBYr" value="&quot;UWhYSA==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZCw8g" value="&quot;UWhYSXdV&quot;"/>
+    <we:property name="MTMGDShVbnt6bxc+ORVZGwMqDQo=" value="&quot;RQJMS3VeahdsdA8=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZAQk0" value="&quot;UWhRQA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZAQkj" value="&quot;Ug==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZAQku" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBAk3" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBAkz" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBBE0VQ==" value="&quot;RQJMS3VeahdsdA4=&quot;"/>
     <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBQor" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGwo9" value="&quot;UHZY&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGgoj" value="&quot;UQ==&quot;"/>
     <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBQsz" value="&quot;UWhYTnI=&quot;"/>
     <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBRcu" value="&quot;UnY=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBRwz" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBg01" value="&quot;Uw==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBgwq" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBhwg" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZCQs0" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZCRok" value="&quot;UWhYSXY=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZCw8g" value="&quot;UWhYSXdV&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZDRcg" value="&quot;JhQv&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZDhwm" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZDxg3" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGAsi" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGgoj" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhE0VQ==" value="&quot;RQJMS34=&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhU/" value="&quot;UQ==&quot;"/>
     <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhsx" value="&quot;UA==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBg01" value="&quot;Uw==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZCRok" value="&quot;UWhYSXY=&quot;"/>
     <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhw0" value="&quot;VA==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZCQs0" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhwrVQ==" value="&quot;QXtI&quot;"/>
     <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGw0m" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBRwz" value="&quot;Uw==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGwo9" value="&quot;UHZY&quot;"/>
     <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGxYk" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBAkz" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBAk3" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZDxg3" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZAQk0" value="&quot;UWhRQA==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZDhwm" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZAQku" value="&quot;UA==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZAQkj" value="&quot;Ug==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxc+ORVZGwMqDQo=" value="&quot;RQJMSHdeahdsdAc=&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBgwq" value="&quot;UA==&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZBBE0VQ==" value="&quot;RQJMSHdeahdsdAY=&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhwrVQ==" value="&quot;QXtI&quot;"/>
-    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGhE0VQ==" value="&quot;RQJMS3Y=&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjheDww=" value="&quot;UA==&quot;"/>
-    <we:property name="MTMGDShVbwUpNF8JOgtVCQ==" value="&quot;RQJMS3VeahdsdA8=&quot;"/>
-    <we:property name="MTMGDShVbxwqLA==" value="&quot;RQpMS34=&quot;"/>
-    <we:property name="MTMGDShVbx4pPnsBNg==" value="&quot;Ug==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZGxor" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZHBYr" value="&quot;UWhYSA==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxclOR99Ew8=" value="&quot;Ug==&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcnOg0=" value="&quot;RQpMS34=&quot;"/>
+    <we:property name="MTMGDShVbwUpNF8JOgtVCQ==" value="&quot;&quot;"/>
+    <we:property name="MTMGDShVbx4pPnsBNg==" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbxwqLA==" value="&quot;&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhACAQ=" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhCCQU=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhCEhJ3" value="&quot;RQJMS34=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhCFhk=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhCGBc=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhCHw13" value="&quot;QXtI&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhCHxI=" value="&quot;VA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhDCRs=" value="&quot;UHZY&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhDDgA=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhDFQI=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhDGQ0=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhEFQ0=" value="&quot;UWhYSA==&quot;"/>
     <we:property name="MTMGDShVbyAnKkANKjhGGw0=" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhACAQ=" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhDGQ0=" value="&quot;UA==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhCFhk=" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhEFQ0=" value="&quot;UWhYSA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhRCBI=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhRGQI=" value="&quot;UWhYSXY=&quot;"/>
     <we:property name="MTMGDShVbyAnKkANKjhTDAY=" value="&quot;UWhYSXdV&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhVFAY=" value="&quot;JhQv&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhWHwA=" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhXGxE=" value="&quot;UWhYSXdUfmI=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhZCgU=" value="&quot;Ug==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhZCgg=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhZChI=" value="&quot;UWhRQA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhcChE=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhcChU=" value="&quot;UQ==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhcEhJ3" value="&quot;RQJMS3VeahdsdA4=&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhdCBU=" value="&quot;UWhYTnI=&quot;"/>
     <we:property name="MTMGDShVbyAnKkANKjhdCQ0=" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhDCRs=" value="&quot;UHZY&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhCCQU=" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhdCBU=" value="&quot;UWhYTnI=&quot;"/>
     <we:property name="MTMGDShVbyAnKkANKjhdFAg=" value="&quot;UnY=&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhCGBc=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjhdHxU=" value="&quot;UA==&quot;"/>
+    <we:property name="MTMGDShVbyAnKkANKjheDww=" value="&quot;UQ==&quot;"/>
     <we:property name="MTMGDShVbyAnKkANKjheHwY=" value="&quot;UA==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhRGQI=" value="&quot;UWhYSXY=&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhCHxI=" value="&quot;VA==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhRCBI=" value="&quot;UA==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhDDgA=" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhdHxU=" value="&quot;UA==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhDFQI=" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhcChU=" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhcChE=" value="&quot;UQ==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhXGxE=" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhZChI=" value="&quot;UWhRQA==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhWHwA=" value="&quot;UWhYSXdUfmI=&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhZCgg=" value="&quot;UA==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhZCgU=" value="&quot;Ug==&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhVFAY=" value="&quot;JhQv&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhcEhJ3" value="&quot;RQJMS3VeahdsdA4=&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhCHw13" value="&quot;QXtI&quot;"/>
-    <we:property name="MTMGDShVbyAnKkANKjhCEhJ3" value="&quot;RQJMS34=&quot;"/>
+    <we:property name="UniqueID" value="&quot;20241111707665900305&quot;"/>
+    <we:property name="MTMGDShVbnt6bxcbNwtGHxMZHhgr" value="&quot;UQ==&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="Var$F$10:$F$12" type="matrix" appref="{3194F19F-A891-46AD-B6A0-B93C7D42DD12}"/>
@@ -2217,24 +2218,27 @@
     <we:binding id="Var$D$10:$D$12" type="matrix" appref="{F790F763-FBA1-4F84-9246-FD54E825E815}"/>
     <we:binding id="Var$D$13:$D$14" type="matrix" appref="{540E163C-662D-4282-9D33-4D43A644D26F}"/>
     <we:binding id="Var$D$22:$D$27" type="matrix" appref="{DDD08244-58FE-409C-A08D-4C60411A025A}"/>
-    <we:binding id="refEdit" type="matrix" appref="{ABF8891B-5DAF-4B4A-AE04-6FF2228A978F}"/>
-    <we:binding id="Worker" type="matrix" appref="{4181E181-5AE6-43C9-A2F7-94F0A80D9F18}"/>
-    <we:binding id="Var$D$10:$D$21" type="matrix" appref="{6224A752-D9FD-4626-8CDF-BA4B50B27E79}"/>
     <we:binding id="Punto1refEdit" type="matrix" appref="{7E42193C-5B67-4E67-A19F-CCFB5DC08446}"/>
     <we:binding id="Punto1Worker" type="matrix" appref="{E6A47BAC-2429-4F02-BD0F-C955E9068377}"/>
-    <we:binding id="Obj" type="matrix" appref="{CAE641E9-DABE-44D2-81F8-EF9B24EC99A7}"/>
-    <we:binding id="Var$D$22:$D$29" type="matrix" appref="{EEB159ED-E399-4956-BF06-1AB293879736}"/>
+    <we:binding id="refEdit" type="matrix" appref="{A5439A66-EC82-4899-9F89-F26AF27E3F22}"/>
+    <we:binding id="Worker" type="matrix" appref="{3D762E93-CC5D-4F1D-AF9B-0962CF2A1317}"/>
+    <we:binding id="Var0" type="matrix" appref="{0CA69A99-9278-4712-A1EF-2F63521F76DF}"/>
+    <we:binding id="Punto1 (2)refEdit" type="matrix" appref="{AE12639F-01D7-47D1-AB18-5BFF458FAA26}"/>
+    <we:binding id="Punto1 (2)Worker" type="matrix" appref="{72E3C011-1450-4284-ADFC-14DC8F63B42A}"/>
+    <we:binding id="Var$D$10:$D$21" type="matrix" appref="{BE9272C1-5FE8-4784-9468-5E3C9BB250A3}"/>
+    <we:binding id="Obj" type="matrix" appref="{260D179C-923F-414A-805D-3B55A823FBDE}"/>
+    <we:binding id="Var$D$22:$D$29" type="matrix" appref="{2D82E520-519A-49C5-A4ED-9B9123DC33DB}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F9D2C3-F827-9C47-AFD0-95583347D9B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE93CB2-42E9-40C7-96DD-7D0E1702464D}">
   <dimension ref="A1:XFD1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,23 +2260,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="82"/>
       <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="16">
-        <v>7.8847994498111793E-3</v>
+        <v>4.9347584746883902E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
@@ -2286,7 +2290,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="7">
-        <v>2.626914546233219E-3</v>
+        <v>4.4414089248553598E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2384,19 +2388,19 @@
         <v>45005</v>
       </c>
       <c r="C10" s="28">
-        <f t="shared" ref="C10:C29" si="0">EXP(-$B$4*(B10-$B$9)/365)</f>
-        <v>0.99263003211803524</v>
+        <f>EXP(-$B$4*(B10-$B$9)/360)</f>
+        <v>0.99252805481913842</v>
       </c>
       <c r="D10" s="29">
-        <v>7.8847994498111845E-3</v>
+        <v>4.9347584746883902E-2</v>
       </c>
       <c r="E10" s="30">
-        <f>E9+D10*(B10-$B$9)/365</f>
-        <v>1.9441971246109771E-3</v>
+        <f>E9+D10*(B10-B9)/360</f>
+        <v>1.2336896186720975E-2</v>
       </c>
       <c r="F10" s="60">
         <f>EXP(-E10)</f>
-        <v>0.99805769160240121</v>
+        <v>0.98773889133595993</v>
       </c>
       <c r="G10" s="30">
         <f>(B10-B9)/360</f>
@@ -2404,11 +2408,11 @@
       </c>
       <c r="H10" s="31">
         <f>$B$5*G10*C10*F10+H9</f>
-        <v>2.4767550961773588E-3</v>
+        <v>2.4508964012172319E-3</v>
       </c>
       <c r="I10" s="31">
         <f>I9+C10*(1-$B$6)*(F9-F10)</f>
-        <v>1.1567961882549703E-3</v>
+        <v>7.301696599347463E-3</v>
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -2420,19 +2424,19 @@
         <v>45097</v>
       </c>
       <c r="C11" s="34">
-        <f t="shared" si="0"/>
-        <v>0.9851524244872506</v>
+        <f t="shared" ref="C11:C29" si="0">EXP(-$B$4*(B11-$B$9)/360)</f>
+        <v>0.98494776796114569</v>
       </c>
       <c r="D11" s="35">
-        <v>7.8847994498111845E-3</v>
+        <v>4.9347584746883853E-2</v>
       </c>
       <c r="E11" s="36">
-        <f t="shared" ref="E11:E29" si="1">E10+D11*(B11-$B$9)/365</f>
-        <v>5.8757957543798412E-3</v>
+        <f t="shared" ref="E11:E28" si="1">E10+D11*(B11-B10)/360</f>
+        <v>2.4947945622035738E-2</v>
       </c>
       <c r="F11" s="61">
         <f t="shared" ref="F11:F29" si="2">EXP(-E11)</f>
-        <v>0.99414143297281665</v>
+        <v>0.97536068250052688</v>
       </c>
       <c r="G11" s="36">
         <f t="shared" ref="G11:G29" si="3">(B11-B10)/360</f>
@@ -2440,11 +2444,11 @@
       </c>
       <c r="H11" s="37">
         <f t="shared" ref="H11:H29" si="4">$B$5*G11*C11*F11+H10</f>
-        <v>4.9796172504503805E-3</v>
+        <v>4.9059657929146688E-3</v>
       </c>
       <c r="I11" s="37">
         <f t="shared" ref="I11:I29" si="5">I10+C11*(1-$B$6)*(F10-F11)</f>
-        <v>3.4716631985675763E-3</v>
+        <v>1.4616830097637496E-2</v>
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -2457,18 +2461,18 @@
       </c>
       <c r="C12" s="34">
         <f t="shared" si="0"/>
-        <v>0.97773114662090066</v>
+        <v>0.97742537442775013</v>
       </c>
       <c r="D12" s="35">
-        <v>7.8847994498111845E-3</v>
+        <v>4.9347584746883853E-2</v>
       </c>
       <c r="E12" s="36">
         <f t="shared" si="1"/>
-        <v>1.1794795889306594E-2</v>
+        <v>3.7558995057350497E-2</v>
       </c>
       <c r="F12" s="61">
         <f t="shared" si="2"/>
-        <v>0.9882744900437137</v>
+        <v>0.96313759568703472</v>
       </c>
       <c r="G12" s="36">
         <f t="shared" si="3"/>
@@ -2476,11 +2480,11 @@
       </c>
       <c r="H12" s="37">
         <f t="shared" si="4"/>
-        <v>7.4489656123962024E-3</v>
+        <v>7.311753334810934E-3</v>
       </c>
       <c r="I12" s="37">
         <f t="shared" si="5"/>
-        <v>6.9134389009063019E-3</v>
+        <v>2.1785123220841775E-2</v>
       </c>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
@@ -2493,18 +2497,18 @@
       </c>
       <c r="C13" s="34">
         <f t="shared" si="0"/>
-        <v>0.97044553354850815</v>
+        <v>0.97004126547122782</v>
       </c>
       <c r="D13" s="35">
-        <v>7.8847994498111845E-3</v>
+        <v>4.9347584746883853E-2</v>
       </c>
       <c r="E13" s="36">
         <f t="shared" si="1"/>
-        <v>1.9679595339117777E-2</v>
+        <v>5.0032967868368361E-2</v>
       </c>
       <c r="F13" s="61">
         <f t="shared" si="2"/>
-        <v>0.98051278384882701</v>
+        <v>0.95119806501118953</v>
       </c>
       <c r="G13" s="36">
         <f t="shared" si="3"/>
@@ -2512,11 +2516,11 @@
       </c>
       <c r="H13" s="37">
         <f t="shared" si="4"/>
-        <v>9.8542327485703976E-3</v>
+        <v>9.6441373652956172E-3</v>
       </c>
       <c r="I13" s="37">
         <f t="shared" si="5"/>
-        <v>1.1432826766632452E-2</v>
+        <v>2.8734225688399423E-2</v>
       </c>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
@@ -2529,18 +2533,18 @@
       </c>
       <c r="C14" s="34">
         <f t="shared" si="0"/>
-        <v>0.9632142095902797</v>
+        <v>0.96271294089119952</v>
       </c>
       <c r="D14" s="35">
-        <v>7.8847994498111845E-3</v>
+        <v>4.9347584746883853E-2</v>
       </c>
       <c r="E14" s="36">
-        <f>E13+D14*(B14-$B$9)/366</f>
-        <v>2.9503279899538271E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.2506940679386225E-2</v>
       </c>
       <c r="F14" s="61">
         <f t="shared" si="2"/>
-        <v>0.9709276930906795</v>
+        <v>0.9394065426712227</v>
       </c>
       <c r="G14" s="36">
         <f t="shared" si="3"/>
@@ -2548,11 +2552,11 @@
       </c>
       <c r="H14" s="37">
         <f t="shared" si="4"/>
-        <v>1.2218239217813131E-2</v>
+        <v>1.1930206088080552E-2</v>
       </c>
       <c r="I14" s="37">
         <f t="shared" si="5"/>
-        <v>1.6972324137708539E-2</v>
+        <v>3.554533637809567E-2</v>
       </c>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
@@ -2565,18 +2569,18 @@
       </c>
       <c r="C15" s="34">
         <f t="shared" si="0"/>
-        <v>0.95595819507262103</v>
+        <v>0.9553603625752275</v>
       </c>
       <c r="D15" s="35">
-        <v>7.8847994498111845E-3</v>
+        <v>4.9347584746883853E-2</v>
       </c>
       <c r="E15" s="36">
-        <f t="shared" ref="E15:E17" si="6">E14+D15*(B15-$B$9)/366</f>
-        <v>4.1308935906359388E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.5117990114700994E-2</v>
       </c>
       <c r="F15" s="61">
         <f t="shared" si="2"/>
-        <v>0.9595326500645871</v>
+        <v>0.92763402822580188</v>
       </c>
       <c r="G15" s="36">
         <f t="shared" si="3"/>
@@ -2584,11 +2588,11 @@
       </c>
       <c r="H15" s="37">
         <f t="shared" si="4"/>
-        <v>1.4562381585167219E-2</v>
+        <v>1.4195002752023572E-2</v>
       </c>
       <c r="I15" s="37">
         <f t="shared" si="5"/>
-        <v>2.3508234996107429E-2</v>
+        <v>4.2293532579495273E-2</v>
       </c>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
@@ -2601,18 +2605,18 @@
       </c>
       <c r="C16" s="34">
         <f t="shared" si="0"/>
-        <v>0.94875684103043745</v>
+        <v>0.94806393849339554</v>
       </c>
       <c r="D16" s="35">
-        <v>7.8847994498111845E-3</v>
+        <v>4.9347584746883853E-2</v>
       </c>
       <c r="E16" s="36">
-        <f t="shared" si="6"/>
-        <v>5.509656335958113E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.7729039550015764E-2</v>
       </c>
       <c r="F16" s="61">
         <f t="shared" si="2"/>
-        <v>0.94639375658040381</v>
+        <v>0.91600904532297989</v>
       </c>
       <c r="G16" s="36">
         <f t="shared" si="3"/>
@@ -2620,11 +2624,11 @@
       </c>
       <c r="H16" s="37">
         <f t="shared" si="4"/>
-        <v>1.6857008659597831E-2</v>
+        <v>1.6414337006879463E-2</v>
       </c>
       <c r="I16" s="37">
         <f t="shared" si="5"/>
-        <v>3.0987604042120909E-2</v>
+        <v>4.8906268824955954E-2</v>
       </c>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
@@ -2637,18 +2641,18 @@
       </c>
       <c r="C17" s="34">
         <f t="shared" si="0"/>
-        <v>0.94168713146107119</v>
+        <v>0.9409016449794958</v>
       </c>
       <c r="D17" s="35">
-        <v>7.8847994498111845E-3</v>
+        <v>4.9347584746883853E-2</v>
       </c>
       <c r="E17" s="36">
-        <f t="shared" si="6"/>
-        <v>7.0844619091307848E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.10020301236103363</v>
       </c>
       <c r="F17" s="61">
         <f t="shared" si="2"/>
-        <v>0.93160663476763328</v>
+        <v>0.90465374350010397</v>
       </c>
       <c r="G17" s="36">
         <f t="shared" si="3"/>
@@ -2656,11 +2660,11 @@
       </c>
       <c r="H17" s="37">
         <f t="shared" si="4"/>
-        <v>1.9074582552335149E-2</v>
+        <v>1.8565956667464065E-2</v>
       </c>
       <c r="I17" s="37">
         <f t="shared" si="5"/>
-        <v>3.9342509435580902E-2</v>
+        <v>5.5316802123585529E-2</v>
       </c>
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
@@ -2673,18 +2677,18 @@
       </c>
       <c r="C18" s="34">
         <f t="shared" si="0"/>
-        <v>0.93474692754734356</v>
+        <v>0.9338712794676266</v>
       </c>
       <c r="D18" s="35">
-        <v>7.8847994498111845E-3</v>
+        <v>4.9347584746883853E-2</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" si="1"/>
-        <v>8.8580017305814648E-2</v>
+        <v>0.11253990854775459</v>
       </c>
       <c r="F18" s="61">
         <f t="shared" si="2"/>
-        <v>0.91522987357723184</v>
+        <v>0.89356168564771854</v>
       </c>
       <c r="G18" s="36">
         <f t="shared" si="3"/>
@@ -2692,11 +2696,11 @@
       </c>
       <c r="H18" s="37">
         <f t="shared" si="4"/>
-        <v>2.1213353333149804E-2</v>
+        <v>2.0652135654111774E-2</v>
       </c>
       <c r="I18" s="37">
         <f t="shared" si="5"/>
-        <v>4.8527385759123493E-2</v>
+        <v>6.1531934678707198E-2</v>
       </c>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
@@ -2709,18 +2713,18 @@
       </c>
       <c r="C19" s="34">
         <f t="shared" si="0"/>
-        <v>0.92770536066731857</v>
+        <v>0.92673897509352476</v>
       </c>
       <c r="D19" s="35">
-        <v>7.8847994498111845E-3</v>
+        <v>4.9347584746883853E-2</v>
       </c>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>0.10830281702547934</v>
+        <v>0.12515095798306936</v>
       </c>
       <c r="F19" s="61">
         <f t="shared" si="2"/>
-        <v>0.89735582066293718</v>
+        <v>0.88236369268691794</v>
       </c>
       <c r="G19" s="36">
         <f t="shared" si="3"/>
@@ -2728,11 +2732,11 @@
       </c>
       <c r="H19" s="37">
         <f t="shared" si="4"/>
-        <v>2.3340806835468207E-2</v>
+        <v>2.2741866649341715E-2</v>
       </c>
       <c r="I19" s="37">
         <f t="shared" si="5"/>
-        <v>5.8476498582388972E-2</v>
+        <v>6.7758504590465313E-2</v>
       </c>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
@@ -2745,18 +2749,18 @@
       </c>
       <c r="C20" s="34">
         <f t="shared" si="0"/>
-        <v>0.92071683880157995</v>
+        <v>0.91966114264376975</v>
       </c>
       <c r="D20" s="35">
-        <v>7.8847994498111845E-3</v>
+        <v>4.9347584746883853E-2</v>
       </c>
       <c r="E20" s="36">
         <f t="shared" si="1"/>
-        <v>0.13001301825030193</v>
+        <v>0.13776200741838412</v>
       </c>
       <c r="F20" s="61">
         <f t="shared" si="2"/>
-        <v>0.87808399972885987</v>
+        <v>0.87130603144396546</v>
       </c>
       <c r="G20" s="36">
         <f t="shared" si="3"/>
@@ -2764,11 +2768,11 @@
       </c>
       <c r="H20" s="37">
         <f t="shared" si="4"/>
-        <v>2.540688846457375E-2</v>
+        <v>2.4789649417209916E-2</v>
       </c>
       <c r="I20" s="37">
         <f t="shared" si="5"/>
-        <v>6.9122832611413235E-2</v>
+        <v>7.3860085414662158E-2</v>
       </c>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
@@ -2781,18 +2785,18 @@
       </c>
       <c r="C21" s="41">
         <f t="shared" si="0"/>
-        <v>0.91385607072650343</v>
+        <v>0.91271342237987008</v>
       </c>
       <c r="D21" s="42">
-        <v>7.8847994498111793E-3</v>
+        <v>4.9347584746883853E-2</v>
       </c>
       <c r="E21" s="43">
         <f t="shared" si="1"/>
-        <v>0.1536890187900089</v>
+        <v>0.15023598022940199</v>
       </c>
       <c r="F21" s="62">
-        <f t="shared" si="2"/>
-        <v>0.85753865795923456</v>
+        <f>EXP(-E21)</f>
+        <v>0.86050489032242783</v>
       </c>
       <c r="G21" s="43">
         <f>(B21-B20)/360</f>
@@ -2800,22 +2804,22 @@
       </c>
       <c r="H21" s="44">
         <f t="shared" si="4"/>
-        <v>2.7387824260955478E-2</v>
+        <v>2.6774951835856934E-2</v>
       </c>
       <c r="I21" s="44">
         <f t="shared" si="5"/>
-        <v>8.0388123792206972E-2</v>
+        <v>7.9775093301850092E-2</v>
       </c>
       <c r="J21" s="44">
         <f>I21-H21</f>
-        <v>5.3000299531251495E-2</v>
+        <v>5.3000141465993161E-2</v>
       </c>
       <c r="K21" s="44">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="L21" s="45">
         <f>J21-K21</f>
-        <v>2.9953125149639881E-7</v>
+        <v>1.4146599316283703E-7</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2824,19 +2828,19 @@
         <v>46101</v>
       </c>
       <c r="C22" s="48">
-        <f t="shared" si="0"/>
-        <v>0.9071209808365106</v>
+        <f>EXP(-$B$4*(B22-$B$9)/360)</f>
+        <v>0.90589367772201113</v>
       </c>
       <c r="D22" s="49">
-        <v>2.626914546233219E-3</v>
+        <v>4.4414089248553598E-2</v>
       </c>
       <c r="E22" s="50">
-        <f t="shared" si="1"/>
-        <v>0.16222469180872834</v>
+        <f>E21+D22*(B22-B21)/360</f>
+        <v>0.16133950254154039</v>
       </c>
       <c r="F22" s="63">
         <f t="shared" si="2"/>
-        <v>0.85025013883402112</v>
+        <v>0.8510031043406685</v>
       </c>
       <c r="G22" s="50">
         <f t="shared" si="3"/>
@@ -2844,11 +2848,11 @@
       </c>
       <c r="H22" s="50">
         <f>$B$5*G22*C22*F22+H21</f>
-        <v>2.9316023610694217E-2</v>
+        <v>2.8702247665716975E-2</v>
       </c>
       <c r="I22" s="50">
         <f>I21+C22*(1-$B$6)*(F21-F22)</f>
-        <v>8.4355064962832543E-2</v>
+        <v>8.4939658010616134E-2</v>
       </c>
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
@@ -2856,218 +2860,218 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="75">
+      <c r="B23" s="70">
         <v>46193</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="71">
         <f t="shared" si="0"/>
-        <v>0.90028752370860721</v>
-      </c>
-      <c r="D23" s="77">
-        <v>2.626914546233219E-3</v>
-      </c>
-      <c r="E23" s="78">
-        <f t="shared" si="1"/>
-        <v>0.17142249123362163</v>
-      </c>
-      <c r="F23" s="79">
+        <v>0.89897504816123142</v>
+      </c>
+      <c r="D23" s="72">
+        <v>4.441408924855357E-2</v>
+      </c>
+      <c r="E23" s="73">
+        <f>E22+D23*(B23-B22)/360</f>
+        <v>0.17268976979394854</v>
+      </c>
+      <c r="F23" s="74">
         <f t="shared" si="2"/>
-        <v>0.84246556395606631</v>
-      </c>
-      <c r="G23" s="78">
+        <v>0.84139860162109159</v>
+      </c>
+      <c r="G23" s="73">
         <f t="shared" si="3"/>
         <v>0.25555555555555554</v>
       </c>
-      <c r="H23" s="78">
-        <f t="shared" si="4"/>
-        <v>3.1254313437008324E-2</v>
-      </c>
-      <c r="I23" s="78">
+      <c r="H23" s="73">
+        <f>$B$5*G23*C23*F23+H22</f>
+        <v>3.0635260556111155E-2</v>
+      </c>
+      <c r="I23" s="73">
         <f t="shared" si="5"/>
-        <v>8.8560078346831439E-2</v>
-      </c>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
+        <v>9.0120182987553935E-2</v>
+      </c>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
       <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="75">
+      <c r="B24" s="70">
         <v>46285</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="71">
         <f t="shared" si="0"/>
-        <v>0.89350554387789505</v>
-      </c>
-      <c r="D24" s="77">
-        <v>2.626914546233219E-3</v>
-      </c>
-      <c r="E24" s="78">
+        <v>0.89210925861487778</v>
+      </c>
+      <c r="D24" s="72">
+        <v>4.441408924855357E-2</v>
+      </c>
+      <c r="E24" s="73">
         <f t="shared" si="1"/>
-        <v>0.18128241706468878</v>
-      </c>
-      <c r="F24" s="79">
-        <f t="shared" si="2"/>
-        <v>0.83419973318501284</v>
-      </c>
-      <c r="G24" s="78">
+        <v>0.18404003704635669</v>
+      </c>
+      <c r="F24" s="74">
+        <f>EXP(-E24)</f>
+        <v>0.83190249624110124</v>
+      </c>
+      <c r="G24" s="73">
         <f t="shared" si="3"/>
         <v>0.25555555555555554</v>
       </c>
-      <c r="H24" s="78">
+      <c r="H24" s="73">
         <f t="shared" si="4"/>
-        <v>3.3159127657558567E-2</v>
-      </c>
-      <c r="I24" s="78">
+        <v>3.2531860793968359E-2</v>
+      </c>
+      <c r="I24" s="73">
         <f t="shared" si="5"/>
-        <v>9.2991417718047101E-2</v>
-      </c>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
+        <v>9.5203121105717103E-2</v>
+      </c>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
       <c r="L24" s="53"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="75">
+      <c r="B25" s="70">
         <v>46376</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="71">
         <f t="shared" si="0"/>
-        <v>0.88684754214272488</v>
-      </c>
-      <c r="D25" s="77">
-        <v>2.626914546233219E-3</v>
-      </c>
-      <c r="E25" s="78">
+        <v>0.88536968325794452</v>
+      </c>
+      <c r="D25" s="72">
+        <v>4.441408924855357E-2</v>
+      </c>
+      <c r="E25" s="73">
         <f t="shared" si="1"/>
-        <v>0.19179727227577573</v>
-      </c>
-      <c r="F25" s="79">
+        <v>0.19526693182862995</v>
+      </c>
+      <c r="F25" s="74">
         <f t="shared" si="2"/>
-        <v>0.82547419803551414</v>
-      </c>
-      <c r="G25" s="78">
+        <v>0.82261504660803009</v>
+      </c>
+      <c r="G25" s="73">
         <f t="shared" si="3"/>
         <v>0.25277777777777777</v>
       </c>
-      <c r="H25" s="78">
+      <c r="H25" s="73">
         <f t="shared" si="4"/>
-        <v>3.5009637337845595E-2</v>
-      </c>
-      <c r="I25" s="78">
+        <v>3.4372887919427525E-2</v>
+      </c>
+      <c r="I25" s="73">
         <f t="shared" si="5"/>
-        <v>9.7634349358774825E-2</v>
-      </c>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
+        <v>0.10013681690966089</v>
+      </c>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
       <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="75">
+      <c r="B26" s="70">
         <v>46466</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="71">
         <f t="shared" si="0"/>
-        <v>0.88031150424093363</v>
-      </c>
-      <c r="D26" s="77">
-        <v>2.626914546233219E-3</v>
-      </c>
-      <c r="E26" s="78">
+        <v>0.87875424951984438</v>
+      </c>
+      <c r="D26" s="72">
+        <v>4.441408924855357E-2</v>
+      </c>
+      <c r="E26" s="73">
         <f t="shared" si="1"/>
-        <v>0.2029598598407284</v>
-      </c>
-      <c r="F26" s="79">
+        <v>0.20637045414076835</v>
+      </c>
+      <c r="F26" s="74">
         <f t="shared" si="2"/>
-        <v>0.8163110076218465</v>
-      </c>
-      <c r="G26" s="78">
+        <v>0.8135316442867303</v>
+      </c>
+      <c r="G26" s="73">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="H26" s="78">
+      <c r="H26" s="73">
         <f t="shared" si="4"/>
-        <v>3.6806157265465642E-2</v>
-      </c>
-      <c r="I26" s="78">
+        <v>3.6160123893267102E-2</v>
+      </c>
+      <c r="I26" s="73">
         <f t="shared" si="5"/>
-        <v>0.10247422652079595</v>
-      </c>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
+        <v>0.10492606394362525</v>
+      </c>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
       <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="75">
+      <c r="B27" s="70">
         <v>46558</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="71">
         <f t="shared" si="0"/>
-        <v>0.87368000629246456</v>
-      </c>
-      <c r="D27" s="77">
-        <v>2.626914546233219E-3</v>
-      </c>
-      <c r="E27" s="78">
+        <v>0.87204289334537899</v>
+      </c>
+      <c r="D27" s="72">
+        <v>4.441408924855357E-2</v>
+      </c>
+      <c r="E27" s="73">
         <f t="shared" si="1"/>
-        <v>0.21478457381185492</v>
-      </c>
-      <c r="F27" s="79">
+        <v>0.2177207213931765</v>
+      </c>
+      <c r="F27" s="74">
         <f t="shared" si="2"/>
-        <v>0.80671520904187533</v>
-      </c>
-      <c r="G27" s="78">
+        <v>0.80435004806204036</v>
+      </c>
+      <c r="G27" s="73">
         <f t="shared" si="3"/>
         <v>0.25555555555555554</v>
       </c>
-      <c r="H27" s="78">
+      <c r="H27" s="73">
         <f t="shared" si="4"/>
-        <v>3.8607340801573915E-2</v>
-      </c>
-      <c r="I27" s="78">
+        <v>3.795266145915753E-2</v>
+      </c>
+      <c r="I27" s="73">
         <f t="shared" si="5"/>
-        <v>0.10750442093903421</v>
-      </c>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
+        <v>0.10973011138600983</v>
+      </c>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
       <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="75">
+      <c r="B28" s="70">
         <v>46650</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="71">
         <f t="shared" si="0"/>
-        <v>0.86709846425713388</v>
-      </c>
-      <c r="D28" s="77">
-        <v>2.626914546233219E-3</v>
-      </c>
-      <c r="E28" s="78">
+        <v>0.86538279416537489</v>
+      </c>
+      <c r="D28" s="72">
+        <v>4.441408924855357E-2</v>
+      </c>
+      <c r="E28" s="73">
         <f t="shared" si="1"/>
-        <v>0.22727141418915531</v>
-      </c>
-      <c r="F28" s="79">
+        <v>0.22907098864558464</v>
+      </c>
+      <c r="F28" s="74">
         <f t="shared" si="2"/>
-        <v>0.79670451603238646</v>
-      </c>
-      <c r="G28" s="78">
+        <v>0.79527207621364271</v>
+      </c>
+      <c r="G28" s="73">
         <f t="shared" si="3"/>
         <v>0.25555555555555554</v>
       </c>
-      <c r="H28" s="78">
+      <c r="H28" s="73">
         <f t="shared" si="4"/>
-        <v>4.037277291638762E-2</v>
-      </c>
-      <c r="I28" s="78">
+        <v>3.9711432541714817E-2</v>
+      </c>
+      <c r="I28" s="73">
         <f t="shared" si="5"/>
-        <v>0.11271257485984067</v>
-      </c>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
+        <v>0.11444366377212241</v>
+      </c>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
       <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3077,18 +3081,18 @@
       </c>
       <c r="C29" s="56">
         <f t="shared" si="0"/>
-        <v>0.86063723621087973</v>
+        <v>0.85884512795739665</v>
       </c>
       <c r="D29" s="57">
-        <v>2.626914546233219E-3</v>
+        <v>4.441408924855357E-2</v>
       </c>
       <c r="E29" s="58">
-        <f t="shared" si="1"/>
-        <v>0.24041318394647546</v>
+        <f>E28+D29*(B29-B28)/360</f>
+        <v>0.24029788342785791</v>
       </c>
       <c r="F29" s="64">
         <f t="shared" si="2"/>
-        <v>0.78630290620020049</v>
+        <v>0.7863935725599146</v>
       </c>
       <c r="G29" s="58">
         <f t="shared" si="3"/>
@@ -3096,22 +3100,22 @@
       </c>
       <c r="H29" s="58">
         <f t="shared" si="4"/>
-        <v>4.2083374637541006E-2</v>
+        <v>4.1418669104185887E-2</v>
       </c>
       <c r="I29" s="58">
         <f t="shared" si="5"/>
-        <v>0.11808378250271054</v>
+        <v>0.11901881953605621</v>
       </c>
       <c r="J29" s="58">
         <f>I29-H29</f>
-        <v>7.6000407865169539E-2</v>
+        <v>7.7600150431870324E-2</v>
       </c>
       <c r="K29" s="58">
-        <v>7.5999999999999998E-2</v>
+        <v>7.7600000000000002E-2</v>
       </c>
       <c r="L29" s="59">
         <f>J29-K29</f>
-        <v>4.0786516954105512E-7</v>
+        <v>1.5043187032159899E-7</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3400,27 +3404,36 @@
           <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{DDD08244-58FE-409C-A08D-4C60411A025A}">
-          <xm:f>Punto1!$D$22:$D$27</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{ABF8891B-5DAF-4B4A-AE04-6FF2228A978F}">
-          <xm:f>#REF!</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{4181E181-5AE6-43C9-A2F7-94F0A80D9F18}">
-          <xm:f>#REF!</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{6224A752-D9FD-4626-8CDF-BA4B50B27E79}">
           <xm:f>#REF!</xm:f>
         </x15:webExtension>
         <x15:webExtension appRef="{7E42193C-5B67-4E67-A19F-CCFB5DC08446}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{E6A47BAC-2429-4F02-BD0F-C955E9068377}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{A5439A66-EC82-4899-9F89-F26AF27E3F22}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{3D762E93-CC5D-4F1D-AF9B-0962CF2A1317}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{0CA69A99-9278-4712-A1EF-2F63521F76DF}">
+          <xm:f>Punto1!$D$10:$D$21</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{AE12639F-01D7-47D1-AB18-5BFF458FAA26}">
           <xm:f>Punto1!1:1048576</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{E6A47BAC-2429-4F02-BD0F-C955E9068377}">
+        <x15:webExtension appRef="{72E3C011-1450-4284-ADFC-14DC8F63B42A}">
           <xm:f>Punto1!XFD1048550:XFD1048575</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{CAE641E9-DABE-44D2-81F8-EF9B24EC99A7}">
+        <x15:webExtension appRef="{BE9272C1-5FE8-4784-9468-5E3C9BB250A3}">
+          <xm:f>Punto1!$D$10:$D$21</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{260D179C-923F-414A-805D-3B55A823FBDE}">
           <xm:f>Punto1!$L$29</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{EEB159ED-E399-4956-BF06-1AB293879736}">
+        <x15:webExtension appRef="{2D82E520-519A-49C5-A4ED-9B9123DC33DB}">
           <xm:f>Punto1!$D$22:$D$29</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
@@ -3434,7 +3447,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3456,7 +3469,7 @@
         <f>DATE(2022,12,20)</f>
         <v>44915</v>
       </c>
-      <c r="B2" s="80">
+      <c r="B2" s="75">
         <v>1</v>
       </c>
     </row>
@@ -3464,160 +3477,160 @@
       <c r="A3" s="68">
         <v>45005</v>
       </c>
-      <c r="B3" s="81">
-        <v>0.99805769160240121</v>
+      <c r="B3" s="76">
+        <v>0.98773889133595993</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>45097</v>
       </c>
-      <c r="B4" s="81">
-        <v>0.99414143297281665</v>
+      <c r="B4" s="76">
+        <v>0.97536068250052688</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>45189</v>
       </c>
-      <c r="B5" s="81">
-        <v>0.9882744900437137</v>
+      <c r="B5" s="76">
+        <v>0.96313759568703472</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>45280</v>
       </c>
-      <c r="B6" s="81">
-        <v>0.98051278384882701</v>
+      <c r="B6" s="76">
+        <v>0.95119806501118953</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>45371</v>
       </c>
-      <c r="B7" s="81">
-        <v>0.9709276930906795</v>
+      <c r="B7" s="76">
+        <v>0.9394065426712227</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>45463</v>
       </c>
-      <c r="B8" s="81">
-        <v>0.9595326500645871</v>
+      <c r="B8" s="76">
+        <v>0.92763402822580188</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <v>45555</v>
       </c>
-      <c r="B9" s="81">
-        <v>0.94639375658040381</v>
+      <c r="B9" s="76">
+        <v>0.91600904532297989</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
         <v>45646</v>
       </c>
-      <c r="B10" s="81">
-        <v>0.93160663476763328</v>
+      <c r="B10" s="76">
+        <v>0.90465374350010397</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="68">
         <v>45736</v>
       </c>
-      <c r="B11" s="81">
-        <v>0.91522987357723184</v>
+      <c r="B11" s="76">
+        <v>0.89356168564771854</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="68">
         <v>45828</v>
       </c>
-      <c r="B12" s="81">
-        <v>0.89735582066293718</v>
+      <c r="B12" s="76">
+        <v>0.88236369268691794</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="68">
         <v>45920</v>
       </c>
-      <c r="B13" s="81">
-        <v>0.87808399972885987</v>
+      <c r="B13" s="76">
+        <v>0.87130603144396546</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="68">
         <v>46011</v>
       </c>
-      <c r="B14" s="81">
-        <v>0.85753865795923456</v>
+      <c r="B14" s="76">
+        <v>0.86050489032242783</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="68">
         <v>46101</v>
       </c>
-      <c r="B15" s="81">
-        <v>0.85025013883402112</v>
+      <c r="B15" s="76">
+        <v>0.8510031043406685</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="68">
         <v>46193</v>
       </c>
-      <c r="B16" s="81">
-        <v>0.84246556395606631</v>
+      <c r="B16" s="76">
+        <v>0.84139860162109159</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="68">
         <v>46285</v>
       </c>
-      <c r="B17" s="81">
-        <v>0.83419973318501284</v>
+      <c r="B17" s="76">
+        <v>0.83190249624110124</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="68">
         <v>46376</v>
       </c>
-      <c r="B18" s="81">
-        <v>0.82547419803551414</v>
+      <c r="B18" s="76">
+        <v>0.82261504660803009</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="68">
         <v>46466</v>
       </c>
-      <c r="B19" s="81">
-        <v>0.8163110076218465</v>
+      <c r="B19" s="76">
+        <v>0.8135316442867303</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="68">
         <v>46558</v>
       </c>
-      <c r="B20" s="81">
-        <v>0.80671520904187533</v>
+      <c r="B20" s="76">
+        <v>0.80435004806204036</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="68">
         <v>46650</v>
       </c>
-      <c r="B21" s="81">
-        <v>0.79670451603238646</v>
+      <c r="B21" s="76">
+        <v>0.79527207621364271</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="69">
         <v>46741</v>
       </c>
-      <c r="B22" s="82">
-        <v>0.78630290620020049</v>
+      <c r="B22" s="77">
+        <v>0.7863935725599146</v>
       </c>
     </row>
   </sheetData>

--- a/Credito/Credito-parte1.xlsx
+++ b/Credito/Credito-parte1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive - Polimi GSOM\Desktop\Valutazione Prodotti\Progetto\Anno corrente\ProgettoValutazioneProdotti\Credito\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mippolimi-my.sharepoint.com/personal/giorgio_cappello_gsom_polimi_it/Documents/Desktop/Valutazione Prodotti/Progetto/Anno corrente/ProgettoValutazioneProdotti/Credito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B521B55-798E-400E-B459-991DBD090F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{76C02DEE-1D38-4F49-A6AA-245090D558A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADEB67D4-C5D1-43E2-AE51-B072D7F9EDCF}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="2655" windowWidth="15375" windowHeight="7875" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Punto1" sheetId="4" r:id="rId1"/>
@@ -2238,7 +2238,7 @@
   <dimension ref="A1:XFD1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F9" sqref="F9:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2795,7 +2795,7 @@
         <v>0.15023598022940199</v>
       </c>
       <c r="F21" s="62">
-        <f>EXP(-E21)</f>
+        <f t="shared" si="2"/>
         <v>0.86050489032242783</v>
       </c>
       <c r="G21" s="43">

--- a/Credito/Credito-parte1.xlsx
+++ b/Credito/Credito-parte1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mippolimi-my.sharepoint.com/personal/giorgio_cappello_gsom_polimi_it/Documents/Desktop/Valutazione Prodotti/Progetto/Anno corrente/ProgettoValutazioneProdotti/Credito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{76C02DEE-1D38-4F49-A6AA-245090D558A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADEB67D4-C5D1-43E2-AE51-B072D7F9EDCF}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{76C02DEE-1D38-4F49-A6AA-245090D558A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A6A6551-56A4-4B30-B8A1-71DAFBEA3032}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
+    <workbookView minimized="1" xWindow="5115" yWindow="2655" windowWidth="15375" windowHeight="7875" xr2:uid="{07B42D37-A8E8-4F59-80DE-7E765F4C4A6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Punto1" sheetId="4" r:id="rId1"/>
@@ -418,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -576,6 +576,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2237,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE93CB2-42E9-40C7-96DD-7D0E1702464D}">
   <dimension ref="A1:XFD1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,7 +2408,7 @@
         <f>EXP(-E10)</f>
         <v>0.98773889133595993</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="83">
         <f>(B10-B9)/360</f>
         <v>0.25</v>
       </c>
@@ -2431,23 +2437,23 @@
         <v>4.9347584746883853E-2</v>
       </c>
       <c r="E11" s="36">
-        <f t="shared" ref="E11:E28" si="1">E10+D11*(B11-B10)/360</f>
+        <f>E10+D11*(B11-B10)/360</f>
         <v>2.4947945622035738E-2</v>
       </c>
       <c r="F11" s="61">
-        <f t="shared" ref="F11:F29" si="2">EXP(-E11)</f>
+        <f t="shared" ref="F11:F29" si="1">EXP(-E11)</f>
         <v>0.97536068250052688</v>
       </c>
-      <c r="G11" s="36">
-        <f t="shared" ref="G11:G29" si="3">(B11-B10)/360</f>
+      <c r="G11" s="84">
+        <f t="shared" ref="G11:G29" si="2">(B11-B10)/360</f>
         <v>0.25555555555555554</v>
       </c>
       <c r="H11" s="37">
-        <f t="shared" ref="H11:H29" si="4">$B$5*G11*C11*F11+H10</f>
+        <f t="shared" ref="H11:H29" si="3">$B$5*G11*C11*F11+H10</f>
         <v>4.9059657929146688E-3</v>
       </c>
       <c r="I11" s="37">
-        <f t="shared" ref="I11:I29" si="5">I10+C11*(1-$B$6)*(F10-F11)</f>
+        <f t="shared" ref="I11:I29" si="4">I10+C11*(1-$B$6)*(F10-F11)</f>
         <v>1.4616830097637496E-2</v>
       </c>
       <c r="J11" s="37"/>
@@ -2460,30 +2466,30 @@
         <v>45189</v>
       </c>
       <c r="C12" s="34">
-        <f t="shared" si="0"/>
+        <f>EXP(-$B$4*(B12-$B$9)/360)</f>
         <v>0.97742537442775013</v>
       </c>
       <c r="D12" s="35">
         <v>4.9347584746883853E-2</v>
       </c>
       <c r="E12" s="36">
+        <f t="shared" ref="E12:E28" si="5">E11+D12*(B12-B11)/360</f>
+        <v>3.7558995057350497E-2</v>
+      </c>
+      <c r="F12" s="61">
         <f t="shared" si="1"/>
-        <v>3.7558995057350497E-2</v>
-      </c>
-      <c r="F12" s="61">
+        <v>0.96313759568703472</v>
+      </c>
+      <c r="G12" s="84">
         <f t="shared" si="2"/>
-        <v>0.96313759568703472</v>
-      </c>
-      <c r="G12" s="36">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H12" s="37">
         <f t="shared" si="3"/>
-        <v>0.25555555555555554</v>
-      </c>
-      <c r="H12" s="37">
+        <v>7.311753334810934E-3</v>
+      </c>
+      <c r="I12" s="37">
         <f t="shared" si="4"/>
-        <v>7.311753334810934E-3</v>
-      </c>
-      <c r="I12" s="37">
-        <f t="shared" si="5"/>
         <v>2.1785123220841775E-2</v>
       </c>
       <c r="J12" s="37"/>
@@ -2503,23 +2509,23 @@
         <v>4.9347584746883853E-2</v>
       </c>
       <c r="E13" s="36">
+        <f t="shared" si="5"/>
+        <v>5.0032967868368361E-2</v>
+      </c>
+      <c r="F13" s="61">
         <f t="shared" si="1"/>
-        <v>5.0032967868368361E-2</v>
-      </c>
-      <c r="F13" s="61">
+        <v>0.95119806501118953</v>
+      </c>
+      <c r="G13" s="84">
         <f t="shared" si="2"/>
-        <v>0.95119806501118953</v>
-      </c>
-      <c r="G13" s="36">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="H13" s="37">
         <f t="shared" si="3"/>
-        <v>0.25277777777777777</v>
-      </c>
-      <c r="H13" s="37">
+        <v>9.6441373652956172E-3</v>
+      </c>
+      <c r="I13" s="37">
         <f t="shared" si="4"/>
-        <v>9.6441373652956172E-3</v>
-      </c>
-      <c r="I13" s="37">
-        <f t="shared" si="5"/>
         <v>2.8734225688399423E-2</v>
       </c>
       <c r="J13" s="37"/>
@@ -2539,23 +2545,23 @@
         <v>4.9347584746883853E-2</v>
       </c>
       <c r="E14" s="36">
+        <f t="shared" si="5"/>
+        <v>6.2506940679386225E-2</v>
+      </c>
+      <c r="F14" s="61">
         <f t="shared" si="1"/>
-        <v>6.2506940679386225E-2</v>
-      </c>
-      <c r="F14" s="61">
+        <v>0.9394065426712227</v>
+      </c>
+      <c r="G14" s="84">
         <f t="shared" si="2"/>
-        <v>0.9394065426712227</v>
-      </c>
-      <c r="G14" s="36">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="H14" s="37">
         <f t="shared" si="3"/>
-        <v>0.25277777777777777</v>
-      </c>
-      <c r="H14" s="37">
+        <v>1.1930206088080552E-2</v>
+      </c>
+      <c r="I14" s="37">
         <f t="shared" si="4"/>
-        <v>1.1930206088080552E-2</v>
-      </c>
-      <c r="I14" s="37">
-        <f t="shared" si="5"/>
         <v>3.554533637809567E-2</v>
       </c>
       <c r="J14" s="37"/>
@@ -2575,23 +2581,23 @@
         <v>4.9347584746883853E-2</v>
       </c>
       <c r="E15" s="36">
+        <f t="shared" si="5"/>
+        <v>7.5117990114700994E-2</v>
+      </c>
+      <c r="F15" s="61">
         <f t="shared" si="1"/>
-        <v>7.5117990114700994E-2</v>
-      </c>
-      <c r="F15" s="61">
+        <v>0.92763402822580188</v>
+      </c>
+      <c r="G15" s="84">
         <f t="shared" si="2"/>
-        <v>0.92763402822580188</v>
-      </c>
-      <c r="G15" s="36">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H15" s="37">
         <f t="shared" si="3"/>
-        <v>0.25555555555555554</v>
-      </c>
-      <c r="H15" s="37">
+        <v>1.4195002752023572E-2</v>
+      </c>
+      <c r="I15" s="37">
         <f t="shared" si="4"/>
-        <v>1.4195002752023572E-2</v>
-      </c>
-      <c r="I15" s="37">
-        <f t="shared" si="5"/>
         <v>4.2293532579495273E-2</v>
       </c>
       <c r="J15" s="37"/>
@@ -2611,23 +2617,23 @@
         <v>4.9347584746883853E-2</v>
       </c>
       <c r="E16" s="36">
+        <f t="shared" si="5"/>
+        <v>8.7729039550015764E-2</v>
+      </c>
+      <c r="F16" s="61">
         <f t="shared" si="1"/>
-        <v>8.7729039550015764E-2</v>
-      </c>
-      <c r="F16" s="61">
+        <v>0.91600904532297989</v>
+      </c>
+      <c r="G16" s="84">
         <f t="shared" si="2"/>
-        <v>0.91600904532297989</v>
-      </c>
-      <c r="G16" s="36">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H16" s="37">
         <f t="shared" si="3"/>
-        <v>0.25555555555555554</v>
-      </c>
-      <c r="H16" s="37">
+        <v>1.6414337006879463E-2</v>
+      </c>
+      <c r="I16" s="37">
         <f t="shared" si="4"/>
-        <v>1.6414337006879463E-2</v>
-      </c>
-      <c r="I16" s="37">
-        <f t="shared" si="5"/>
         <v>4.8906268824955954E-2</v>
       </c>
       <c r="J16" s="37"/>
@@ -2647,23 +2653,23 @@
         <v>4.9347584746883853E-2</v>
       </c>
       <c r="E17" s="36">
+        <f t="shared" si="5"/>
+        <v>0.10020301236103363</v>
+      </c>
+      <c r="F17" s="61">
         <f t="shared" si="1"/>
-        <v>0.10020301236103363</v>
-      </c>
-      <c r="F17" s="61">
+        <v>0.90465374350010397</v>
+      </c>
+      <c r="G17" s="84">
         <f t="shared" si="2"/>
-        <v>0.90465374350010397</v>
-      </c>
-      <c r="G17" s="36">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="H17" s="37">
         <f t="shared" si="3"/>
-        <v>0.25277777777777777</v>
-      </c>
-      <c r="H17" s="37">
+        <v>1.8565956667464065E-2</v>
+      </c>
+      <c r="I17" s="37">
         <f t="shared" si="4"/>
-        <v>1.8565956667464065E-2</v>
-      </c>
-      <c r="I17" s="37">
-        <f t="shared" si="5"/>
         <v>5.5316802123585529E-2</v>
       </c>
       <c r="J17" s="37"/>
@@ -2683,23 +2689,23 @@
         <v>4.9347584746883853E-2</v>
       </c>
       <c r="E18" s="36">
+        <f t="shared" si="5"/>
+        <v>0.11253990854775459</v>
+      </c>
+      <c r="F18" s="61">
         <f t="shared" si="1"/>
-        <v>0.11253990854775459</v>
-      </c>
-      <c r="F18" s="61">
+        <v>0.89356168564771854</v>
+      </c>
+      <c r="G18" s="84">
         <f t="shared" si="2"/>
-        <v>0.89356168564771854</v>
-      </c>
-      <c r="G18" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="37">
         <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="H18" s="37">
+        <v>2.0652135654111774E-2</v>
+      </c>
+      <c r="I18" s="37">
         <f t="shared" si="4"/>
-        <v>2.0652135654111774E-2</v>
-      </c>
-      <c r="I18" s="37">
-        <f t="shared" si="5"/>
         <v>6.1531934678707198E-2</v>
       </c>
       <c r="J18" s="37"/>
@@ -2719,23 +2725,23 @@
         <v>4.9347584746883853E-2</v>
       </c>
       <c r="E19" s="36">
+        <f t="shared" si="5"/>
+        <v>0.12515095798306936</v>
+      </c>
+      <c r="F19" s="61">
         <f t="shared" si="1"/>
-        <v>0.12515095798306936</v>
-      </c>
-      <c r="F19" s="61">
+        <v>0.88236369268691794</v>
+      </c>
+      <c r="G19" s="84">
         <f t="shared" si="2"/>
-        <v>0.88236369268691794</v>
-      </c>
-      <c r="G19" s="36">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H19" s="37">
         <f t="shared" si="3"/>
-        <v>0.25555555555555554</v>
-      </c>
-      <c r="H19" s="37">
+        <v>2.2741866649341715E-2</v>
+      </c>
+      <c r="I19" s="37">
         <f t="shared" si="4"/>
-        <v>2.2741866649341715E-2</v>
-      </c>
-      <c r="I19" s="37">
-        <f t="shared" si="5"/>
         <v>6.7758504590465313E-2</v>
       </c>
       <c r="J19" s="37"/>
@@ -2755,23 +2761,23 @@
         <v>4.9347584746883853E-2</v>
       </c>
       <c r="E20" s="36">
+        <f t="shared" si="5"/>
+        <v>0.13776200741838412</v>
+      </c>
+      <c r="F20" s="61">
         <f t="shared" si="1"/>
-        <v>0.13776200741838412</v>
-      </c>
-      <c r="F20" s="61">
+        <v>0.87130603144396546</v>
+      </c>
+      <c r="G20" s="84">
         <f t="shared" si="2"/>
-        <v>0.87130603144396546</v>
-      </c>
-      <c r="G20" s="36">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H20" s="37">
         <f t="shared" si="3"/>
-        <v>0.25555555555555554</v>
-      </c>
-      <c r="H20" s="37">
+        <v>2.4789649417209916E-2</v>
+      </c>
+      <c r="I20" s="37">
         <f t="shared" si="4"/>
-        <v>2.4789649417209916E-2</v>
-      </c>
-      <c r="I20" s="37">
-        <f t="shared" si="5"/>
         <v>7.3860085414662158E-2</v>
       </c>
       <c r="J20" s="37"/>
@@ -2791,23 +2797,23 @@
         <v>4.9347584746883853E-2</v>
       </c>
       <c r="E21" s="43">
+        <f t="shared" si="5"/>
+        <v>0.15023598022940199</v>
+      </c>
+      <c r="F21" s="62">
         <f t="shared" si="1"/>
-        <v>0.15023598022940199</v>
-      </c>
-      <c r="F21" s="62">
-        <f t="shared" si="2"/>
         <v>0.86050489032242783</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="85">
         <f>(B21-B20)/360</f>
         <v>0.25277777777777777</v>
       </c>
       <c r="H21" s="44">
+        <f t="shared" si="3"/>
+        <v>2.6774951835856934E-2</v>
+      </c>
+      <c r="I21" s="44">
         <f t="shared" si="4"/>
-        <v>2.6774951835856934E-2</v>
-      </c>
-      <c r="I21" s="44">
-        <f t="shared" si="5"/>
         <v>7.9775093301850092E-2</v>
       </c>
       <c r="J21" s="44">
@@ -2839,11 +2845,11 @@
         <v>0.16133950254154039</v>
       </c>
       <c r="F22" s="63">
+        <f t="shared" si="1"/>
+        <v>0.8510031043406685</v>
+      </c>
+      <c r="G22" s="86">
         <f t="shared" si="2"/>
-        <v>0.8510031043406685</v>
-      </c>
-      <c r="G22" s="50">
-        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="H22" s="50">
@@ -2875,11 +2881,11 @@
         <v>0.17268976979394854</v>
       </c>
       <c r="F23" s="74">
+        <f t="shared" si="1"/>
+        <v>0.84139860162109159</v>
+      </c>
+      <c r="G23" s="87">
         <f t="shared" si="2"/>
-        <v>0.84139860162109159</v>
-      </c>
-      <c r="G23" s="73">
-        <f t="shared" si="3"/>
         <v>0.25555555555555554</v>
       </c>
       <c r="H23" s="73">
@@ -2887,7 +2893,7 @@
         <v>3.0635260556111155E-2</v>
       </c>
       <c r="I23" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.0120182987553935E-2</v>
       </c>
       <c r="J23" s="73"/>
@@ -2907,23 +2913,23 @@
         <v>4.441408924855357E-2</v>
       </c>
       <c r="E24" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.18404003704635669</v>
       </c>
       <c r="F24" s="74">
         <f>EXP(-E24)</f>
         <v>0.83190249624110124</v>
       </c>
-      <c r="G24" s="73">
+      <c r="G24" s="87">
+        <f t="shared" si="2"/>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H24" s="73">
         <f t="shared" si="3"/>
-        <v>0.25555555555555554</v>
-      </c>
-      <c r="H24" s="73">
+        <v>3.2531860793968359E-2</v>
+      </c>
+      <c r="I24" s="73">
         <f t="shared" si="4"/>
-        <v>3.2531860793968359E-2</v>
-      </c>
-      <c r="I24" s="73">
-        <f t="shared" si="5"/>
         <v>9.5203121105717103E-2</v>
       </c>
       <c r="J24" s="73"/>
@@ -2943,23 +2949,23 @@
         <v>4.441408924855357E-2</v>
       </c>
       <c r="E25" s="73">
+        <f t="shared" si="5"/>
+        <v>0.19526693182862995</v>
+      </c>
+      <c r="F25" s="74">
         <f t="shared" si="1"/>
-        <v>0.19526693182862995</v>
-      </c>
-      <c r="F25" s="74">
+        <v>0.82261504660803009</v>
+      </c>
+      <c r="G25" s="87">
         <f t="shared" si="2"/>
-        <v>0.82261504660803009</v>
-      </c>
-      <c r="G25" s="73">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="H25" s="73">
         <f t="shared" si="3"/>
-        <v>0.25277777777777777</v>
-      </c>
-      <c r="H25" s="73">
+        <v>3.4372887919427525E-2</v>
+      </c>
+      <c r="I25" s="73">
         <f t="shared" si="4"/>
-        <v>3.4372887919427525E-2</v>
-      </c>
-      <c r="I25" s="73">
-        <f t="shared" si="5"/>
         <v>0.10013681690966089</v>
       </c>
       <c r="J25" s="73"/>
@@ -2979,23 +2985,23 @@
         <v>4.441408924855357E-2</v>
       </c>
       <c r="E26" s="73">
+        <f t="shared" si="5"/>
+        <v>0.20637045414076835</v>
+      </c>
+      <c r="F26" s="74">
         <f t="shared" si="1"/>
-        <v>0.20637045414076835</v>
-      </c>
-      <c r="F26" s="74">
+        <v>0.8135316442867303</v>
+      </c>
+      <c r="G26" s="87">
         <f t="shared" si="2"/>
-        <v>0.8135316442867303</v>
-      </c>
-      <c r="G26" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="H26" s="73">
         <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="H26" s="73">
+        <v>3.6160123893267102E-2</v>
+      </c>
+      <c r="I26" s="73">
         <f t="shared" si="4"/>
-        <v>3.6160123893267102E-2</v>
-      </c>
-      <c r="I26" s="73">
-        <f t="shared" si="5"/>
         <v>0.10492606394362525</v>
       </c>
       <c r="J26" s="73"/>
@@ -3015,23 +3021,23 @@
         <v>4.441408924855357E-2</v>
       </c>
       <c r="E27" s="73">
+        <f t="shared" si="5"/>
+        <v>0.2177207213931765</v>
+      </c>
+      <c r="F27" s="74">
         <f t="shared" si="1"/>
-        <v>0.2177207213931765</v>
-      </c>
-      <c r="F27" s="74">
+        <v>0.80435004806204036</v>
+      </c>
+      <c r="G27" s="87">
         <f t="shared" si="2"/>
-        <v>0.80435004806204036</v>
-      </c>
-      <c r="G27" s="73">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H27" s="73">
         <f t="shared" si="3"/>
-        <v>0.25555555555555554</v>
-      </c>
-      <c r="H27" s="73">
+        <v>3.795266145915753E-2</v>
+      </c>
+      <c r="I27" s="73">
         <f t="shared" si="4"/>
-        <v>3.795266145915753E-2</v>
-      </c>
-      <c r="I27" s="73">
-        <f t="shared" si="5"/>
         <v>0.10973011138600983</v>
       </c>
       <c r="J27" s="73"/>
@@ -3051,23 +3057,23 @@
         <v>4.441408924855357E-2</v>
       </c>
       <c r="E28" s="73">
+        <f t="shared" si="5"/>
+        <v>0.22907098864558464</v>
+      </c>
+      <c r="F28" s="74">
         <f t="shared" si="1"/>
-        <v>0.22907098864558464</v>
-      </c>
-      <c r="F28" s="74">
+        <v>0.79527207621364271</v>
+      </c>
+      <c r="G28" s="87">
         <f t="shared" si="2"/>
-        <v>0.79527207621364271</v>
-      </c>
-      <c r="G28" s="73">
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H28" s="73">
         <f t="shared" si="3"/>
-        <v>0.25555555555555554</v>
-      </c>
-      <c r="H28" s="73">
+        <v>3.9711432541714817E-2</v>
+      </c>
+      <c r="I28" s="73">
         <f t="shared" si="4"/>
-        <v>3.9711432541714817E-2</v>
-      </c>
-      <c r="I28" s="73">
-        <f t="shared" si="5"/>
         <v>0.11444366377212241</v>
       </c>
       <c r="J28" s="73"/>
@@ -3091,19 +3097,19 @@
         <v>0.24029788342785791</v>
       </c>
       <c r="F29" s="64">
+        <f t="shared" si="1"/>
+        <v>0.7863935725599146</v>
+      </c>
+      <c r="G29" s="88">
         <f t="shared" si="2"/>
-        <v>0.7863935725599146</v>
-      </c>
-      <c r="G29" s="58">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="H29" s="58">
         <f t="shared" si="3"/>
-        <v>0.25277777777777777</v>
-      </c>
-      <c r="H29" s="58">
+        <v>4.1418669104185887E-2</v>
+      </c>
+      <c r="I29" s="58">
         <f t="shared" si="4"/>
-        <v>4.1418669104185887E-2</v>
-      </c>
-      <c r="I29" s="58">
-        <f t="shared" si="5"/>
         <v>0.11901881953605621</v>
       </c>
       <c r="J29" s="58">
@@ -3446,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0663667F-5B17-4C7D-9CBA-469F6D1FC0A2}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
